--- a/blog Milestone 2.xlsx
+++ b/blog Milestone 2.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pradheep\Desktop\project\Library-Management-System-COEN-6312\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E64CB5-3E0B-4E82-8251-DF439A855CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11580"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
   <si>
     <t>Team Members</t>
   </si>
@@ -245,19 +264,67 @@
   </si>
   <si>
     <t>Total team hours over project</t>
+  </si>
+  <si>
+    <t>Functionality implementation</t>
+  </si>
+  <si>
+    <t>User login and register add and remove user</t>
+  </si>
+  <si>
+    <t>Functionality implementation for admin</t>
+  </si>
+  <si>
+    <t>Block and unBlock user update for admin</t>
+  </si>
+  <si>
+    <t>Update without togglecase</t>
+  </si>
+  <si>
+    <t>Rework on functional case without togglecase</t>
+  </si>
+  <si>
+    <t>Test cases for User, blocking and userRepository</t>
+  </si>
+  <si>
+    <t>writing Junit testcases for the mentioned classes</t>
+  </si>
+  <si>
+    <t>Line edits, UI Changes, to string(), updateNews implementation</t>
+  </si>
+  <si>
+    <t>UI editing, implementation of toString() method and implementation of updateNews functionality</t>
+  </si>
+  <si>
+    <t>Implementing Admin services, view news toString()</t>
+  </si>
+  <si>
+    <t>Functionality implementation of adminServices and to string on viewNews</t>
+  </si>
+  <si>
+    <t>UI changes and Junit 4 to 5 conversions and rewriting testcases</t>
+  </si>
+  <si>
+    <t>rewrk on testcases</t>
+  </si>
+  <si>
+    <t>Test cases for AdminServices, updatenews and viewnews edit on cases printing</t>
+  </si>
+  <si>
+    <t>Test cases written</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Coding and debugging</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,145 +339,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,188 +353,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="33">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -898,271 +648,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="22" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="22" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1174,51 +676,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="6" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="4" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="22" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1231,17 +718,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1252,9 +739,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1269,63 +753,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1612,1109 +1082,1109 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.8363636363636" customWidth="1"/>
-    <col min="2" max="2" width="3.33636363636364" customWidth="1"/>
-    <col min="3" max="3" width="3.83636363636364" customWidth="1"/>
-    <col min="4" max="4" width="5.66363636363636" customWidth="1"/>
-    <col min="5" max="5" width="2.66363636363636" customWidth="1"/>
-    <col min="6" max="6" width="3.83636363636364" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="6" max="6" width="3.88671875" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="15.3363636363636" customWidth="1"/>
-    <col min="10" max="10" width="21.8363636363636" customWidth="1"/>
-    <col min="11" max="11" width="25.5" customWidth="1"/>
-    <col min="19" max="19" width="35.6636363636364" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" customWidth="1"/>
+    <col min="19" max="19" width="35.6640625" customWidth="1"/>
     <col min="23" max="23" width="11" customWidth="1"/>
-    <col min="24" max="24" width="10.1636363636364" customWidth="1"/>
-    <col min="25" max="25" width="9.83636363636364" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" customWidth="1"/>
+    <col min="25" max="25" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="16.5" customHeight="1" spans="8:19">
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
-      <c r="S3" s="44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="16" spans="8:19">
-      <c r="H4" s="2"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
-      <c r="S4" s="44"/>
-    </row>
-    <row r="5" ht="29.75" spans="8:19">
-      <c r="H5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="25" t="s">
+    <row r="3" spans="1:19" ht="16.5" customHeight="1">
+      <c r="H3" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="50"/>
+      <c r="S3" s="52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="H4" s="1"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="51"/>
+      <c r="S4" s="52"/>
+    </row>
+    <row r="5" spans="1:19" ht="28.8">
+      <c r="H5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="S5" s="44"/>
-    </row>
-    <row r="6" spans="8:19">
-      <c r="H6" s="4" t="s">
+      <c r="K5" s="51"/>
+      <c r="S5" s="52"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="H6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="S6" s="44"/>
-    </row>
-    <row r="7" spans="8:19">
-      <c r="H7" s="4" t="s">
+      <c r="K6" s="21"/>
+      <c r="S6" s="52"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="H7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="S7" s="44"/>
-    </row>
-    <row r="8" spans="8:19">
-      <c r="H8" s="4" t="s">
+      <c r="K7" s="21"/>
+      <c r="S7" s="52"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="H8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="S8" s="44"/>
-    </row>
-    <row r="9" spans="8:19">
-      <c r="H9" s="4" t="s">
+      <c r="K8" s="21"/>
+      <c r="S8" s="52"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="S9" s="44"/>
-    </row>
-    <row r="10" spans="8:19">
-      <c r="H10" s="4" t="s">
+      <c r="K9" s="21"/>
+      <c r="S9" s="52"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="H10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="28"/>
-      <c r="S10" s="44"/>
-    </row>
-    <row r="11" spans="8:19">
-      <c r="H11" s="5" t="s">
+      <c r="K10" s="21"/>
+      <c r="S10" s="52"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="S11" s="44"/>
-    </row>
-    <row r="12" spans="19:19">
+      <c r="K11" s="23"/>
+      <c r="S11" s="52"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="S12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:19">
+      <c r="A15" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="46"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9" t="str">
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="37"/>
+    </row>
+    <row r="16" spans="1:19" ht="28.8">
+      <c r="A16" s="47"/>
+      <c r="B16" s="6" t="str">
         <f>$J$6</f>
         <v>Sai</v>
       </c>
-      <c r="C16" s="9" t="str">
+      <c r="C16" s="6" t="str">
         <f>$J$7</f>
         <v>SV</v>
       </c>
-      <c r="D16" s="9" t="str">
+      <c r="D16" s="6" t="str">
         <f>$J$8</f>
         <v>Kavya</v>
       </c>
-      <c r="E16" s="9" t="str">
+      <c r="E16" s="6" t="str">
         <f>$J$9</f>
         <v>PS</v>
       </c>
-      <c r="F16" s="9" t="str">
+      <c r="F16" s="6" t="str">
         <f>$J$10</f>
         <v>Het</v>
       </c>
-      <c r="G16" s="9" t="str">
+      <c r="G16" s="6" t="str">
         <f>$J$11</f>
         <v>AS</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9" t="str">
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="6" t="str">
         <f>$J$6</f>
         <v>Sai</v>
       </c>
-      <c r="M16" s="9" t="str">
+      <c r="M16" s="6" t="str">
         <f>$J$7</f>
         <v>SV</v>
       </c>
-      <c r="N16" s="9" t="str">
+      <c r="N16" s="6" t="str">
         <f>$J$8</f>
         <v>Kavya</v>
       </c>
-      <c r="O16" s="9" t="str">
+      <c r="O16" s="6" t="str">
         <f>$J$9</f>
         <v>PS</v>
       </c>
-      <c r="P16" s="9" t="str">
+      <c r="P16" s="6" t="str">
         <f>$J$10</f>
         <v>Het</v>
       </c>
-      <c r="Q16" s="9" t="str">
+      <c r="Q16" s="6" t="str">
         <f>$J$11</f>
         <v>AS</v>
       </c>
-      <c r="R16" s="38"/>
+      <c r="R16" s="30"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="38"/>
-    </row>
-    <row r="18" ht="54" customHeight="1" spans="1:18">
-      <c r="A18" s="13">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="30"/>
+    </row>
+    <row r="18" spans="1:18" ht="54" customHeight="1">
+      <c r="A18" s="10">
         <v>45321</v>
       </c>
-      <c r="B18" s="14">
-        <v>1</v>
-      </c>
-      <c r="C18" s="14">
-        <v>1</v>
-      </c>
-      <c r="D18" s="14">
-        <v>1</v>
-      </c>
-      <c r="E18" s="14">
-        <v>1</v>
-      </c>
-      <c r="F18" s="14">
-        <v>1</v>
-      </c>
-      <c r="G18" s="14">
-        <v>1</v>
-      </c>
-      <c r="H18" s="14" t="s">
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="36">
-        <v>2</v>
-      </c>
-      <c r="J18" s="14" t="s">
+      <c r="I18" s="28">
+        <v>2</v>
+      </c>
+      <c r="J18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="6">
         <f t="shared" ref="L18:Q18" si="0">B18*$I18</f>
         <v>2</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R18" s="38"/>
-    </row>
-    <row r="19" ht="54" customHeight="1" spans="1:18">
-      <c r="A19" s="13">
+      <c r="R18" s="30"/>
+    </row>
+    <row r="19" spans="1:18" ht="54" customHeight="1">
+      <c r="A19" s="10">
         <v>45322</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14">
-        <v>1</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="36">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="28">
         <v>3</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="9">
-        <f t="shared" ref="L19:L37" si="1">B19*$I19</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="9">
-        <f t="shared" ref="M19:M37" si="2">C19*$I19</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="9">
-        <f t="shared" ref="N19:N37" si="3">D19*$I19</f>
+      <c r="L19" s="6">
+        <f t="shared" ref="L19:L33" si="1">B19*$I19</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" ref="M19:M33" si="2">C19*$I19</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" ref="N19:N33" si="3">D19*$I19</f>
         <v>3</v>
       </c>
-      <c r="O19" s="9">
-        <f t="shared" ref="O19:O37" si="4">E19*$I19</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="9">
-        <f t="shared" ref="P19:P37" si="5">F19*$I19</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9">
-        <f t="shared" ref="Q19:Q37" si="6">G19*$I19</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="38"/>
-    </row>
-    <row r="20" ht="54" customHeight="1" spans="1:18">
-      <c r="A20" s="13">
+      <c r="O19" s="6">
+        <f t="shared" ref="O19:O33" si="4">E19*$I19</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <f t="shared" ref="P19:P33" si="5">F19*$I19</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
+        <f t="shared" ref="Q19:Q33" si="6">G19*$I19</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="30"/>
+    </row>
+    <row r="20" spans="1:18" ht="54" customHeight="1">
+      <c r="A20" s="10">
         <v>45323</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14">
-        <v>1</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="36">
-        <v>2</v>
-      </c>
-      <c r="J20" s="14" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="28">
+        <v>2</v>
+      </c>
+      <c r="J20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R20" s="38"/>
-    </row>
-    <row r="21" ht="54" customHeight="1" spans="1:18">
-      <c r="A21" s="13">
+      <c r="R20" s="30"/>
+    </row>
+    <row r="21" spans="1:18" ht="54" customHeight="1">
+      <c r="A21" s="10">
         <v>45323</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14">
-        <v>1</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="36">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="28">
         <v>3</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R21" s="38"/>
-    </row>
-    <row r="22" ht="54" customHeight="1" spans="1:18">
-      <c r="A22" s="13">
+      <c r="R21" s="30"/>
+    </row>
+    <row r="22" spans="1:18" ht="54" customHeight="1">
+      <c r="A22" s="10">
         <v>45324</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14">
-        <v>1</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="36">
-        <v>2</v>
-      </c>
-      <c r="J22" s="14" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11">
+        <v>1</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="28">
+        <v>2</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="6">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="Q22" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R22" s="38"/>
-    </row>
-    <row r="23" ht="54" customHeight="1" spans="1:18">
-      <c r="A23" s="13">
+      <c r="R22" s="30"/>
+    </row>
+    <row r="23" spans="1:18" ht="54" customHeight="1">
+      <c r="A23" s="10">
         <v>45324</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14">
-        <v>1</v>
-      </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="36">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="28">
         <v>3</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P23" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="Q23" s="6">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="R23" s="38"/>
-    </row>
-    <row r="24" ht="54" customHeight="1" spans="1:18">
-      <c r="A24" s="13">
+      <c r="R23" s="30"/>
+    </row>
+    <row r="24" spans="1:18" ht="54" customHeight="1">
+      <c r="A24" s="10">
         <v>45325</v>
       </c>
-      <c r="B24" s="14">
-        <v>1</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="36">
-        <v>2</v>
-      </c>
-      <c r="J24" s="14" t="s">
+      <c r="B24" s="11">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="28">
+        <v>2</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O24" s="9">
+      <c r="O24" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P24" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="Q24" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R24" s="38"/>
-    </row>
-    <row r="25" ht="43.5" spans="1:18">
-      <c r="A25" s="13">
+      <c r="R24" s="30"/>
+    </row>
+    <row r="25" spans="1:18" ht="43.2">
+      <c r="A25" s="10">
         <v>45326</v>
       </c>
-      <c r="B25" s="14">
-        <v>1</v>
-      </c>
-      <c r="C25" s="14">
-        <v>1</v>
-      </c>
-      <c r="D25" s="14">
-        <v>1</v>
-      </c>
-      <c r="E25" s="14">
-        <v>1</v>
-      </c>
-      <c r="F25" s="14">
-        <v>1</v>
-      </c>
-      <c r="G25" s="14">
-        <v>1</v>
-      </c>
-      <c r="H25" s="14" t="s">
+      <c r="B25" s="11">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11">
+        <v>1</v>
+      </c>
+      <c r="G25" s="11">
+        <v>1</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="28">
         <v>3</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O25" s="6">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25" s="6">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="Q25" s="6">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="R25" s="38"/>
-    </row>
-    <row r="26" ht="87" spans="1:18">
-      <c r="A26" s="13">
+      <c r="R25" s="30"/>
+    </row>
+    <row r="26" spans="1:18" ht="86.4">
+      <c r="A26" s="10">
         <v>45330</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14">
-        <v>1</v>
-      </c>
-      <c r="D26" s="14">
-        <v>1</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="36">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="28">
         <v>1.5</v>
       </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14" t="s">
+      <c r="J26" s="11"/>
+      <c r="K26" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="6">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="6">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O26" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P26" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="Q26" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R26" s="38"/>
+      <c r="R26" s="30"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="13">
+      <c r="A27" s="10">
         <v>45331</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14">
-        <v>1</v>
-      </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="36">
-        <v>2</v>
-      </c>
-      <c r="J27" s="14" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="28">
+        <v>2</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O27" s="9">
+      <c r="O27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P27" s="9">
+      <c r="P27" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="9">
+      <c r="Q27" s="6">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="R27" s="38"/>
-    </row>
-    <row r="28" ht="29" spans="1:18">
-      <c r="A28" s="13">
+      <c r="R27" s="30"/>
+    </row>
+    <row r="28" spans="1:18" ht="28.8">
+      <c r="A28" s="10">
         <v>45333</v>
       </c>
-      <c r="B28" s="14">
-        <v>1</v>
-      </c>
-      <c r="C28" s="14">
-        <v>1</v>
-      </c>
-      <c r="D28" s="14">
-        <v>1</v>
-      </c>
-      <c r="E28" s="14">
-        <v>1</v>
-      </c>
-      <c r="F28" s="14">
-        <v>1</v>
-      </c>
-      <c r="G28" s="14">
-        <v>1</v>
-      </c>
-      <c r="H28" s="14" t="s">
+      <c r="B28" s="11">
+        <v>1</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="28">
         <v>3</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="O28" s="9">
+      <c r="O28" s="6">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="P28" s="9">
+      <c r="P28" s="6">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="Q28" s="9">
+      <c r="Q28" s="6">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="R28" s="38"/>
-    </row>
-    <row r="29" ht="58" spans="1:18">
-      <c r="A29" s="13">
+      <c r="R28" s="30"/>
+    </row>
+    <row r="29" spans="1:18" ht="57.6">
+      <c r="A29" s="10">
         <v>45335</v>
       </c>
-      <c r="B29" s="14">
-        <v>1</v>
-      </c>
-      <c r="C29" s="14">
-        <v>1</v>
-      </c>
-      <c r="D29" s="14">
-        <v>1</v>
-      </c>
-      <c r="E29" s="14">
-        <v>1</v>
-      </c>
-      <c r="F29" s="14">
-        <v>1</v>
-      </c>
-      <c r="G29" s="14">
-        <v>0</v>
-      </c>
-      <c r="H29" s="14" t="s">
+      <c r="B29" s="11">
+        <v>1</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="36">
-        <v>2</v>
-      </c>
-      <c r="J29" s="14" t="s">
+      <c r="I29" s="28">
+        <v>2</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="O29" s="9">
+      <c r="O29" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="P29" s="9">
+      <c r="P29" s="6">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="Q29" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R29" s="38"/>
-    </row>
-    <row r="30" ht="29" spans="1:18">
-      <c r="A30" s="13">
+      <c r="R29" s="30"/>
+    </row>
+    <row r="30" spans="1:18" ht="28.8">
+      <c r="A30" s="10">
         <v>45338</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14">
-        <v>1</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11">
+        <v>1</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="28">
         <v>1.5</v>
       </c>
-      <c r="J30" s="14" t="s">
+      <c r="J30" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O30" s="9">
+      <c r="O30" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P30" s="9">
+      <c r="P30" s="6">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="Q30" s="9">
+      <c r="Q30" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R30" s="38"/>
-    </row>
-    <row r="31" ht="43.5" spans="1:18">
-      <c r="A31" s="13">
+      <c r="R30" s="30"/>
+    </row>
+    <row r="31" spans="1:18" ht="43.2">
+      <c r="A31" s="10">
         <v>45340</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14">
-        <v>1</v>
-      </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11">
+        <v>1</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="36">
-        <v>1</v>
-      </c>
-      <c r="J31" s="14" t="s">
+      <c r="I31" s="28">
+        <v>1</v>
+      </c>
+      <c r="J31" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K31" s="14" t="s">
+      <c r="K31" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N31" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O31" s="9">
+      <c r="O31" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P31" s="9">
+      <c r="P31" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q31" s="9">
+      <c r="Q31" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R31" s="38"/>
-    </row>
-    <row r="32" ht="43.5" spans="1:18">
-      <c r="A32" s="13">
+      <c r="R31" s="30"/>
+    </row>
+    <row r="32" spans="1:18" ht="43.2">
+      <c r="A32" s="10">
         <v>45340</v>
       </c>
-      <c r="B32" s="14">
-        <v>1</v>
-      </c>
-      <c r="C32" s="14">
-        <v>1</v>
-      </c>
-      <c r="D32" s="14">
-        <v>1</v>
-      </c>
-      <c r="E32" s="14">
-        <v>1</v>
-      </c>
-      <c r="F32" s="14">
-        <v>1</v>
-      </c>
-      <c r="G32" s="14">
-        <v>1</v>
-      </c>
-      <c r="H32" s="14" t="s">
+      <c r="B32" s="11">
+        <v>1</v>
+      </c>
+      <c r="C32" s="11">
+        <v>1</v>
+      </c>
+      <c r="D32" s="11">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11">
+        <v>1</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="36">
-        <v>2</v>
-      </c>
-      <c r="J32" s="14" t="s">
+      <c r="I32" s="28">
+        <v>2</v>
+      </c>
+      <c r="J32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="O32" s="9">
+      <c r="O32" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="P32" s="9">
+      <c r="P32" s="6">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="Q32" s="9">
+      <c r="Q32" s="6">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="R32" s="38"/>
+      <c r="R32" s="30"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="13">
+      <c r="A33" s="10">
         <v>45340</v>
       </c>
-      <c r="B33" s="14">
-        <v>1</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14">
-        <v>1</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14">
-        <v>1</v>
-      </c>
-      <c r="H33" s="14" t="s">
+      <c r="B33" s="11">
+        <v>1</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11">
+        <v>1</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I33" s="36">
-        <v>2</v>
-      </c>
-      <c r="J33" s="14" t="s">
+      <c r="I33" s="28">
+        <v>2</v>
+      </c>
+      <c r="J33" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O33" s="9">
+      <c r="O33" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="P33" s="9">
+      <c r="P33" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="9">
+      <c r="Q33" s="6">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="R33" s="38"/>
-    </row>
-    <row r="34" ht="18" customHeight="1" spans="1:18">
-      <c r="A34" s="15"/>
-      <c r="K34" s="37" t="s">
+      <c r="R33" s="30"/>
+    </row>
+    <row r="34" spans="1:18" ht="18" customHeight="1">
+      <c r="A34" s="12"/>
+      <c r="K34" s="29" t="s">
         <v>62</v>
       </c>
       <c r="L34">
@@ -2741,516 +2211,612 @@
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="R34" s="38"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1" spans="1:18">
-      <c r="A35" s="15"/>
-      <c r="K35" s="18" t="s">
+      <c r="R34" s="30"/>
+    </row>
+    <row r="35" spans="1:18" ht="16.5" customHeight="1">
+      <c r="A35" s="12"/>
+      <c r="K35" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="38">
+      <c r="P35" s="30"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="30">
         <f>SUM(L34:Q34)</f>
         <v>92.5</v>
       </c>
     </row>
-    <row r="36" ht="19.5" customHeight="1" spans="1:18">
-      <c r="A36" s="15" t="s">
+    <row r="36" spans="1:18" ht="19.5" customHeight="1">
+      <c r="A36" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="L36" s="34"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="38"/>
-    </row>
-    <row r="37" ht="51" customHeight="1" spans="1:18">
-      <c r="A37" s="16">
+      <c r="L36" s="26"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="30"/>
+    </row>
+    <row r="37" spans="1:18" ht="51" customHeight="1">
+      <c r="A37" s="13">
         <v>45341</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17">
-        <v>1</v>
-      </c>
-      <c r="H37" s="17" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14">
+        <v>1</v>
+      </c>
+      <c r="H37" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I37" s="39">
+      <c r="I37" s="31">
         <v>2.5</v>
       </c>
-      <c r="J37" s="17" t="s">
+      <c r="J37" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K37" s="40" t="s">
+      <c r="K37" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="L37" s="41">
+      <c r="L37" s="33">
         <f t="shared" ref="L37" si="8">B37*$I37</f>
         <v>0</v>
       </c>
-      <c r="M37" s="42">
-        <f t="shared" ref="M32:P37" si="9">C37*$I37</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="42">
+      <c r="M37" s="34">
+        <f t="shared" ref="M37:P37" si="9">C37*$I37</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O37" s="42">
+      <c r="O37" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P37" s="43">
+      <c r="P37" s="35">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="43">
+      <c r="Q37" s="35">
         <f>G37*$I37</f>
         <v>2.5</v>
       </c>
-      <c r="R37" s="38"/>
-    </row>
-    <row r="38" ht="51" customHeight="1" spans="1:18">
-      <c r="A38" s="16">
+      <c r="R37" s="30"/>
+    </row>
+    <row r="38" spans="1:18" ht="51" customHeight="1">
+      <c r="A38" s="13">
         <v>45342</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17">
-        <v>1</v>
-      </c>
-      <c r="H38" s="17" t="s">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14">
+        <v>1</v>
+      </c>
+      <c r="H38" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="39">
+      <c r="I38" s="31">
         <v>3.5</v>
       </c>
-      <c r="J38" s="17" t="s">
+      <c r="J38" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="K38" s="40" t="s">
+      <c r="K38" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="L38" s="41">
+      <c r="L38" s="33">
         <f t="shared" ref="L38:L48" si="10">B38*$I38</f>
         <v>0</v>
       </c>
-      <c r="M38" s="42">
+      <c r="M38" s="34">
         <f t="shared" ref="M38:M48" si="11">C38*$I38</f>
         <v>0</v>
       </c>
-      <c r="N38" s="42">
+      <c r="N38" s="34">
         <f t="shared" ref="N38:N48" si="12">D38*$I38</f>
         <v>0</v>
       </c>
-      <c r="O38" s="42">
+      <c r="O38" s="34">
         <f t="shared" ref="O38:O48" si="13">E38*$I38</f>
         <v>0</v>
       </c>
-      <c r="P38" s="43">
+      <c r="P38" s="35">
         <f t="shared" ref="P38:P48" si="14">F38*$I38</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="43">
+      <c r="Q38" s="35">
         <f t="shared" ref="Q38:Q48" si="15">G38*$I38</f>
         <v>3.5</v>
       </c>
-      <c r="R38" s="38"/>
+      <c r="R38" s="30"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="41">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="33">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M39" s="42">
+      <c r="M39" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N39" s="42">
+      <c r="N39" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O39" s="42">
+      <c r="O39" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="P39" s="43">
+      <c r="P39" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="43">
+      <c r="Q39" s="35">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R39" s="38"/>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="41">
+      <c r="R39" s="30"/>
+    </row>
+    <row r="40" spans="1:18" ht="28.8">
+      <c r="A40" s="13">
+        <v>45344</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14">
+        <v>1</v>
+      </c>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="31">
+        <v>3.5</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K40" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="L40" s="33">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M40" s="42">
+      <c r="M40" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N40" s="42">
+      <c r="N40" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O40" s="42">
+      <c r="O40" s="34">
+        <f>E40*$I40</f>
+        <v>3.5</v>
+      </c>
+      <c r="P40" s="35">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="30"/>
+    </row>
+    <row r="41" spans="1:18" ht="28.8">
+      <c r="A41" s="13">
+        <v>45345</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14">
+        <v>1</v>
+      </c>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="31">
+        <v>3</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K41" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41" s="33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="34">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="34">
+        <f>E41*$I41</f>
+        <v>3</v>
+      </c>
+      <c r="P41" s="35">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="30"/>
+    </row>
+    <row r="42" spans="1:18" ht="28.8">
+      <c r="A42" s="13">
+        <v>45346</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14">
+        <v>1</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" s="31">
+        <v>1</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K42" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="L42" s="33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="34">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="34">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="43">
+        <v>1</v>
+      </c>
+      <c r="P42" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="43">
+      <c r="Q42" s="35">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R40" s="38"/>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="41">
+      <c r="R42" s="30"/>
+    </row>
+    <row r="43" spans="1:18" ht="43.2">
+      <c r="A43" s="13">
+        <v>45350</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14">
+        <v>1</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I43" s="31">
+        <v>4</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K43" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="L43" s="33">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M41" s="42">
+      <c r="M43" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N41" s="42">
+      <c r="N43" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O41" s="42">
+      <c r="O43" s="34">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="43">
+        <v>4</v>
+      </c>
+      <c r="P43" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="43">
+      <c r="Q43" s="35">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R41" s="38"/>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="41">
+      <c r="R43" s="30"/>
+    </row>
+    <row r="44" spans="1:18" ht="57.6">
+      <c r="A44" s="13">
+        <v>45351</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14">
+        <v>1</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="31">
+        <v>6</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K44" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L44" s="33">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M42" s="42">
+      <c r="M44" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N42" s="42">
+      <c r="N44" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O42" s="42">
+      <c r="O44" s="34">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="43">
+        <v>6</v>
+      </c>
+      <c r="P44" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="43">
+      <c r="Q44" s="35">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R42" s="38"/>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="41">
+      <c r="R44" s="30"/>
+    </row>
+    <row r="45" spans="1:18" ht="43.2">
+      <c r="A45" s="13">
+        <v>45352</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14">
+        <v>1</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" s="31">
+        <v>3</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K45" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="L45" s="33">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M43" s="42">
+      <c r="M45" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N43" s="42">
+      <c r="N45" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O43" s="42">
+      <c r="O45" s="34">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="43">
+        <v>3</v>
+      </c>
+      <c r="P45" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="43">
+      <c r="Q45" s="35">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R43" s="38"/>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="41">
+      <c r="R45" s="30"/>
+    </row>
+    <row r="46" spans="1:18" ht="43.2">
+      <c r="A46" s="13">
+        <v>45353</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14">
+        <v>1</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I46" s="31">
+        <v>2</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K46" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="L46" s="33">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M44" s="42">
+      <c r="M46" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N44" s="42">
+      <c r="N46" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O44" s="42">
+      <c r="O46" s="34">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="43">
+        <v>2</v>
+      </c>
+      <c r="P46" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="43">
+      <c r="Q46" s="35">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R44" s="38"/>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="41">
+      <c r="R46" s="30"/>
+    </row>
+    <row r="47" spans="1:18" ht="72">
+      <c r="A47" s="13">
+        <v>45354</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14">
+        <v>1</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47" s="31">
+        <v>4</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K47" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="L47" s="33">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M45" s="42">
+      <c r="M47" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N45" s="42">
+      <c r="N47" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O45" s="42">
+      <c r="O47" s="34">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="43">
+        <v>4</v>
+      </c>
+      <c r="P47" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="43">
+      <c r="Q47" s="35">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R45" s="38"/>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="41">
+      <c r="R47" s="30"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="33">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M46" s="42">
+      <c r="M48" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N46" s="42">
+      <c r="N48" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O46" s="42">
+      <c r="O48" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="P46" s="43">
+      <c r="P48" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="43">
+      <c r="Q48" s="35">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R46" s="38"/>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="41">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="42">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="42">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="43">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="43">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="38"/>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="41">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="42">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="42">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="43">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="43">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="38"/>
+      <c r="R48" s="30"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="15"/>
-      <c r="H49" s="18"/>
-      <c r="K49" s="37" t="s">
+      <c r="A49" s="12"/>
+      <c r="H49" s="15"/>
+      <c r="K49" s="29" t="s">
         <v>62</v>
       </c>
       <c r="L49">
@@ -3269,108 +2835,108 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P49" s="38">
+      <c r="P49" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="38">
+      <c r="Q49" s="30">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="R49" s="38"/>
+      <c r="R49" s="30"/>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="15"/>
-      <c r="K50" s="18" t="s">
+      <c r="A50" s="12"/>
+      <c r="K50" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38">
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="30">
         <f>SUM(L49:Q49)</f>
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="15"/>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="47"/>
-      <c r="R51" s="38"/>
+      <c r="A51" s="12"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="30"/>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="L52" s="34"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="38"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="30"/>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="16"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="41">
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="33">
         <f t="shared" ref="L53" si="17">B53*$I53</f>
         <v>0</v>
       </c>
-      <c r="M53" s="42">
+      <c r="M53" s="34">
         <f t="shared" ref="M53" si="18">C53*$I53</f>
         <v>0</v>
       </c>
-      <c r="N53" s="42">
+      <c r="N53" s="34">
         <f t="shared" ref="N53" si="19">D53*$I53</f>
         <v>0</v>
       </c>
-      <c r="O53" s="42">
+      <c r="O53" s="34">
         <f t="shared" ref="O53" si="20">E53*$I53</f>
         <v>0</v>
       </c>
-      <c r="P53" s="43">
+      <c r="P53" s="35">
         <f t="shared" ref="P53:Q53" si="21">F53*$I53</f>
         <v>0</v>
       </c>
-      <c r="Q53" s="43">
+      <c r="Q53" s="35">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R53" s="38"/>
+      <c r="R53" s="30"/>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="38"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="30"/>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="15"/>
-      <c r="H55" s="18"/>
-      <c r="K55" s="37" t="s">
+      <c r="A55" s="12"/>
+      <c r="H55" s="15"/>
+      <c r="K55" s="29" t="s">
         <v>62</v>
       </c>
       <c r="L55">
@@ -3389,109 +2955,109 @@
         <f t="shared" ref="O55" si="24">SUM(O53:O54)</f>
         <v>0</v>
       </c>
-      <c r="P55" s="38">
+      <c r="P55" s="30">
         <f t="shared" ref="P55:Q55" si="25">SUM(P53:P54)</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="38">
+      <c r="Q55" s="30">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="R55" s="38"/>
+      <c r="R55" s="30"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="15"/>
-      <c r="K56" s="18" t="s">
+      <c r="A56" s="12"/>
+      <c r="K56" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="38"/>
-      <c r="R56" s="38">
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30">
         <f>SUM(L55:Q55)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="15"/>
-      <c r="K57" s="18"/>
-      <c r="P57" s="38"/>
-      <c r="Q57" s="47"/>
-      <c r="R57" s="38"/>
+      <c r="A57" s="12"/>
+      <c r="K57" s="15"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="30"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="L58" s="34"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="38"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="30"/>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="16"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="41">
+      <c r="A59" s="13"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="33">
         <f t="shared" ref="L59" si="26">B59*$I59</f>
         <v>0</v>
       </c>
-      <c r="M59" s="42">
+      <c r="M59" s="34">
         <f t="shared" ref="M59" si="27">C59*$I59</f>
         <v>0</v>
       </c>
-      <c r="N59" s="42">
+      <c r="N59" s="34">
         <f t="shared" ref="N59" si="28">D59*$I59</f>
         <v>0</v>
       </c>
-      <c r="O59" s="42">
+      <c r="O59" s="34">
         <f t="shared" ref="O59" si="29">E59*$I59</f>
         <v>0</v>
       </c>
-      <c r="P59" s="43">
+      <c r="P59" s="35">
         <f t="shared" ref="P59:Q59" si="30">F59*$I59</f>
         <v>0</v>
       </c>
-      <c r="Q59" s="43">
+      <c r="Q59" s="35">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="R59" s="38"/>
+      <c r="R59" s="30"/>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="38"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="30"/>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" s="15"/>
-      <c r="H61" s="18"/>
-      <c r="K61" s="37" t="s">
+      <c r="A61" s="12"/>
+      <c r="H61" s="15"/>
+      <c r="K61" s="29" t="s">
         <v>62</v>
       </c>
       <c r="L61">
@@ -3510,102 +3076,102 @@
         <f t="shared" ref="O61" si="33">SUM(O59:O60)</f>
         <v>0</v>
       </c>
-      <c r="P61" s="38">
+      <c r="P61" s="30">
         <f t="shared" ref="P61:Q61" si="34">SUM(P59:P60)</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="38">
+      <c r="Q61" s="30">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="R61" s="38"/>
+      <c r="R61" s="30"/>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="15"/>
+      <c r="A62" s="12"/>
       <c r="K62" t="s">
         <v>72</v>
       </c>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="47"/>
-      <c r="R62" s="38">
+      <c r="P62" s="30"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="30">
         <f>SUM(L61:P61)</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="L63" s="34"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="38"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="30"/>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="16"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="41">
+      <c r="A64" s="13"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="33">
         <f t="shared" ref="L64" si="35">B64*$I64</f>
         <v>0</v>
       </c>
-      <c r="M64" s="42">
+      <c r="M64" s="34">
         <f t="shared" ref="M64" si="36">C64*$I64</f>
         <v>0</v>
       </c>
-      <c r="N64" s="42">
+      <c r="N64" s="34">
         <f t="shared" ref="N64" si="37">D64*$I64</f>
         <v>0</v>
       </c>
-      <c r="O64" s="42">
+      <c r="O64" s="34">
         <f t="shared" ref="O64" si="38">E64*$I64</f>
         <v>0</v>
       </c>
-      <c r="P64" s="43">
+      <c r="P64" s="35">
         <f t="shared" ref="P64:Q64" si="39">F64*$I64</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="43">
+      <c r="Q64" s="35">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="R64" s="38"/>
+      <c r="R64" s="30"/>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="16"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="40"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="38"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="30"/>
     </row>
     <row r="66" spans="1:18">
-      <c r="A66" s="15"/>
-      <c r="H66" s="18"/>
-      <c r="K66" s="37" t="s">
+      <c r="A66" s="12"/>
+      <c r="H66" s="15"/>
+      <c r="K66" s="29" t="s">
         <v>62</v>
       </c>
       <c r="L66">
@@ -3624,37 +3190,37 @@
         <f t="shared" ref="O66" si="42">SUM(O64:O65)</f>
         <v>0</v>
       </c>
-      <c r="P66" s="38">
+      <c r="P66" s="30">
         <f t="shared" ref="P66:Q66" si="43">SUM(P64:P65)</f>
         <v>0</v>
       </c>
-      <c r="Q66" s="38">
+      <c r="Q66" s="30">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="R66" s="38"/>
+      <c r="R66" s="30"/>
     </row>
     <row r="67" spans="1:18">
-      <c r="A67" s="15"/>
+      <c r="A67" s="12"/>
       <c r="K67" t="s">
         <v>74</v>
       </c>
-      <c r="P67" s="38"/>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="38">
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="30">
         <f>SUM(L66:P66)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" s="15"/>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="38"/>
+      <c r="A68" s="12"/>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="30"/>
+      <c r="R68" s="30"/>
     </row>
     <row r="69" spans="1:18">
-      <c r="A69" s="15"/>
-      <c r="K69" s="50" t="s">
+      <c r="A69" s="12"/>
+      <c r="K69" s="41" t="s">
         <v>75</v>
       </c>
       <c r="L69">
@@ -3673,43 +3239,44 @@
         <f t="shared" si="44"/>
         <v>14</v>
       </c>
-      <c r="P69" s="38">
+      <c r="P69" s="30">
         <f t="shared" si="44"/>
         <v>16.5</v>
       </c>
-      <c r="Q69" s="38">
+      <c r="Q69" s="30">
         <f t="shared" si="44"/>
         <v>21</v>
       </c>
-      <c r="R69" s="38"/>
-    </row>
-    <row r="70" spans="1:18">
-      <c r="A70" s="48"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="51" t="s">
+      <c r="R69" s="30"/>
+    </row>
+    <row r="70" spans="1:18" ht="28.8">
+      <c r="A70" s="39"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="L70" s="49"/>
-      <c r="M70" s="49"/>
-      <c r="N70" s="49"/>
-      <c r="O70" s="49"/>
-      <c r="P70" s="47"/>
-      <c r="Q70" s="47"/>
-      <c r="R70" s="52">
+      <c r="L70" s="40"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="40"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="38"/>
+      <c r="Q70" s="38"/>
+      <c r="R70" s="38">
         <f>SUM(L69:Q69)</f>
         <v>98.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="S3:S11"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="L15:P15"/>
@@ -3719,10 +3286,8 @@
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="K15:K16"/>
-    <mergeCell ref="S3:S11"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/blog Milestone 2.xlsx
+++ b/blog Milestone 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17040"/>
+    <workbookView windowWidth="23040" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="127">
   <si>
     <t>Team Members</t>
   </si>
@@ -310,7 +310,58 @@
     <t>Reviewing peers code</t>
   </si>
   <si>
+    <t>Reviewing</t>
+  </si>
+  <si>
+    <t>Understanding the code classes with respect to class Diagram and reviewing peer's code for asset management and asset repository.</t>
+  </si>
+  <si>
+    <t>Developed an idea of which functionalities of assetmanagement and assetrepository class is to be used for implementing add and remove for book and other assets.</t>
+  </si>
+  <si>
+    <t>Coding for add and remove asset</t>
+  </si>
+  <si>
+    <t>Functionality developed for add and remove asset.</t>
+  </si>
+  <si>
+    <t>ReCoding for add and remove book as an individual asset rather then all asset in common because of different attributes.</t>
+  </si>
+  <si>
+    <t>Fully functional add and remove book code.</t>
+  </si>
+  <si>
+    <t>Refactoring and learning</t>
+  </si>
+  <si>
+    <t>Identified and reviewed mistakes as pointed out by peer. Learned new java concept of super and implmenting that in the add and remove book</t>
+  </si>
+  <si>
+    <t>Refactored Add and Remove Book code.</t>
+  </si>
+  <si>
+    <t>Update Book details coding</t>
+  </si>
+  <si>
+    <t>Developing Functionality and Debugging</t>
+  </si>
+  <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>Test cases Review</t>
+  </si>
+  <si>
+    <t>Developing initial test case for adding a book</t>
+  </si>
+  <si>
+    <t>Raw version of code developed for adding a book</t>
+  </si>
+  <si>
+    <t>Developing test case for Remove book and debugging add book test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Debugged Add book test case and Implemented Remove book test case</t>
   </si>
   <si>
     <t>Unit Test Cases</t>
@@ -349,13 +400,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -373,31 +423,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,8 +439,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -428,6 +463,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -435,7 +486,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -451,9 +532,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,44 +547,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,7 +575,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,31 +647,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,13 +671,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,67 +713,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,31 +725,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,6 +766,67 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -748,7 +859,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color auto="1"/>
       </left>
       <right/>
@@ -760,119 +923,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -965,6 +1015,17 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -988,28 +1049,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,32 +1097,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1088,6 +1112,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1096,194 +1135,202 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="22" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="22" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="32" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="32" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="32" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="6" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1306,61 +1353,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="32" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="22" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="4" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="32" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="32" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1372,54 +1422,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
-    <cellStyle name="Bad" xfId="22" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
-    <cellStyle name="Total" xfId="24" builtinId="25"/>
-    <cellStyle name="Output" xfId="25" builtinId="21"/>
-    <cellStyle name="Currency" xfId="26" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
-    <cellStyle name="Note" xfId="28" builtinId="10"/>
-    <cellStyle name="Input" xfId="29" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
-    <cellStyle name="Good" xfId="32" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="Title" xfId="38" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
-    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
-    <cellStyle name="Link" xfId="43" builtinId="8"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1715,141 +1765,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:S82"/>
+  <dimension ref="A3:S90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="R74" sqref="R74"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D59" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.890625" customWidth="1"/>
-    <col min="2" max="2" width="3.3359375" customWidth="1"/>
-    <col min="3" max="3" width="3.890625" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" customWidth="1"/>
-    <col min="6" max="6" width="3.890625" customWidth="1"/>
+    <col min="1" max="1" width="11.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="3.33333333333333" customWidth="1"/>
+    <col min="3" max="3" width="3.88888888888889" customWidth="1"/>
+    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
+    <col min="5" max="5" width="2.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="3.88888888888889" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="15.4453125" customWidth="1"/>
-    <col min="9" max="9" width="15.3359375" customWidth="1"/>
-    <col min="10" max="10" width="21.890625" customWidth="1"/>
-    <col min="11" max="11" width="25.4453125" customWidth="1"/>
-    <col min="19" max="19" width="35.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="15.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="21.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="25.4444444444444" customWidth="1"/>
+    <col min="19" max="19" width="35.6666666666667" customWidth="1"/>
     <col min="23" max="23" width="11" customWidth="1"/>
-    <col min="24" max="24" width="10.109375" customWidth="1"/>
-    <col min="25" max="25" width="9.890625" customWidth="1"/>
+    <col min="24" max="24" width="10.1111111111111" customWidth="1"/>
+    <col min="25" max="25" width="9.88888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="16.5" customHeight="1" spans="8:19">
-      <c r="H3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
-      <c r="S3" s="40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="15.5" spans="8:19">
-      <c r="H4" s="10"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
-      <c r="S4" s="40"/>
-    </row>
-    <row r="5" ht="28.75" spans="8:19">
-      <c r="H5" s="11" t="s">
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="S3" s="38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="15.9" spans="8:19">
+      <c r="H4" s="2"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="S4" s="38"/>
+    </row>
+    <row r="5" ht="29.55" spans="8:19">
+      <c r="H5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="S5" s="40"/>
+      <c r="K5" s="21"/>
+      <c r="S5" s="38"/>
     </row>
     <row r="6" spans="8:19">
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="S6" s="40"/>
+      <c r="K6" s="25"/>
+      <c r="S6" s="38"/>
     </row>
     <row r="7" spans="8:19">
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="S7" s="40"/>
+      <c r="K7" s="25"/>
+      <c r="S7" s="38"/>
     </row>
     <row r="8" spans="8:19">
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="S8" s="40"/>
+      <c r="K8" s="25"/>
+      <c r="S8" s="38"/>
     </row>
     <row r="9" spans="8:19">
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="S9" s="40"/>
+      <c r="K9" s="25"/>
+      <c r="S9" s="38"/>
     </row>
     <row r="10" spans="8:19">
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="S10" s="40"/>
+      <c r="K10" s="25"/>
+      <c r="S10" s="38"/>
     </row>
     <row r="11" spans="8:19">
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="S11" s="40"/>
+      <c r="K11" s="27"/>
+      <c r="S11" s="38"/>
     </row>
     <row r="12" spans="19:19">
       <c r="S12" t="s">
@@ -1862,957 +1912,957 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="14" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="42"/>
-    </row>
-    <row r="16" ht="28" spans="1:18">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3" t="str">
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="40"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="6"/>
+      <c r="B16" s="9" t="str">
         <f>$J$6</f>
         <v>Sai</v>
       </c>
-      <c r="C16" s="3" t="str">
+      <c r="C16" s="9" t="str">
         <f>$J$7</f>
         <v>SV</v>
       </c>
-      <c r="D16" s="3" t="str">
+      <c r="D16" s="9" t="str">
         <f>$J$8</f>
         <v>Kavya</v>
       </c>
-      <c r="E16" s="3" t="str">
+      <c r="E16" s="9" t="str">
         <f>$J$9</f>
         <v>PS</v>
       </c>
-      <c r="F16" s="3" t="str">
+      <c r="F16" s="9" t="str">
         <f>$J$10</f>
         <v>Het</v>
       </c>
-      <c r="G16" s="3" t="str">
+      <c r="G16" s="9" t="str">
         <f>$J$11</f>
         <v>AS</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="3" t="str">
+      <c r="H16" s="8"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9" t="str">
         <f>$J$6</f>
         <v>Sai</v>
       </c>
-      <c r="M16" s="3" t="str">
+      <c r="M16" s="9" t="str">
         <f>$J$7</f>
         <v>SV</v>
       </c>
-      <c r="N16" s="3" t="str">
+      <c r="N16" s="9" t="str">
         <f>$J$8</f>
         <v>Kavya</v>
       </c>
-      <c r="O16" s="3" t="str">
+      <c r="O16" s="9" t="str">
         <f>$J$9</f>
         <v>PS</v>
       </c>
-      <c r="P16" s="3" t="str">
+      <c r="P16" s="9" t="str">
         <f>$J$10</f>
         <v>Het</v>
       </c>
-      <c r="Q16" s="3" t="str">
+      <c r="Q16" s="9" t="str">
         <f>$J$11</f>
         <v>AS</v>
       </c>
       <c r="R16" s="36"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="37"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="32"/>
       <c r="Q17" s="34"/>
       <c r="R17" s="36"/>
     </row>
     <row r="18" ht="54" customHeight="1" spans="1:18">
-      <c r="A18" s="6">
+      <c r="A18" s="13">
         <v>45321</v>
       </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I18" s="33">
         <v>2</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="9">
         <f t="shared" ref="L18:Q18" si="0">B18*$I18</f>
         <v>2</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R18" s="36"/>
     </row>
     <row r="19" ht="54" customHeight="1" spans="1:18">
-      <c r="A19" s="6">
+      <c r="A19" s="13">
         <v>45322</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="33">
         <v>3</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="9">
         <f t="shared" ref="L19:L33" si="1">B19*$I19</f>
         <v>0</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="9">
         <f t="shared" ref="M19:M33" si="2">C19*$I19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="9">
         <f t="shared" ref="N19:N33" si="3">D19*$I19</f>
         <v>3</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="9">
         <f t="shared" ref="O19:O33" si="4">E19*$I19</f>
         <v>0</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="9">
         <f t="shared" ref="P19:P33" si="5">F19*$I19</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="9">
         <f t="shared" ref="Q19:Q33" si="6">G19*$I19</f>
         <v>0</v>
       </c>
       <c r="R19" s="36"/>
     </row>
     <row r="20" ht="54" customHeight="1" spans="1:18">
-      <c r="A20" s="6">
+      <c r="A20" s="13">
         <v>45323</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="33">
         <v>2</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R20" s="36"/>
     </row>
     <row r="21" ht="54" customHeight="1" spans="1:18">
-      <c r="A21" s="6">
+      <c r="A21" s="13">
         <v>45323</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="33">
         <v>3</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="9">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R21" s="36"/>
     </row>
     <row r="22" ht="54" customHeight="1" spans="1:18">
-      <c r="A22" s="6">
+      <c r="A22" s="13">
         <v>45324</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7">
-        <v>1</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14">
+        <v>1</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
       <c r="I22" s="33">
         <v>2</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="9">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R22" s="36"/>
     </row>
     <row r="23" ht="54" customHeight="1" spans="1:18">
-      <c r="A23" s="6">
+      <c r="A23" s="13">
         <v>45324</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7">
-        <v>1</v>
-      </c>
-      <c r="H23" s="7"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" s="14"/>
       <c r="I23" s="33">
         <v>3</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="9">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="R23" s="36"/>
     </row>
     <row r="24" ht="54" customHeight="1" spans="1:18">
-      <c r="A24" s="6">
+      <c r="A24" s="13">
         <v>45325</v>
       </c>
-      <c r="B24" s="7">
-        <v>1</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="B24" s="14">
+        <v>1</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="33">
         <v>2</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R24" s="36"/>
     </row>
-    <row r="25" ht="42" spans="1:18">
-      <c r="A25" s="6">
+    <row r="25" ht="43.2" spans="1:18">
+      <c r="A25" s="13">
         <v>45326</v>
       </c>
-      <c r="B25" s="7">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1</v>
-      </c>
-      <c r="F25" s="7">
-        <v>1</v>
-      </c>
-      <c r="G25" s="7">
-        <v>1</v>
-      </c>
-      <c r="H25" s="7" t="s">
+      <c r="B25" s="14">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1</v>
+      </c>
+      <c r="H25" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I25" s="33">
         <v>3</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="9">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="9">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="9">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="9">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="9">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="R25" s="36"/>
     </row>
-    <row r="26" ht="84" spans="1:18">
-      <c r="A26" s="6">
+    <row r="26" ht="86.4" spans="1:18">
+      <c r="A26" s="13">
         <v>45330</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14">
+        <v>1</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="33">
         <v>1.5</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7" t="s">
+      <c r="J26" s="14"/>
+      <c r="K26" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="9">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="9">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R26" s="36"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="6">
+      <c r="A27" s="13">
         <v>45331</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7">
-        <v>1</v>
-      </c>
-      <c r="H27" s="7"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14">
+        <v>1</v>
+      </c>
+      <c r="H27" s="14"/>
       <c r="I27" s="33">
         <v>2</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="9">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="R27" s="36"/>
     </row>
-    <row r="28" ht="28" spans="1:18">
-      <c r="A28" s="6">
+    <row r="28" ht="28.8" spans="1:18">
+      <c r="A28" s="13">
         <v>45333</v>
       </c>
-      <c r="B28" s="7">
-        <v>1</v>
-      </c>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1</v>
-      </c>
-      <c r="F28" s="7">
-        <v>1</v>
-      </c>
-      <c r="G28" s="7">
-        <v>1</v>
-      </c>
-      <c r="H28" s="7" t="s">
+      <c r="B28" s="14">
+        <v>1</v>
+      </c>
+      <c r="C28" s="14">
+        <v>1</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+      <c r="E28" s="14">
+        <v>1</v>
+      </c>
+      <c r="F28" s="14">
+        <v>1</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1</v>
+      </c>
+      <c r="H28" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I28" s="33">
         <v>3</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="9">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="9">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="9">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="9">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q28" s="9">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="R28" s="36"/>
     </row>
-    <row r="29" ht="56" spans="1:18">
-      <c r="A29" s="6">
+    <row r="29" ht="57.6" spans="1:18">
+      <c r="A29" s="13">
         <v>45335</v>
       </c>
-      <c r="B29" s="7">
-        <v>1</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1</v>
-      </c>
-      <c r="F29" s="7">
-        <v>1</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7" t="s">
+      <c r="B29" s="14">
+        <v>1</v>
+      </c>
+      <c r="C29" s="14">
+        <v>1</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14">
+        <v>1</v>
+      </c>
+      <c r="F29" s="14">
+        <v>1</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I29" s="33">
         <v>2</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="9">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="9">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R29" s="36"/>
     </row>
-    <row r="30" ht="28" spans="1:18">
-      <c r="A30" s="6">
+    <row r="30" ht="28.8" spans="1:18">
+      <c r="A30" s="13">
         <v>45338</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7">
-        <v>1</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14">
+        <v>1</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14" t="s">
         <v>51</v>
       </c>
       <c r="I30" s="33">
         <v>1.5</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="9">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q30" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R30" s="36"/>
     </row>
-    <row r="31" ht="42" spans="1:18">
-      <c r="A31" s="6">
+    <row r="31" ht="43.2" spans="1:18">
+      <c r="A31" s="13">
         <v>45340</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7">
-        <v>1</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14">
+        <v>1</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14" t="s">
         <v>54</v>
       </c>
       <c r="I31" s="33">
         <v>1</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="9">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q31" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R31" s="36"/>
     </row>
-    <row r="32" ht="42" spans="1:18">
-      <c r="A32" s="6">
+    <row r="32" ht="43.2" spans="1:18">
+      <c r="A32" s="13">
         <v>45340</v>
       </c>
-      <c r="B32" s="7">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7">
-        <v>1</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1</v>
-      </c>
-      <c r="F32" s="7">
-        <v>1</v>
-      </c>
-      <c r="G32" s="7">
-        <v>1</v>
-      </c>
-      <c r="H32" s="7" t="s">
+      <c r="B32" s="14">
+        <v>1</v>
+      </c>
+      <c r="C32" s="14">
+        <v>1</v>
+      </c>
+      <c r="D32" s="14">
+        <v>1</v>
+      </c>
+      <c r="E32" s="14">
+        <v>1</v>
+      </c>
+      <c r="F32" s="14">
+        <v>1</v>
+      </c>
+      <c r="G32" s="14">
+        <v>1</v>
+      </c>
+      <c r="H32" s="14" t="s">
         <v>57</v>
       </c>
       <c r="I32" s="33">
         <v>2</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="9">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="9">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="9">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="R32" s="36"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="6">
+      <c r="A33" s="13">
         <v>45340</v>
       </c>
-      <c r="B33" s="7">
-        <v>1</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7">
-        <v>1</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7">
-        <v>1</v>
-      </c>
-      <c r="H33" s="7" t="s">
+      <c r="B33" s="14">
+        <v>1</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14">
+        <v>1</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14">
+        <v>1</v>
+      </c>
+      <c r="H33" s="14" t="s">
         <v>57</v>
       </c>
       <c r="I33" s="33">
         <v>2</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="K33" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="9">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="R33" s="36"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:18">
-      <c r="A34" s="8"/>
+      <c r="A34" s="15"/>
       <c r="K34" s="34" t="s">
         <v>62</v>
       </c>
@@ -2843,1698 +2893,2047 @@
       <c r="R34" s="36"/>
     </row>
     <row r="35" ht="16.5" customHeight="1" spans="1:18">
-      <c r="A35" s="8"/>
-      <c r="K35" s="16" t="s">
+      <c r="A35" s="15"/>
+      <c r="K35" s="35" t="s">
         <v>63</v>
       </c>
       <c r="P35" s="36"/>
-      <c r="Q35" s="43"/>
+      <c r="Q35" s="41"/>
       <c r="R35" s="36">
         <f>SUM(L34:Q34)</f>
         <v>92.5</v>
       </c>
     </row>
     <row r="36" ht="19.5" customHeight="1" spans="1:18">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L36" s="32"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="37"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="32"/>
       <c r="Q36" s="34"/>
       <c r="R36" s="36"/>
     </row>
     <row r="37" ht="51" customHeight="1" spans="1:18">
-      <c r="A37" s="6">
+      <c r="A37" s="13">
         <v>45341</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7">
-        <v>1</v>
-      </c>
-      <c r="H37" s="7" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14">
+        <v>1</v>
+      </c>
+      <c r="H37" s="14" t="s">
         <v>65</v>
       </c>
       <c r="I37" s="33">
         <v>2.5</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="K37" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="L37" s="35">
-        <f t="shared" ref="L37" si="8">B37*$I37</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="3">
+      <c r="L37" s="37">
+        <f t="shared" ref="L37:L38" si="8">B37*$I37</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
         <f t="shared" ref="M37:Q37" si="9">C37*$I37</f>
         <v>0</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="Q37" s="9">
         <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
       <c r="R37" s="36"/>
     </row>
     <row r="38" ht="51" customHeight="1" spans="1:18">
-      <c r="A38" s="6">
+      <c r="A38" s="13">
         <v>45342</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7">
-        <v>1</v>
-      </c>
-      <c r="H38" s="7" t="s">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14">
+        <v>1</v>
+      </c>
+      <c r="H38" s="14" t="s">
         <v>65</v>
       </c>
       <c r="I38" s="33">
         <v>3.5</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="L38" s="35">
-        <f>B38*$I38</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="3">
+      <c r="L38" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
         <f>C38*$I38</f>
         <v>0</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="9">
         <f>D38*$I38</f>
         <v>0</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38" s="9">
         <f>E38*$I38</f>
         <v>0</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38" s="9">
         <f>F38*$I38</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="Q38" s="9">
         <f>G38*$I38</f>
         <v>3.5</v>
       </c>
       <c r="R38" s="36"/>
     </row>
-    <row r="39" customFormat="1" ht="28" spans="1:18">
-      <c r="A39" s="6">
+    <row r="39" customFormat="1" ht="28.8" spans="1:18">
+      <c r="A39" s="13">
         <v>45347</v>
       </c>
-      <c r="B39" s="7">
-        <v>1</v>
-      </c>
-      <c r="C39" s="7">
-        <v>1</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1</v>
-      </c>
-      <c r="F39" s="7">
-        <v>1</v>
-      </c>
-      <c r="G39" s="7">
-        <v>1</v>
-      </c>
-      <c r="H39" s="7" t="s">
+      <c r="B39" s="14">
+        <v>1</v>
+      </c>
+      <c r="C39" s="14">
+        <v>1</v>
+      </c>
+      <c r="D39" s="14">
+        <v>1</v>
+      </c>
+      <c r="E39" s="14">
+        <v>1</v>
+      </c>
+      <c r="F39" s="14">
+        <v>1</v>
+      </c>
+      <c r="G39" s="14">
+        <v>1</v>
+      </c>
+      <c r="H39" s="14" t="s">
         <v>70</v>
       </c>
       <c r="I39" s="33">
         <v>3</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K39" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="L39" s="35">
+      <c r="L39" s="37">
         <f t="shared" ref="L39:Q39" si="10">B39*$I39</f>
         <v>3</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="9">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N39" s="9">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39" s="9">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39" s="9">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="Q39" s="9">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="R39" s="36"/>
     </row>
     <row r="40" customFormat="1" spans="1:18">
-      <c r="A40" s="6">
+      <c r="A40" s="13">
         <v>45349</v>
       </c>
-      <c r="B40" s="7">
-        <v>1</v>
-      </c>
-      <c r="C40" s="7">
-        <v>1</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1</v>
-      </c>
-      <c r="F40" s="7">
-        <v>1</v>
-      </c>
-      <c r="G40" s="7">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7" t="s">
+      <c r="B40" s="14">
+        <v>1</v>
+      </c>
+      <c r="C40" s="14">
+        <v>1</v>
+      </c>
+      <c r="D40" s="14">
+        <v>1</v>
+      </c>
+      <c r="E40" s="14">
+        <v>1</v>
+      </c>
+      <c r="F40" s="14">
+        <v>1</v>
+      </c>
+      <c r="G40" s="14">
+        <v>1</v>
+      </c>
+      <c r="H40" s="14" t="s">
         <v>70</v>
       </c>
       <c r="I40" s="33">
         <v>2</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="K40" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="L40" s="35">
+      <c r="L40" s="37">
         <f t="shared" ref="L40:Q40" si="11">B40*$I40</f>
         <v>2</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="9">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="9">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40" s="9">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40" s="9">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="Q40" s="9">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="R40" s="36"/>
     </row>
-    <row r="41" customFormat="1" ht="42" spans="1:18">
-      <c r="A41" s="6">
+    <row r="41" customFormat="1" ht="43.2" spans="1:18">
+      <c r="A41" s="13">
         <v>45354</v>
       </c>
-      <c r="B41" s="7">
-        <v>1</v>
-      </c>
-      <c r="C41" s="7">
-        <v>1</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1</v>
-      </c>
-      <c r="F41" s="7">
-        <v>1</v>
-      </c>
-      <c r="G41" s="7">
-        <v>1</v>
-      </c>
-      <c r="H41" s="7" t="s">
+      <c r="B41" s="14">
+        <v>1</v>
+      </c>
+      <c r="C41" s="14">
+        <v>1</v>
+      </c>
+      <c r="D41" s="14">
+        <v>1</v>
+      </c>
+      <c r="E41" s="14">
+        <v>1</v>
+      </c>
+      <c r="F41" s="14">
+        <v>1</v>
+      </c>
+      <c r="G41" s="14">
+        <v>1</v>
+      </c>
+      <c r="H41" s="14" t="s">
         <v>70</v>
       </c>
       <c r="I41" s="33">
         <v>3</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="L41" s="35">
+      <c r="L41" s="37">
         <f t="shared" ref="L41:Q41" si="12">B41*$I41</f>
         <v>3</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="9">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="9">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="9">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="9">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="9">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="R41" s="36"/>
     </row>
-    <row r="42" ht="28" spans="1:18">
-      <c r="A42" s="6">
+    <row r="42" ht="28.8" spans="1:18">
+      <c r="A42" s="13">
         <v>45344</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7">
-        <v>1</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7" t="s">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14">
+        <v>1</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14" t="s">
         <v>65</v>
       </c>
       <c r="I42" s="33">
         <v>3.5</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="K42" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="L42" s="35">
+      <c r="L42" s="37">
         <f t="shared" ref="L42:L57" si="13">B42*$I42</f>
         <v>0</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="9">
         <f t="shared" ref="M42:M57" si="14">C42*$I42</f>
         <v>0</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="9">
         <f t="shared" ref="N42:N57" si="15">D42*$I42</f>
         <v>0</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="9">
         <f t="shared" ref="O42:O57" si="16">E42*$I42</f>
         <v>3.5</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="9">
         <f t="shared" ref="P42:P57" si="17">F42*$I42</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="9">
         <f t="shared" ref="Q42:Q47" si="18">G42*$I42</f>
         <v>0</v>
       </c>
       <c r="R42" s="36"/>
     </row>
-    <row r="43" ht="28" spans="1:18">
-      <c r="A43" s="6">
+    <row r="43" ht="28.8" spans="1:18">
+      <c r="A43" s="13">
         <v>45345</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7">
-        <v>1</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7" t="s">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14">
+        <v>1</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14" t="s">
         <v>65</v>
       </c>
       <c r="I43" s="33">
         <v>3</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="K43" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="L43" s="35">
+      <c r="L43" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="9">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R43" s="36"/>
     </row>
-    <row r="44" ht="28" spans="1:18">
-      <c r="A44" s="6">
+    <row r="44" ht="28.8" spans="1:18">
+      <c r="A44" s="13">
         <v>45346</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7">
-        <v>1</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7" t="s">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14">
+        <v>1</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14" t="s">
         <v>65</v>
       </c>
       <c r="I44" s="33">
         <v>1</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="J44" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="K44" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="L44" s="35">
+      <c r="L44" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="9">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R44" s="36"/>
     </row>
-    <row r="45" ht="42" spans="1:18">
-      <c r="A45" s="6">
+    <row r="45" ht="43.2" spans="1:18">
+      <c r="A45" s="13">
         <v>45350</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7">
-        <v>1</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7" t="s">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14">
+        <v>1</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14" t="s">
         <v>65</v>
       </c>
       <c r="I45" s="33">
         <v>4</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="J45" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="K45" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="L45" s="35">
+      <c r="L45" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="9">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R45" s="36"/>
     </row>
-    <row r="46" ht="56" spans="1:18">
-      <c r="A46" s="6">
+    <row r="46" ht="57.6" spans="1:18">
+      <c r="A46" s="13">
         <v>45351</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7">
-        <v>1</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7" t="s">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14">
+        <v>1</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14" t="s">
         <v>82</v>
       </c>
       <c r="I46" s="33">
         <v>6</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="K46" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="L46" s="35">
+      <c r="L46" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="9">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R46" s="36"/>
     </row>
-    <row r="47" ht="42" spans="1:18">
-      <c r="A47" s="6">
+    <row r="47" ht="43.2" spans="1:18">
+      <c r="A47" s="13">
         <v>45352</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7">
-        <v>1</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7" t="s">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14">
+        <v>1</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14" t="s">
         <v>65</v>
       </c>
       <c r="I47" s="33">
         <v>3</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="K47" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="L47" s="35">
+      <c r="L47" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="9">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R47" s="36"/>
     </row>
-    <row r="48" ht="42" spans="1:18">
-      <c r="A48" s="6">
+    <row r="48" ht="43.2" spans="1:18">
+      <c r="A48" s="13">
         <v>45353</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7">
-        <v>1</v>
-      </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7" t="s">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14">
+        <v>1</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14" t="s">
         <v>87</v>
       </c>
       <c r="I48" s="33">
         <v>2</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="J48" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="K48" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="L48" s="35">
+      <c r="L48" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="9">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="3">
-        <f t="shared" ref="Q48:Q52" si="19">G48*$I48</f>
+      <c r="Q48" s="9">
+        <f t="shared" ref="Q48:Q53" si="19">G48*$I48</f>
         <v>0</v>
       </c>
       <c r="R48" s="36"/>
     </row>
-    <row r="49" ht="70" spans="1:18">
-      <c r="A49" s="6">
+    <row r="49" ht="72" spans="1:18">
+      <c r="A49" s="13">
         <v>45354</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7">
-        <v>1</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7" t="s">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14">
+        <v>1</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14" t="s">
         <v>65</v>
       </c>
       <c r="I49" s="33">
         <v>4</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="J49" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="K49" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="L49" s="35">
+      <c r="L49" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="9">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="9">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R49" s="36"/>
     </row>
-    <row r="50" ht="42" spans="1:18">
-      <c r="A50" s="6">
+    <row r="50" ht="43.2" spans="1:18">
+      <c r="A50" s="13">
         <v>45344</v>
       </c>
-      <c r="B50" s="7">
-        <v>1</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7" t="s">
+      <c r="B50" s="14">
+        <v>1</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14" t="s">
         <v>65</v>
       </c>
       <c r="I50" s="33">
         <v>3.5</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="J50" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="K50" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="L50" s="35">
+      <c r="L50" s="37">
         <f t="shared" si="13"/>
         <v>3.5</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N50" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O50" s="3">
+      <c r="O50" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P50" s="3">
+      <c r="P50" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="Q50" s="9">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R50" s="36"/>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="6">
+      <c r="A51" s="13">
         <v>45345</v>
       </c>
-      <c r="B51" s="7">
-        <v>1</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7" t="s">
+      <c r="B51" s="14">
+        <v>1</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14" t="s">
         <v>65</v>
       </c>
       <c r="I51" s="33">
         <v>3</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="J51" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="K51" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="L51" s="35">
+      <c r="L51" s="37">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O51" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P51" s="3">
+      <c r="P51" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="Q51" s="9">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R51" s="36"/>
     </row>
-    <row r="52" ht="42" spans="1:18">
-      <c r="A52" s="6">
+    <row r="52" ht="43.2" spans="1:18">
+      <c r="A52" s="13">
         <v>45346</v>
       </c>
-      <c r="B52" s="7">
-        <v>1</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7" t="s">
+      <c r="B52" s="14">
+        <v>1</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14" t="s">
         <v>65</v>
       </c>
       <c r="I52" s="33">
         <v>2</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="J52" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="K52" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="L52" s="35">
+      <c r="L52" s="37">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="9">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R52" s="36"/>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="6">
+      <c r="A53" s="13">
         <v>45347</v>
       </c>
-      <c r="B53" s="7">
-        <v>1</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7" t="s">
+      <c r="B53" s="14">
+        <v>1</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14" t="s">
         <v>95</v>
       </c>
       <c r="I53" s="33">
         <v>2</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="J53" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="K53" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="L53" s="35">
-        <f>B53*$I53</f>
+      <c r="L53" s="37">
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="M53" s="3">
-        <f>C53*$I53</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="3">
-        <f>D53*$I53</f>
-        <v>0</v>
-      </c>
-      <c r="O53" s="3">
-        <f>E53*$I53</f>
-        <v>0</v>
-      </c>
-      <c r="P53" s="3">
-        <f>F53*$I53</f>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="3">
-        <f>G53*$I53</f>
+      <c r="M53" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="9">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R53" s="36"/>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="6">
+      <c r="A54" s="13">
         <v>45350</v>
       </c>
-      <c r="B54" s="7">
-        <v>1</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7" t="s">
+      <c r="B54" s="14">
+        <v>1</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14" t="s">
         <v>95</v>
       </c>
       <c r="I54" s="33">
         <v>1</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="J54" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="K54" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="L54" s="35">
-        <f t="shared" ref="L54:L59" si="20">B54*$I54</f>
-        <v>1</v>
-      </c>
-      <c r="M54" s="3">
-        <f t="shared" ref="M54:M59" si="21">C54*$I54</f>
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <f t="shared" ref="N54:N59" si="22">D54*$I54</f>
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <f t="shared" ref="O54:O59" si="23">E54*$I54</f>
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <f t="shared" ref="P54:P59" si="24">F54*$I54</f>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <f t="shared" ref="Q54:Q59" si="25">G54*$I54</f>
+      <c r="L54" s="37">
+        <f>B54*$I54</f>
+        <v>1</v>
+      </c>
+      <c r="M54" s="9">
+        <f>C54*$I54</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="9">
+        <f>D54*$I54</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="9">
+        <f>E54*$I54</f>
+        <v>0</v>
+      </c>
+      <c r="P54" s="9">
+        <f>F54*$I54</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="9">
+        <f>G54*$I54</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:18">
-      <c r="A55" s="6">
+      <c r="A55" s="13">
         <v>45351</v>
       </c>
-      <c r="B55" s="7">
-        <v>1</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7" t="s">
+      <c r="B55" s="14">
+        <v>1</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14" t="s">
         <v>95</v>
       </c>
       <c r="I55" s="33">
         <v>1</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="J55" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="K55" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="L55" s="35">
+      <c r="L55" s="37">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="M55" s="3">
+      <c r="M55" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N55" s="3">
+      <c r="N55" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O55" s="3">
+      <c r="O55" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P55" s="3">
+      <c r="P55" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q55" s="3">
-        <f t="shared" si="25"/>
+      <c r="Q55" s="9">
+        <f>G55*$I55</f>
         <v>0</v>
       </c>
       <c r="R55" s="36"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="6">
+      <c r="A56" s="13">
         <v>45352</v>
       </c>
-      <c r="B56" s="7">
-        <v>1</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7" t="s">
+      <c r="B56" s="14">
+        <v>1</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14" t="s">
         <v>95</v>
       </c>
       <c r="I56" s="33">
         <v>1</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="J56" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="K56" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="L56" s="35">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="M56" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="3">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O56" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="3">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="3">
-        <f t="shared" si="25"/>
+      <c r="L56" s="37">
+        <f>B56*$I56</f>
+        <v>1</v>
+      </c>
+      <c r="M56" s="9">
+        <f>C56*$I56</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="9">
+        <f>D56*$I56</f>
+        <v>0</v>
+      </c>
+      <c r="O56" s="9">
+        <f>E56*$I56</f>
+        <v>0</v>
+      </c>
+      <c r="P56" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="9">
+        <f>G56*$I56</f>
         <v>0</v>
       </c>
       <c r="R56" s="36"/>
     </row>
-    <row r="57" ht="28" spans="1:18">
-      <c r="A57" s="6">
-        <v>45353</v>
-      </c>
-      <c r="B57" s="7">
-        <v>1</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7" t="s">
+    <row r="57" ht="100.8" spans="1:18">
+      <c r="A57" s="13">
+        <v>45346</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14">
+        <v>1</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14" t="s">
         <v>98</v>
       </c>
       <c r="I57" s="33">
-        <v>4</v>
-      </c>
-      <c r="J57" s="7" t="s">
+        <v>3.5</v>
+      </c>
+      <c r="J57" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="K57" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="L57" s="35">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <f t="shared" si="25"/>
+      <c r="L57" s="37">
+        <v>0</v>
+      </c>
+      <c r="M57" s="9">
+        <v>0</v>
+      </c>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9">
+        <v>0</v>
+      </c>
+      <c r="P57" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="Q57" s="9">
         <v>0</v>
       </c>
       <c r="R57" s="36"/>
     </row>
-    <row r="58" ht="28" spans="1:18">
-      <c r="A58" s="6">
-        <v>45354</v>
-      </c>
-      <c r="B58" s="7">
-        <v>1</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7" t="s">
-        <v>98</v>
+    <row r="58" ht="28.8" spans="1:18">
+      <c r="A58" s="13">
+        <v>45347</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14">
+        <v>1</v>
+      </c>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="I58" s="33">
         <v>4</v>
       </c>
-      <c r="J58" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K58" s="7" t="s">
+      <c r="J58" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="L58" s="35">
-        <f t="shared" si="20"/>
+      <c r="K58" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L58" s="37">
+        <v>0</v>
+      </c>
+      <c r="M58" s="9">
+        <v>0</v>
+      </c>
+      <c r="N58" s="9">
+        <v>0</v>
+      </c>
+      <c r="O58" s="9">
+        <v>0</v>
+      </c>
+      <c r="P58" s="9">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <f t="shared" si="25"/>
+      <c r="Q58" s="9">
         <v>0</v>
       </c>
       <c r="R58" s="36"/>
     </row>
-    <row r="59" customFormat="1" spans="1:18">
-      <c r="A59" s="6">
-        <v>45354</v>
-      </c>
-      <c r="B59" s="7">
-        <v>1</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7" t="s">
-        <v>98</v>
+    <row r="59" ht="86.4" spans="1:18">
+      <c r="A59" s="13">
+        <v>45347</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14">
+        <v>1</v>
+      </c>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="I59" s="33">
         <v>3</v>
       </c>
-      <c r="J59" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L59" s="35">
+      <c r="J59" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L59" s="37">
+        <v>0</v>
+      </c>
+      <c r="M59" s="9">
+        <v>0</v>
+      </c>
+      <c r="N59" s="9">
+        <v>0</v>
+      </c>
+      <c r="O59" s="9">
+        <v>0</v>
+      </c>
+      <c r="P59" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="9">
+        <v>0</v>
+      </c>
+      <c r="R59" s="36"/>
+    </row>
+    <row r="60" ht="86.4" spans="1:18">
+      <c r="A60" s="13">
+        <v>45348</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14">
+        <v>1</v>
+      </c>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I60" s="33">
+        <v>4</v>
+      </c>
+      <c r="J60" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="L60" s="37">
+        <v>0</v>
+      </c>
+      <c r="M60" s="9">
+        <v>0</v>
+      </c>
+      <c r="N60" s="9">
+        <v>0</v>
+      </c>
+      <c r="O60" s="9">
+        <v>0</v>
+      </c>
+      <c r="P60" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="9">
+        <v>0</v>
+      </c>
+      <c r="R60" s="36"/>
+    </row>
+    <row r="61" ht="28.8" spans="1:18">
+      <c r="A61" s="13">
+        <v>45352</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14">
+        <v>1</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I61" s="33">
+        <v>2</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="K61" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L61" s="37">
+        <v>0</v>
+      </c>
+      <c r="M61" s="9">
+        <v>0</v>
+      </c>
+      <c r="N61" s="9">
+        <v>0</v>
+      </c>
+      <c r="O61" s="9">
+        <v>0</v>
+      </c>
+      <c r="P61" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q61" s="9">
+        <v>0</v>
+      </c>
+      <c r="R61" s="36"/>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="13">
+        <v>45352</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14">
+        <v>1</v>
+      </c>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I62" s="33">
+        <v>4</v>
+      </c>
+      <c r="J62" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K62" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L62" s="37">
+        <v>0</v>
+      </c>
+      <c r="M62" s="9">
+        <v>0</v>
+      </c>
+      <c r="N62" s="9">
+        <v>0</v>
+      </c>
+      <c r="O62" s="9">
+        <v>0</v>
+      </c>
+      <c r="P62" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="9">
+        <v>0</v>
+      </c>
+      <c r="R62" s="36"/>
+    </row>
+    <row r="63" ht="28.8" spans="1:18">
+      <c r="A63" s="13">
+        <v>45352</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14">
+        <v>1</v>
+      </c>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I63" s="33">
+        <v>2</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K63" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="L63" s="37">
+        <v>0</v>
+      </c>
+      <c r="M63" s="9">
+        <v>0</v>
+      </c>
+      <c r="N63" s="9">
+        <v>0</v>
+      </c>
+      <c r="O63" s="9">
+        <v>0</v>
+      </c>
+      <c r="P63" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q63" s="9">
+        <v>0</v>
+      </c>
+      <c r="R63" s="36"/>
+    </row>
+    <row r="64" ht="57.6" spans="1:18">
+      <c r="A64" s="13">
+        <v>45353</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14">
+        <v>1</v>
+      </c>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I64" s="33">
+        <v>4</v>
+      </c>
+      <c r="J64" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K64" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L64" s="37">
+        <v>0</v>
+      </c>
+      <c r="M64" s="9">
+        <v>0</v>
+      </c>
+      <c r="N64" s="9">
+        <v>0</v>
+      </c>
+      <c r="O64" s="9">
+        <v>0</v>
+      </c>
+      <c r="P64" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q64" s="9">
+        <v>0</v>
+      </c>
+      <c r="R64" s="36"/>
+    </row>
+    <row r="65" ht="28.8" spans="1:18">
+      <c r="A65" s="13">
+        <v>45353</v>
+      </c>
+      <c r="B65" s="14">
+        <v>1</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I65" s="33">
+        <v>4</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="L65" s="37">
+        <f>B65*$I65</f>
+        <v>4</v>
+      </c>
+      <c r="M65" s="9">
+        <f>C65*$I65</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="9">
+        <f>D65*$I65</f>
+        <v>0</v>
+      </c>
+      <c r="O65" s="9">
+        <f>E65*$I65</f>
+        <v>0</v>
+      </c>
+      <c r="P65" s="9">
+        <f>F65*$I65</f>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="9">
+        <f>G65*$I65</f>
+        <v>0</v>
+      </c>
+      <c r="R65" s="36"/>
+    </row>
+    <row r="66" ht="28.8" spans="1:18">
+      <c r="A66" s="13">
+        <v>45354</v>
+      </c>
+      <c r="B66" s="14">
+        <v>1</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I66" s="33">
+        <v>4</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L66" s="37">
+        <f>B66*$I66</f>
+        <v>4</v>
+      </c>
+      <c r="M66" s="9">
+        <f>C66*$I66</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="9">
+        <f>D66*$I66</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="9">
+        <f>E66*$I66</f>
+        <v>0</v>
+      </c>
+      <c r="P66" s="9">
+        <f>F66*$I66</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="9">
+        <f>G66*$I66</f>
+        <v>0</v>
+      </c>
+      <c r="R66" s="36"/>
+    </row>
+    <row r="67" customFormat="1" spans="1:18">
+      <c r="A67" s="13">
+        <v>45354</v>
+      </c>
+      <c r="B67" s="14">
+        <v>1</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I67" s="33">
+        <v>3</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="L67" s="37">
+        <f>B67*$I67</f>
+        <v>3</v>
+      </c>
+      <c r="M67" s="9">
+        <f>C67*$I67</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="9">
+        <f>D67*$I67</f>
+        <v>0</v>
+      </c>
+      <c r="O67" s="9">
+        <f>E67*$I67</f>
+        <v>0</v>
+      </c>
+      <c r="P67" s="9">
+        <f>F67*$I67</f>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="9">
+        <f>G67*$I67</f>
+        <v>0</v>
+      </c>
+      <c r="R67" s="36"/>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" s="13"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="37">
+        <f>B68*$I68</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="46">
+        <f>C68*$I68</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="46">
+        <f>D68*$I68</f>
+        <v>0</v>
+      </c>
+      <c r="O68" s="46">
+        <f>E68*$I68</f>
+        <v>0</v>
+      </c>
+      <c r="P68" s="47">
+        <f>F68*$I68</f>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="47">
+        <f>G68*$I68</f>
+        <v>0</v>
+      </c>
+      <c r="R68" s="36">
+        <f>SUM(L75:Q75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="15"/>
+      <c r="H69" s="35"/>
+      <c r="K69" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="L69" s="36">
+        <f t="shared" ref="L69:Q69" si="20">SUM(L37:L68)</f>
+        <v>32.5</v>
+      </c>
+      <c r="M69" s="36">
         <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="M59" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="R59" s="36"/>
-    </row>
-    <row r="60" spans="1:18">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="35">
-        <f>B60*$I60</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="38">
-        <f>C60*$I60</f>
-        <v>0</v>
-      </c>
-      <c r="N60" s="38">
-        <f>D60*$I60</f>
-        <v>0</v>
-      </c>
-      <c r="O60" s="38">
-        <f>E60*$I60</f>
-        <v>0</v>
-      </c>
-      <c r="P60" s="39">
-        <f>F60*$I60</f>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="39">
-        <f>G60*$I60</f>
-        <v>0</v>
-      </c>
-      <c r="R60" s="36">
-        <f>SUM(L67:Q67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
-      <c r="A61" s="8"/>
-      <c r="H61" s="16"/>
-      <c r="K61" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="L61" s="36">
-        <f>SUM(L37:L60)</f>
+        <v>8</v>
+      </c>
+      <c r="N69" s="36">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="O69" s="36">
+        <f t="shared" si="20"/>
+        <v>34.5</v>
+      </c>
+      <c r="P69" s="36">
+        <f t="shared" si="20"/>
         <v>32.5</v>
       </c>
-      <c r="M61" s="36">
-        <f>SUM(M37:M60)</f>
-        <v>8</v>
-      </c>
-      <c r="N61" s="36">
-        <f>SUM(N37:N60)</f>
-        <v>8</v>
-      </c>
-      <c r="O61" s="36">
-        <f>SUM(O37:O60)</f>
-        <v>34.5</v>
-      </c>
-      <c r="P61" s="36">
-        <f>SUM(P37:P60)</f>
-        <v>8</v>
-      </c>
-      <c r="Q61" s="36">
-        <f>SUM(Q37:Q60)</f>
+      <c r="Q69" s="36">
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
-      <c r="R61" s="36"/>
-    </row>
-    <row r="62" spans="1:18">
-      <c r="A62" s="8"/>
-      <c r="K62" s="16" t="s">
+      <c r="R69" s="36"/>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="15"/>
+      <c r="K70" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36">
-        <f>SUM(L61:Q61)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
-      <c r="A63" s="8"/>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="43"/>
-      <c r="R63" s="36"/>
-    </row>
-    <row r="64" spans="1:18">
-      <c r="A64" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L64" s="32"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="36"/>
-    </row>
-    <row r="65" spans="1:18">
-      <c r="A65" s="44"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="45"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="35">
-        <f t="shared" ref="L65" si="26">B65*$I65</f>
-        <v>0</v>
-      </c>
-      <c r="M65" s="38">
-        <f t="shared" ref="M65" si="27">C65*$I65</f>
-        <v>0</v>
-      </c>
-      <c r="N65" s="38">
-        <f t="shared" ref="N65" si="28">D65*$I65</f>
-        <v>0</v>
-      </c>
-      <c r="O65" s="38">
-        <f t="shared" ref="O65" si="29">E65*$I65</f>
-        <v>0</v>
-      </c>
-      <c r="P65" s="39">
-        <f t="shared" ref="P65:Q65" si="30">F65*$I65</f>
-        <v>0</v>
-      </c>
-      <c r="Q65" s="39">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="R65" s="36"/>
-    </row>
-    <row r="66" spans="1:18">
-      <c r="A66" s="44"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="45"/>
-      <c r="K66" s="49"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="36">
-        <f>SUM(L73:P73)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
-      <c r="A67" s="8"/>
-      <c r="H67" s="16"/>
-      <c r="K67" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="L67">
-        <f>SUM(L65:L66)</f>
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <f t="shared" ref="M67" si="31">SUM(M65:M66)</f>
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <f t="shared" ref="N67" si="32">SUM(N65:N66)</f>
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <f t="shared" ref="O67" si="33">SUM(O65:O66)</f>
-        <v>0</v>
-      </c>
-      <c r="P67" s="36">
-        <f t="shared" ref="P67:Q67" si="34">SUM(P65:P66)</f>
-        <v>0</v>
-      </c>
-      <c r="Q67" s="36">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="R67" s="36"/>
-    </row>
-    <row r="68" spans="1:18">
-      <c r="A68" s="8"/>
-      <c r="K68" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-    </row>
-    <row r="69" spans="1:18">
-      <c r="A69" s="8"/>
-      <c r="K69" s="16"/>
-      <c r="P69" s="36"/>
-      <c r="Q69" s="43"/>
-      <c r="R69" s="36"/>
-    </row>
-    <row r="70" spans="1:18">
-      <c r="A70" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="L70" s="32"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="34"/>
-      <c r="R70" s="36"/>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="36"/>
+      <c r="R70" s="36">
+        <f>SUM(L69:Q69)</f>
+        <v>129.5</v>
+      </c>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="44"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="49"/>
-      <c r="L71" s="35">
-        <f t="shared" ref="L71" si="35">B71*$I71</f>
-        <v>0</v>
-      </c>
-      <c r="M71" s="38">
-        <f t="shared" ref="M71" si="36">C71*$I71</f>
-        <v>0</v>
-      </c>
-      <c r="N71" s="38">
-        <f t="shared" ref="N71" si="37">D71*$I71</f>
-        <v>0</v>
-      </c>
-      <c r="O71" s="38">
-        <f t="shared" ref="O71" si="38">E71*$I71</f>
-        <v>0</v>
-      </c>
-      <c r="P71" s="39">
-        <f t="shared" ref="P71:Q71" si="39">F71*$I71</f>
-        <v>0</v>
-      </c>
-      <c r="Q71" s="39">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="R71" s="36">
-        <f>SUM(L78:P78)</f>
-        <v>0</v>
-      </c>
+      <c r="A71" s="15"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="41"/>
+      <c r="R71" s="36"/>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="44"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="45"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="45"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="45"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="34"/>
+      <c r="A72" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="L72" s="31"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="32"/>
       <c r="Q72" s="34"/>
       <c r="R72" s="36"/>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" s="8"/>
-      <c r="H73" s="16"/>
-      <c r="K73" s="34" t="s">
+      <c r="A73" s="42"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="37">
+        <f t="shared" ref="L73" si="21">B73*$I73</f>
+        <v>0</v>
+      </c>
+      <c r="M73" s="46">
+        <f t="shared" ref="M73" si="22">C73*$I73</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="46">
+        <f t="shared" ref="N73" si="23">D73*$I73</f>
+        <v>0</v>
+      </c>
+      <c r="O73" s="46">
+        <f t="shared" ref="O73" si="24">E73*$I73</f>
+        <v>0</v>
+      </c>
+      <c r="P73" s="47">
+        <f t="shared" ref="P73:Q73" si="25">F73*$I73</f>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="47">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="36"/>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="42"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="34"/>
+      <c r="Q74" s="34"/>
+      <c r="R74" s="36">
+        <f>SUM(L81:P81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="15"/>
+      <c r="H75" s="35"/>
+      <c r="K75" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="L73">
-        <f>SUM(L71:L72)</f>
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <f t="shared" ref="M73" si="40">SUM(M71:M72)</f>
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <f t="shared" ref="N73" si="41">SUM(N71:N72)</f>
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <f t="shared" ref="O73" si="42">SUM(O71:O72)</f>
-        <v>0</v>
-      </c>
-      <c r="P73" s="36">
-        <f t="shared" ref="P73:Q73" si="43">SUM(P71:P72)</f>
-        <v>0</v>
-      </c>
-      <c r="Q73" s="36">
+      <c r="L75">
+        <f>SUM(L73:L74)</f>
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <f t="shared" ref="M75" si="26">SUM(M73:M74)</f>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f t="shared" ref="N75" si="27">SUM(N73:N74)</f>
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <f t="shared" ref="O75" si="28">SUM(O73:O74)</f>
+        <v>0</v>
+      </c>
+      <c r="P75" s="36">
+        <f t="shared" ref="P75:Q75" si="29">SUM(P73:P74)</f>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="36">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="36"/>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" s="15"/>
+      <c r="K76" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="36"/>
+      <c r="R76" s="36"/>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" s="15"/>
+      <c r="K77" s="35"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="41"/>
+      <c r="R77" s="36"/>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="L78" s="31"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="32"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="36"/>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="42"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="49"/>
+      <c r="L79" s="37">
+        <f t="shared" ref="L79" si="30">B79*$I79</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="46">
+        <f t="shared" ref="M79" si="31">C79*$I79</f>
+        <v>0</v>
+      </c>
+      <c r="N79" s="46">
+        <f t="shared" ref="N79" si="32">D79*$I79</f>
+        <v>0</v>
+      </c>
+      <c r="O79" s="46">
+        <f t="shared" ref="O79" si="33">E79*$I79</f>
+        <v>0</v>
+      </c>
+      <c r="P79" s="47">
+        <f t="shared" ref="P79:Q79" si="34">F79*$I79</f>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="47">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="R79" s="36">
+        <f>SUM(L86:P86)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" s="42"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="49"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="34"/>
+      <c r="Q80" s="34"/>
+      <c r="R80" s="36"/>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" s="15"/>
+      <c r="H81" s="35"/>
+      <c r="K81" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="L81">
+        <f>SUM(L79:L80)</f>
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <f t="shared" ref="M81" si="35">SUM(M79:M80)</f>
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <f t="shared" ref="N81" si="36">SUM(N79:N80)</f>
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <f t="shared" ref="O81" si="37">SUM(O79:O80)</f>
+        <v>0</v>
+      </c>
+      <c r="P81" s="36">
+        <f t="shared" ref="P81:Q81" si="38">SUM(P79:P80)</f>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="36">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="R81" s="36"/>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" s="15"/>
+      <c r="K82" t="s">
+        <v>122</v>
+      </c>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="41"/>
+      <c r="R82" s="41">
+        <f>SUM(L89:Q89)</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="L83" s="31"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="32"/>
+      <c r="Q83" s="34"/>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="42"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="37">
+        <f t="shared" ref="L84" si="39">B84*$I84</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="46">
+        <f t="shared" ref="M84" si="40">C84*$I84</f>
+        <v>0</v>
+      </c>
+      <c r="N84" s="46">
+        <f t="shared" ref="N84" si="41">D84*$I84</f>
+        <v>0</v>
+      </c>
+      <c r="O84" s="46">
+        <f t="shared" ref="O84" si="42">E84*$I84</f>
+        <v>0</v>
+      </c>
+      <c r="P84" s="47">
+        <f t="shared" ref="P84:Q84" si="43">F84*$I84</f>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="47">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="R73" s="36"/>
-    </row>
-    <row r="74" spans="1:18">
-      <c r="A74" s="8"/>
-      <c r="K74" t="s">
-        <v>105</v>
-      </c>
-      <c r="P74" s="36"/>
-      <c r="Q74" s="43"/>
-      <c r="R74" s="43">
-        <f>SUM(L81:Q81)</f>
-        <v>197.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="L75" s="32"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="37"/>
-      <c r="Q75" s="34"/>
-    </row>
-    <row r="76" spans="1:17">
-      <c r="A76" s="44"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="45"/>
-      <c r="K76" s="49"/>
-      <c r="L76" s="35">
-        <f t="shared" ref="L76" si="44">B76*$I76</f>
-        <v>0</v>
-      </c>
-      <c r="M76" s="38">
-        <f t="shared" ref="M76" si="45">C76*$I76</f>
-        <v>0</v>
-      </c>
-      <c r="N76" s="38">
-        <f t="shared" ref="N76" si="46">D76*$I76</f>
-        <v>0</v>
-      </c>
-      <c r="O76" s="38">
-        <f t="shared" ref="O76" si="47">E76*$I76</f>
-        <v>0</v>
-      </c>
-      <c r="P76" s="39">
-        <f t="shared" ref="P76:Q76" si="48">F76*$I76</f>
-        <v>0</v>
-      </c>
-      <c r="Q76" s="39">
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="42"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="34"/>
+      <c r="Q85" s="34"/>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="15"/>
+      <c r="H86" s="35"/>
+      <c r="K86" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="L86">
+        <f>SUM(L84:L85)</f>
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <f t="shared" ref="M86" si="44">SUM(M84:M85)</f>
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <f t="shared" ref="N86" si="45">SUM(N84:N85)</f>
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <f t="shared" ref="O86" si="46">SUM(O84:O85)</f>
+        <v>0</v>
+      </c>
+      <c r="P86" s="36">
+        <f t="shared" ref="P86:Q86" si="47">SUM(P84:P85)</f>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="36">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="15"/>
+      <c r="K87" t="s">
+        <v>124</v>
+      </c>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="36"/>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="15"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="15"/>
+      <c r="K89" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="L89">
+        <f>L34+L69+L75+L81+L86</f>
+        <v>46.5</v>
+      </c>
+      <c r="M89">
+        <f t="shared" ref="M89:Q89" si="48">M34+M69+M75+M81+M86</f>
+        <v>24.5</v>
+      </c>
+      <c r="N89">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
-      <c r="A77" s="44"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="45"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="49"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="34"/>
-      <c r="Q77" s="34"/>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="A78" s="8"/>
-      <c r="H78" s="16"/>
-      <c r="K78" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="L78">
-        <f>SUM(L76:L77)</f>
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <f t="shared" ref="M78" si="49">SUM(M76:M77)</f>
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <f t="shared" ref="N78" si="50">SUM(N76:N77)</f>
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <f t="shared" ref="O78" si="51">SUM(O76:O77)</f>
-        <v>0</v>
-      </c>
-      <c r="P78" s="36">
-        <f t="shared" ref="P78:Q78" si="52">SUM(P76:P77)</f>
-        <v>0</v>
-      </c>
-      <c r="Q78" s="36">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="8"/>
-      <c r="K79" t="s">
-        <v>107</v>
-      </c>
-      <c r="P79" s="36"/>
-      <c r="Q79" s="36"/>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="A80" s="8"/>
-      <c r="P80" s="36"/>
-      <c r="Q80" s="36"/>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="8"/>
-      <c r="K81" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="L81">
-        <f>L34+L61+L67+L73+L78</f>
-        <v>46.5</v>
-      </c>
-      <c r="M81">
-        <f t="shared" ref="M81:Q81" si="53">M34+M61+M67+M73+M78</f>
         <v>24.5</v>
       </c>
-      <c r="N81">
-        <f t="shared" si="53"/>
-        <v>24.5</v>
-      </c>
-      <c r="O81">
-        <f t="shared" si="53"/>
+      <c r="O89">
+        <f t="shared" si="48"/>
         <v>48.5</v>
       </c>
-      <c r="P81" s="36">
-        <f t="shared" si="53"/>
-        <v>24.5</v>
-      </c>
-      <c r="Q81" s="36">
-        <f t="shared" si="53"/>
+      <c r="P89" s="36">
+        <f t="shared" si="48"/>
+        <v>49</v>
+      </c>
+      <c r="Q89" s="36">
+        <f t="shared" si="48"/>
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
-      <c r="A82" s="46"/>
-      <c r="B82" s="47"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="47"/>
-      <c r="H82" s="47"/>
-      <c r="I82" s="47"/>
-      <c r="J82" s="47"/>
-      <c r="K82" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="L82" s="47"/>
-      <c r="M82" s="47"/>
-      <c r="N82" s="47"/>
-      <c r="O82" s="47"/>
-      <c r="P82" s="43"/>
-      <c r="Q82" s="43"/>
+    <row r="90" spans="1:17">
+      <c r="A90" s="44"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="45"/>
+      <c r="K90" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="L90" s="45"/>
+      <c r="M90" s="45"/>
+      <c r="N90" s="45"/>
+      <c r="O90" s="45"/>
+      <c r="P90" s="41"/>
+      <c r="Q90" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/blog Milestone 2.xlsx
+++ b/blog Milestone 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10020"/>
+    <workbookView windowWidth="25600" windowHeight="12030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="140">
   <si>
     <t>Team Members</t>
   </si>
@@ -226,154 +226,193 @@
     <t>Created User repository and added user authentication feature. Updated UserLogin, UserRegistration, App.java files.</t>
   </si>
   <si>
+    <t>Update User Authentication</t>
+  </si>
+  <si>
+    <t>Update user authentication, login and registration.</t>
+  </si>
+  <si>
+    <t>User login and register add and remove user</t>
+  </si>
+  <si>
+    <t>Functionality implementation</t>
+  </si>
+  <si>
+    <t>Student Browse assets implemented along with advanced search</t>
+  </si>
+  <si>
+    <t>Browsing history Implemented</t>
+  </si>
+  <si>
+    <t>Block and unBlock user update for admin</t>
+  </si>
+  <si>
+    <t>Functionality implementation for admin</t>
+  </si>
+  <si>
+    <t>Update without togglecase</t>
+  </si>
+  <si>
+    <t>Rework on functional case without togglecase</t>
+  </si>
+  <si>
+    <t>Code Refactoring and correcting the attributes in the classes</t>
+  </si>
+  <si>
+    <t>Reviewing</t>
+  </si>
+  <si>
+    <t>Understanding the code classes with respect to class Diagram and reviewing peer's code for asset management and asset repository.</t>
+  </si>
+  <si>
+    <t>Developed an idea of which functionalities of assetmanagement and assetrepository class is to be used for implementing add and remove for book and other assets.</t>
+  </si>
+  <si>
     <t>Group Discussion</t>
   </si>
   <si>
     <t>Discussion on Class Diagram and task break down</t>
   </si>
   <si>
+    <t>addUser message suppression</t>
+  </si>
+  <si>
+    <t>Suppresses addUser message for initial usecase.</t>
+  </si>
+  <si>
+    <t>Coding for add and remove asset</t>
+  </si>
+  <si>
+    <t>Functionality developed for add and remove asset.</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Code Review</t>
+  </si>
+  <si>
+    <t>Reviewing peers code</t>
+  </si>
+  <si>
+    <t>ReCoding for add and remove book as an individual asset rather then all asset in common because of different attributes.</t>
+  </si>
+  <si>
+    <t>Fully functional add and remove book code.</t>
+  </si>
+  <si>
+    <t>Refactoring and learning</t>
+  </si>
+  <si>
+    <t>Identified and reviewed mistakes as pointed out by peer. Learned new java concept of super and implmenting that in the add and remove book</t>
+  </si>
+  <si>
+    <t>Refactored Add and Remove Book code.</t>
+  </si>
+  <si>
     <t>Discussion on the tasks</t>
   </si>
   <si>
+    <t>Disciussion Room function</t>
+  </si>
+  <si>
+    <t>Added discussion room repository</t>
+  </si>
+  <si>
+    <t>Test cases for User, blocking and userRepository</t>
+  </si>
+  <si>
+    <t>writing Junit testcases for the mentioned classes</t>
+  </si>
+  <si>
+    <t>Coding and debugging</t>
+  </si>
+  <si>
+    <t>Line edits, UI Changes, to string(), updateNews implementation</t>
+  </si>
+  <si>
+    <t>UI editing, implementation of toString() method and implementation of updateNews functionality</t>
+  </si>
+  <si>
+    <t>Added discussion room management and model.</t>
+  </si>
+  <si>
+    <t>Update Book details coding</t>
+  </si>
+  <si>
+    <t>Developing Functionality and Debugging</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Test cases Review</t>
+  </si>
+  <si>
+    <t>Implementing Admin services, view news toString()</t>
+  </si>
+  <si>
+    <t>Functionality implementation of adminServices and to string on viewNews</t>
+  </si>
+  <si>
+    <t>Developing initial test case for adding a book</t>
+  </si>
+  <si>
+    <t>Raw version of code developed for adding a book</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>UI changes and Junit 4 to 5 conversions and rewriting testcases</t>
+  </si>
+  <si>
+    <t>rewrk on testcases</t>
+  </si>
+  <si>
+    <t>Presentation Room fuction</t>
+  </si>
+  <si>
+    <t>Refactored discussion roo code into presentation room code.</t>
+  </si>
+  <si>
+    <t>Developing test case for Remove book and debugging add book test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Debugged Add book test case and Implemented Remove book test case</t>
+  </si>
+  <si>
+    <t>Unit Test Cases</t>
+  </si>
+  <si>
+    <t>Unit Test cases for Search Implemented</t>
+  </si>
+  <si>
+    <t>worked on some JUnit test cases for browse history</t>
+  </si>
+  <si>
+    <t>Coding and testing</t>
+  </si>
+  <si>
+    <t>Refactored presentation room code and worked on unit test cases for user login and registration.</t>
+  </si>
+  <si>
+    <t>Completed all the test cases</t>
+  </si>
+  <si>
+    <t>Test cases for AdminServices, updatenews and viewnews edit on cases printing</t>
+  </si>
+  <si>
+    <t>Test cases written</t>
+  </si>
+  <si>
     <t>Final review of the code and finishing off the object diagrams</t>
   </si>
   <si>
-    <t>User login and register add and remove user</t>
-  </si>
-  <si>
-    <t>Functionality implementation</t>
-  </si>
-  <si>
-    <t>Block and unBlock user update for admin</t>
-  </si>
-  <si>
-    <t>Functionality implementation for admin</t>
-  </si>
-  <si>
-    <t>Update without togglecase</t>
-  </si>
-  <si>
-    <t>Rework on functional case without togglecase</t>
-  </si>
-  <si>
-    <t>Test cases for User, blocking and userRepository</t>
-  </si>
-  <si>
-    <t>writing Junit testcases for the mentioned classes</t>
-  </si>
-  <si>
-    <t>Coding and debugging</t>
-  </si>
-  <si>
-    <t>Line edits, UI Changes, to string(), updateNews implementation</t>
-  </si>
-  <si>
-    <t>UI editing, implementation of toString() method and implementation of updateNews functionality</t>
-  </si>
-  <si>
-    <t>Implementing Admin services, view news toString()</t>
-  </si>
-  <si>
-    <t>Functionality implementation of adminServices and to string on viewNews</t>
-  </si>
-  <si>
-    <t>Debugging</t>
-  </si>
-  <si>
-    <t>UI changes and Junit 4 to 5 conversions and rewriting testcases</t>
-  </si>
-  <si>
-    <t>rewrk on testcases</t>
-  </si>
-  <si>
-    <t>Test cases for AdminServices, updatenews and viewnews edit on cases printing</t>
-  </si>
-  <si>
-    <t>Test cases written</t>
-  </si>
-  <si>
-    <t>Student Browse assets implemented along with advanced search</t>
-  </si>
-  <si>
-    <t>Browsing history Implemented</t>
-  </si>
-  <si>
-    <t>Code Refactoring and correcting the attributes in the classes</t>
-  </si>
-  <si>
-    <t>Review</t>
-  </si>
-  <si>
-    <t>Code Review</t>
-  </si>
-  <si>
-    <t>Reviewing peers code</t>
-  </si>
-  <si>
-    <t>Reviewing</t>
-  </si>
-  <si>
-    <t>Understanding the code classes with respect to class Diagram and reviewing peer's code for asset management and asset repository.</t>
-  </si>
-  <si>
-    <t>Developed an idea of which functionalities of assetmanagement and assetrepository class is to be used for implementing add and remove for book and other assets.</t>
-  </si>
-  <si>
-    <t>Coding for add and remove asset</t>
-  </si>
-  <si>
-    <t>Functionality developed for add and remove asset.</t>
-  </si>
-  <si>
-    <t>ReCoding for add and remove book as an individual asset rather then all asset in common because of different attributes.</t>
-  </si>
-  <si>
-    <t>Fully functional add and remove book code.</t>
-  </si>
-  <si>
-    <t>Refactoring and learning</t>
-  </si>
-  <si>
-    <t>Identified and reviewed mistakes as pointed out by peer. Learned new java concept of super and implmenting that in the add and remove book</t>
-  </si>
-  <si>
-    <t>Refactored Add and Remove Book code.</t>
-  </si>
-  <si>
-    <t>Update Book details coding</t>
-  </si>
-  <si>
-    <t>Developing Functionality and Debugging</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Test cases Review</t>
-  </si>
-  <si>
-    <t>Developing initial test case for adding a book</t>
-  </si>
-  <si>
-    <t>Raw version of code developed for adding a book</t>
-  </si>
-  <si>
-    <t>Developing test case for Remove book and debugging add book test case</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Debugged Add book test case and Implemented Remove book test case</t>
-  </si>
-  <si>
-    <t>Unit Test Cases</t>
-  </si>
-  <si>
-    <t>Unit Test cases for Search Implemented</t>
-  </si>
-  <si>
-    <t>worked on some JUnit test cases for browse history</t>
-  </si>
-  <si>
-    <t>Completed all the test cases</t>
+    <t>Presentation room code.</t>
+  </si>
+  <si>
+    <t>Refactored Presentation room code.</t>
   </si>
   <si>
     <t>Milestone 3</t>
@@ -1292,7 +1331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1385,6 +1424,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1396,21 +1441,16 @@
     <xf numFmtId="15" fontId="1" fillId="2" borderId="4" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1767,29 +1807,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:S90"/>
+  <dimension ref="A3:S96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D59" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="3.33333333333333" customWidth="1"/>
-    <col min="3" max="3" width="3.88888888888889" customWidth="1"/>
-    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="2.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="3.88888888888889" customWidth="1"/>
+    <col min="1" max="1" width="11.8909090909091" customWidth="1"/>
+    <col min="2" max="2" width="3.33636363636364" customWidth="1"/>
+    <col min="3" max="3" width="3.89090909090909" customWidth="1"/>
+    <col min="4" max="4" width="5.66363636363636" customWidth="1"/>
+    <col min="5" max="5" width="2.66363636363636" customWidth="1"/>
+    <col min="6" max="6" width="3.89090909090909" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="15.4444444444444" customWidth="1"/>
-    <col min="9" max="9" width="15.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="21.8888888888889" customWidth="1"/>
-    <col min="11" max="11" width="25.4444444444444" customWidth="1"/>
-    <col min="19" max="19" width="35.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="15.4454545454545" customWidth="1"/>
+    <col min="9" max="9" width="15.3363636363636" customWidth="1"/>
+    <col min="10" max="10" width="21.8909090909091" customWidth="1"/>
+    <col min="11" max="11" width="25.4454545454545" customWidth="1"/>
+    <col min="19" max="19" width="35.6636363636364" customWidth="1"/>
     <col min="23" max="23" width="11" customWidth="1"/>
-    <col min="24" max="24" width="10.1111111111111" customWidth="1"/>
-    <col min="25" max="25" width="9.88888888888889" customWidth="1"/>
+    <col min="24" max="24" width="10.1090909090909" customWidth="1"/>
+    <col min="25" max="25" width="9.89090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="16.5" customHeight="1" spans="8:19">
@@ -1799,18 +1839,18 @@
       <c r="I3" s="16"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="S3" s="38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="15.9" spans="8:19">
+      <c r="S3" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="16" spans="8:19">
       <c r="H4" s="2"/>
       <c r="I4" s="19"/>
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
-      <c r="S4" s="38"/>
-    </row>
-    <row r="5" ht="29.55" spans="8:19">
+      <c r="S4" s="40"/>
+    </row>
+    <row r="5" ht="29.75" spans="8:19">
       <c r="H5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1821,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="K5" s="21"/>
-      <c r="S5" s="38"/>
+      <c r="S5" s="40"/>
     </row>
     <row r="6" spans="8:19">
       <c r="H6" s="4" t="s">
@@ -1834,7 +1874,7 @@
         <v>7</v>
       </c>
       <c r="K6" s="25"/>
-      <c r="S6" s="38"/>
+      <c r="S6" s="40"/>
     </row>
     <row r="7" spans="8:19">
       <c r="H7" s="4" t="s">
@@ -1847,7 +1887,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="25"/>
-      <c r="S7" s="38"/>
+      <c r="S7" s="40"/>
     </row>
     <row r="8" spans="8:19">
       <c r="H8" s="4" t="s">
@@ -1860,7 +1900,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="25"/>
-      <c r="S8" s="38"/>
+      <c r="S8" s="40"/>
     </row>
     <row r="9" spans="8:19">
       <c r="H9" s="4" t="s">
@@ -1873,7 +1913,7 @@
         <v>15</v>
       </c>
       <c r="K9" s="25"/>
-      <c r="S9" s="38"/>
+      <c r="S9" s="40"/>
     </row>
     <row r="10" spans="8:19">
       <c r="H10" s="4" t="s">
@@ -1886,7 +1926,7 @@
         <v>18</v>
       </c>
       <c r="K10" s="25"/>
-      <c r="S10" s="38"/>
+      <c r="S10" s="40"/>
     </row>
     <row r="11" spans="8:19">
       <c r="H11" s="5" t="s">
@@ -1899,7 +1939,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="27"/>
-      <c r="S11" s="38"/>
+      <c r="S11" s="40"/>
     </row>
     <row r="12" spans="19:19">
       <c r="S12" t="s">
@@ -1942,8 +1982,8 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="40"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="42"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="6"/>
@@ -2371,7 +2411,7 @@
       </c>
       <c r="R24" s="36"/>
     </row>
-    <row r="25" ht="43.2" spans="1:18">
+    <row r="25" ht="43.5" spans="1:18">
       <c r="A25" s="13">
         <v>45326</v>
       </c>
@@ -2431,7 +2471,7 @@
       </c>
       <c r="R25" s="36"/>
     </row>
-    <row r="26" ht="86.4" spans="1:18">
+    <row r="26" ht="87" spans="1:18">
       <c r="A26" s="13">
         <v>45330</v>
       </c>
@@ -2527,7 +2567,7 @@
       </c>
       <c r="R27" s="36"/>
     </row>
-    <row r="28" ht="28.8" spans="1:18">
+    <row r="28" ht="29" spans="1:18">
       <c r="A28" s="13">
         <v>45333</v>
       </c>
@@ -2587,7 +2627,7 @@
       </c>
       <c r="R28" s="36"/>
     </row>
-    <row r="29" ht="57.6" spans="1:18">
+    <row r="29" ht="58" spans="1:18">
       <c r="A29" s="13">
         <v>45335</v>
       </c>
@@ -2647,7 +2687,7 @@
       </c>
       <c r="R29" s="36"/>
     </row>
-    <row r="30" ht="28.8" spans="1:18">
+    <row r="30" ht="29" spans="1:18">
       <c r="A30" s="13">
         <v>45338</v>
       </c>
@@ -2697,7 +2737,7 @@
       </c>
       <c r="R30" s="36"/>
     </row>
-    <row r="31" ht="43.2" spans="1:18">
+    <row r="31" ht="43.5" spans="1:18">
       <c r="A31" s="13">
         <v>45340</v>
       </c>
@@ -2747,7 +2787,7 @@
       </c>
       <c r="R31" s="36"/>
     </row>
-    <row r="32" ht="43.2" spans="1:18">
+    <row r="32" ht="43.5" spans="1:18">
       <c r="A32" s="13">
         <v>45340</v>
       </c>
@@ -2898,7 +2938,7 @@
         <v>63</v>
       </c>
       <c r="P35" s="36"/>
-      <c r="Q35" s="41"/>
+      <c r="Q35" s="43"/>
       <c r="R35" s="36">
         <f>SUM(L34:Q34)</f>
         <v>92.5</v>
@@ -2991,58 +3031,48 @@
         <v>69</v>
       </c>
       <c r="L38" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="L38:L78" si="10">B38*$I38</f>
         <v>0</v>
       </c>
       <c r="M38" s="9">
-        <f>C38*$I38</f>
+        <f t="shared" ref="M38:M78" si="11">C38*$I38</f>
         <v>0</v>
       </c>
       <c r="N38" s="9">
-        <f>D38*$I38</f>
+        <f t="shared" ref="N38:N78" si="12">D38*$I38</f>
         <v>0</v>
       </c>
       <c r="O38" s="9">
-        <f>E38*$I38</f>
+        <f t="shared" ref="O38:O78" si="13">E38*$I38</f>
         <v>0</v>
       </c>
       <c r="P38" s="9">
-        <f>F38*$I38</f>
+        <f t="shared" ref="P38:P78" si="14">F38*$I38</f>
         <v>0</v>
       </c>
       <c r="Q38" s="9">
-        <f>G38*$I38</f>
+        <f t="shared" ref="Q38:Q78" si="15">G38*$I38</f>
         <v>3.5</v>
       </c>
       <c r="R38" s="36"/>
     </row>
-    <row r="39" customFormat="1" ht="28.8" spans="1:18">
+    <row r="39" customFormat="1" ht="29" spans="1:18">
       <c r="A39" s="13">
-        <v>45347</v>
-      </c>
-      <c r="B39" s="14">
-        <v>1</v>
-      </c>
-      <c r="C39" s="14">
-        <v>1</v>
-      </c>
-      <c r="D39" s="14">
-        <v>1</v>
-      </c>
-      <c r="E39" s="14">
-        <v>1</v>
-      </c>
-      <c r="F39" s="14">
-        <v>1</v>
-      </c>
+        <v>45343</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="14">
         <v>1</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I39" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" s="14" t="s">
         <v>70</v>
@@ -3051,202 +3081,182 @@
         <v>71</v>
       </c>
       <c r="L39" s="37">
-        <f t="shared" ref="L39:Q39" si="10">B39*$I39</f>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="M39" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="9">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="R39" s="36"/>
+    </row>
+    <row r="40" ht="29" spans="1:18">
+      <c r="A40" s="13">
+        <v>45344</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14">
+        <v>1</v>
+      </c>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L40" s="37">
         <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="N39" s="9">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="O39" s="9">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="P39" s="9">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="Q39" s="9">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="R39" s="36"/>
-    </row>
-    <row r="40" customFormat="1" spans="1:18">
-      <c r="A40" s="13">
-        <v>45349</v>
-      </c>
-      <c r="B40" s="14">
-        <v>1</v>
-      </c>
-      <c r="C40" s="14">
-        <v>1</v>
-      </c>
-      <c r="D40" s="14">
-        <v>1</v>
-      </c>
-      <c r="E40" s="14">
-        <v>1</v>
-      </c>
-      <c r="F40" s="14">
-        <v>1</v>
-      </c>
-      <c r="G40" s="14">
-        <v>1</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I40" s="33">
-        <v>2</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="K40" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="L40" s="37">
-        <f t="shared" ref="L40:Q40" si="11">B40*$I40</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M40" s="9">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N40" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="9">
+        <f t="shared" si="13"/>
+        <v>3.5</v>
+      </c>
+      <c r="P40" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="36"/>
+    </row>
+    <row r="41" ht="43.5" spans="1:18">
+      <c r="A41" s="13">
+        <v>45344</v>
+      </c>
+      <c r="B41" s="14">
+        <v>1</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L41" s="37">
+        <f t="shared" si="10"/>
+        <v>3.5</v>
+      </c>
+      <c r="M41" s="9">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="O40" s="9">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="P40" s="9">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="Q40" s="9">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="R40" s="36"/>
-    </row>
-    <row r="41" customFormat="1" ht="43.2" spans="1:18">
-      <c r="A41" s="13">
-        <v>45354</v>
-      </c>
-      <c r="B41" s="14">
-        <v>1</v>
-      </c>
-      <c r="C41" s="14">
-        <v>1</v>
-      </c>
-      <c r="D41" s="14">
-        <v>1</v>
-      </c>
-      <c r="E41" s="14">
-        <v>1</v>
-      </c>
-      <c r="F41" s="14">
-        <v>1</v>
-      </c>
-      <c r="G41" s="14">
-        <v>1</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I41" s="33">
-        <v>3</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="K41" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L41" s="37">
-        <f t="shared" ref="L41:Q41" si="12">B41*$I41</f>
-        <v>3</v>
-      </c>
-      <c r="M41" s="9">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N41" s="9">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O41" s="9">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="P41" s="9">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="Q41" s="9">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="R41" s="36"/>
     </row>
-    <row r="42" ht="28.8" spans="1:18">
+    <row r="42" ht="29" spans="1:18">
       <c r="A42" s="13">
-        <v>45344</v>
-      </c>
-      <c r="B42" s="14"/>
+        <v>45345</v>
+      </c>
+      <c r="B42" s="14">
+        <v>1</v>
+      </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="14">
-        <v>1</v>
-      </c>
+      <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14" t="s">
         <v>65</v>
       </c>
       <c r="I42" s="33">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K42" s="14" t="s">
         <v>75</v>
       </c>
       <c r="L42" s="37">
-        <f t="shared" ref="L42:L57" si="13">B42*$I42</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="M42" s="9">
-        <f t="shared" ref="M42:M57" si="14">C42*$I42</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N42" s="9">
-        <f t="shared" ref="N42:N57" si="15">D42*$I42</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O42" s="9">
-        <f t="shared" ref="O42:O57" si="16">E42*$I42</f>
-        <v>3.5</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="P42" s="9">
-        <f t="shared" ref="P42:P57" si="17">F42*$I42</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q42" s="9">
-        <f t="shared" ref="Q42:Q47" si="18">G42*$I42</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R42" s="36"/>
     </row>
-    <row r="43" ht="28.8" spans="1:18">
+    <row r="43" ht="29" spans="1:18">
       <c r="A43" s="13">
         <v>45345</v>
       </c>
@@ -3271,32 +3281,32 @@
         <v>77</v>
       </c>
       <c r="L43" s="37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="9">
+        <v>3</v>
+      </c>
+      <c r="P43" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N43" s="9">
+      <c r="Q43" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O43" s="9">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="P43" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="R43" s="36"/>
     </row>
-    <row r="44" ht="28.8" spans="1:18">
+    <row r="44" ht="29" spans="1:18">
       <c r="A44" s="13">
         <v>45346</v>
       </c>
@@ -3321,242 +3331,252 @@
         <v>79</v>
       </c>
       <c r="L44" s="37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="9">
+        <v>1</v>
+      </c>
+      <c r="P44" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N44" s="9">
+      <c r="Q44" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O44" s="9">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="P44" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="R44" s="36"/>
     </row>
-    <row r="45" ht="43.2" spans="1:18">
+    <row r="45" ht="43.5" spans="1:18">
       <c r="A45" s="13">
-        <v>45350</v>
-      </c>
-      <c r="B45" s="14"/>
+        <v>45346</v>
+      </c>
+      <c r="B45" s="14">
+        <v>1</v>
+      </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="14">
-        <v>1</v>
-      </c>
+      <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14" t="s">
         <v>65</v>
       </c>
       <c r="I45" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J45" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K45" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="K45" s="14" t="s">
-        <v>81</v>
-      </c>
       <c r="L45" s="37">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M45" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="9">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M45" s="9">
+      <c r="P45" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N45" s="9">
+      <c r="Q45" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O45" s="9">
-        <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="P45" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="R45" s="36"/>
     </row>
-    <row r="46" ht="57.6" spans="1:18">
+    <row r="46" ht="101.5" spans="1:18">
       <c r="A46" s="13">
-        <v>45351</v>
+        <v>45346</v>
       </c>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="14">
-        <v>1</v>
-      </c>
-      <c r="F46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14">
+        <v>1</v>
+      </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I46" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="J46" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="I46" s="33">
-        <v>6</v>
-      </c>
-      <c r="J46" s="14" t="s">
+      <c r="K46" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="K46" s="14" t="s">
+      <c r="L46" s="37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="9">
+        <f t="shared" si="14"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q46" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="36"/>
+    </row>
+    <row r="47" customFormat="1" ht="29" spans="1:18">
+      <c r="A47" s="13">
+        <v>45347</v>
+      </c>
+      <c r="B47" s="14">
+        <v>1</v>
+      </c>
+      <c r="C47" s="14">
+        <v>1</v>
+      </c>
+      <c r="D47" s="14">
+        <v>1</v>
+      </c>
+      <c r="E47" s="14">
+        <v>1</v>
+      </c>
+      <c r="F47" s="14">
+        <v>1</v>
+      </c>
+      <c r="G47" s="14">
+        <v>1</v>
+      </c>
+      <c r="H47" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="L46" s="37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="9">
-        <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="P46" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="36"/>
-    </row>
-    <row r="47" ht="43.2" spans="1:18">
-      <c r="A47" s="13">
-        <v>45352</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14">
-        <v>1</v>
-      </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14" t="s">
-        <v>65</v>
       </c>
       <c r="I47" s="33">
         <v>3</v>
       </c>
       <c r="J47" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K47" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="K47" s="14" t="s">
-        <v>86</v>
-      </c>
       <c r="L47" s="37">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="M47" s="9">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="N47" s="9">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="O47" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="9">
+        <v>3</v>
+      </c>
+      <c r="P47" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="9">
-        <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="P47" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="R47" s="36"/>
     </row>
-    <row r="48" ht="43.2" spans="1:18">
+    <row r="48" customFormat="1" ht="29" spans="1:18">
       <c r="A48" s="13">
-        <v>45353</v>
+        <v>45347</v>
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="14">
-        <v>1</v>
-      </c>
+      <c r="E48" s="14"/>
       <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
+      <c r="G48" s="14">
+        <v>1</v>
+      </c>
       <c r="H48" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" s="33">
+        <v>1</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K48" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I48" s="33">
-        <v>2</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>89</v>
-      </c>
       <c r="L48" s="37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="9">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M48" s="9">
+      <c r="P48" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N48" s="9">
+      <c r="Q48" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="9">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="P48" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="9">
-        <f t="shared" ref="Q48:Q53" si="19">G48*$I48</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="36"/>
     </row>
-    <row r="49" ht="72" spans="1:18">
+    <row r="49" ht="29" spans="1:18">
       <c r="A49" s="13">
-        <v>45354</v>
+        <v>45347</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="14">
-        <v>1</v>
-      </c>
-      <c r="F49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14">
+        <v>1</v>
+      </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14" t="s">
         <v>65</v>
@@ -3565,40 +3585,40 @@
         <v>4</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L49" s="37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="9">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M49" s="9">
+      <c r="P49" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N49" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O49" s="9">
-        <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="P49" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="9">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="R49" s="36"/>
     </row>
-    <row r="50" ht="43.2" spans="1:18">
+    <row r="50" spans="1:18">
       <c r="A50" s="13">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B50" s="14">
         <v>1</v>
@@ -3609,54 +3629,54 @@
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
       <c r="H50" s="14" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I50" s="33">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="K50" s="14" t="s">
         <v>92</v>
       </c>
       <c r="L50" s="37">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M50" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="9">
         <f t="shared" si="13"/>
-        <v>3.5</v>
-      </c>
-      <c r="M50" s="9">
+        <v>0</v>
+      </c>
+      <c r="P50" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N50" s="9">
+      <c r="Q50" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O50" s="9">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="9">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="R50" s="36"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" ht="87" spans="1:18">
       <c r="A51" s="13">
-        <v>45345</v>
-      </c>
-      <c r="B51" s="14">
-        <v>1</v>
-      </c>
+        <v>45347</v>
+      </c>
+      <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="F51" s="14">
+        <v>1</v>
+      </c>
       <c r="G51" s="14"/>
       <c r="H51" s="14" t="s">
         <v>65</v>
@@ -3665,239 +3685,250 @@
         <v>3</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L51" s="37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="9">
         <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="9">
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="M51" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="9">
+      <c r="Q51" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O51" s="9">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="9">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="R51" s="36"/>
     </row>
-    <row r="52" ht="43.2" spans="1:18">
+    <row r="52" ht="101.5" spans="1:18">
       <c r="A52" s="13">
-        <v>45346</v>
-      </c>
-      <c r="B52" s="14">
-        <v>1</v>
-      </c>
+        <v>45348</v>
+      </c>
+      <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="F52" s="14">
+        <v>1</v>
+      </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="I52" s="33">
+        <v>4</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L52" s="37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="9">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="Q52" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="36"/>
+    </row>
+    <row r="53" customFormat="1" spans="1:18">
+      <c r="A53" s="13">
+        <v>45349</v>
+      </c>
+      <c r="B53" s="14">
+        <v>1</v>
+      </c>
+      <c r="C53" s="14">
+        <v>1</v>
+      </c>
+      <c r="D53" s="14">
+        <v>1</v>
+      </c>
+      <c r="E53" s="14">
+        <v>1</v>
+      </c>
+      <c r="F53" s="14">
+        <v>1</v>
+      </c>
+      <c r="G53" s="14">
+        <v>1</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I53" s="33">
         <v>2</v>
       </c>
-      <c r="J52" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K52" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L52" s="37">
+      <c r="J53" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="L53" s="37">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M53" s="9">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N53" s="9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O53" s="9">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="M52" s="9">
+      <c r="P53" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N52" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q53" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O52" s="9">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="9">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R52" s="36"/>
-    </row>
-    <row r="53" spans="1:18">
-      <c r="A53" s="13">
-        <v>45347</v>
-      </c>
-      <c r="B53" s="14">
-        <v>1</v>
-      </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I53" s="33">
         <v>2</v>
       </c>
-      <c r="J53" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="K53" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="L53" s="37">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="M53" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="9">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="9">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="R53" s="36"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" customFormat="1" ht="29" spans="1:18">
       <c r="A54" s="13">
-        <v>45350</v>
-      </c>
-      <c r="B54" s="14">
-        <v>1</v>
-      </c>
+        <v>45349</v>
+      </c>
+      <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
+      <c r="G54" s="14">
+        <v>1</v>
+      </c>
       <c r="H54" s="14" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="I54" s="33">
-        <v>1</v>
-      </c>
-      <c r="J54" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="K54" s="14" t="s">
-        <v>97</v>
+        <v>3</v>
+      </c>
+      <c r="J54" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="K54" s="39" t="s">
+        <v>100</v>
       </c>
       <c r="L54" s="37">
-        <f>B54*$I54</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="M54" s="9">
-        <f>C54*$I54</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N54" s="9">
-        <f>D54*$I54</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O54" s="9">
-        <f>E54*$I54</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P54" s="9">
-        <f>F54*$I54</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q54" s="9">
-        <f>G54*$I54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:18">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="R54" s="36"/>
+    </row>
+    <row r="55" ht="43.5" spans="1:18">
       <c r="A55" s="13">
-        <v>45351</v>
-      </c>
-      <c r="B55" s="14">
-        <v>1</v>
-      </c>
+        <v>45350</v>
+      </c>
+      <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
+      <c r="E55" s="14">
+        <v>1</v>
+      </c>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
       <c r="H55" s="14" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="I55" s="33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L55" s="37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="9">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="M55" s="9">
+        <v>4</v>
+      </c>
+      <c r="P55" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N55" s="9">
+      <c r="Q55" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O55" s="9">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q55" s="9">
-        <f>G55*$I55</f>
-        <v>0</v>
-      </c>
       <c r="R55" s="36"/>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:17">
       <c r="A56" s="13">
-        <v>45352</v>
+        <v>45350</v>
       </c>
       <c r="B56" s="14">
         <v>1</v>
@@ -3908,217 +3939,243 @@
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
       <c r="H56" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I56" s="33">
         <v>1</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L56" s="37">
-        <f>B56*$I56</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="M56" s="9">
-        <f>C56*$I56</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N56" s="9">
-        <f>D56*$I56</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O56" s="9">
-        <f>E56*$I56</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P56" s="9">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q56" s="9">
-        <f>G56*$I56</f>
-        <v>0</v>
-      </c>
-      <c r="R56" s="36"/>
-    </row>
-    <row r="57" ht="100.8" spans="1:18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="58" spans="1:18">
       <c r="A57" s="13">
-        <v>45346</v>
+        <v>45351</v>
       </c>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14">
-        <v>1</v>
-      </c>
+      <c r="E57" s="14">
+        <v>1</v>
+      </c>
+      <c r="F57" s="14"/>
       <c r="G57" s="14"/>
       <c r="H57" s="14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I57" s="33">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L57" s="37">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M57" s="9">
-        <v>0</v>
-      </c>
-      <c r="N57" s="9"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="O57" s="9">
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>6</v>
       </c>
       <c r="P57" s="9">
-        <v>3.5</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="Q57" s="9">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R57" s="36"/>
     </row>
-    <row r="58" ht="28.8" spans="1:18">
+    <row r="58" customFormat="1" spans="1:18">
       <c r="A58" s="13">
-        <v>45347</v>
-      </c>
-      <c r="B58" s="14"/>
+        <v>45351</v>
+      </c>
+      <c r="B58" s="14">
+        <v>1</v>
+      </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
-      <c r="F58" s="14">
-        <v>1</v>
-      </c>
+      <c r="F58" s="14"/>
       <c r="G58" s="14"/>
       <c r="H58" s="14" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I58" s="33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L58" s="37">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="M58" s="9">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N58" s="9">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O58" s="9">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P58" s="9">
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="Q58" s="9">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R58" s="36"/>
     </row>
-    <row r="59" ht="86.4" spans="1:18">
+    <row r="59" customFormat="1" ht="29" spans="1:18">
       <c r="A59" s="13">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
-      <c r="F59" s="14">
-        <v>1</v>
-      </c>
-      <c r="G59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14">
+        <v>1</v>
+      </c>
       <c r="H59" s="14" t="s">
         <v>65</v>
       </c>
       <c r="I59" s="33">
-        <v>3</v>
-      </c>
-      <c r="J59" s="14" t="s">
-        <v>103</v>
+        <v>3.5</v>
+      </c>
+      <c r="J59" s="38" t="s">
+        <v>99</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L59" s="37">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M59" s="9">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N59" s="9">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O59" s="9">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P59" s="9">
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="Q59" s="9">
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>3.5</v>
       </c>
       <c r="R59" s="36"/>
     </row>
-    <row r="60" ht="86.4" spans="1:18">
+    <row r="60" spans="1:18">
       <c r="A60" s="13">
-        <v>45348</v>
-      </c>
-      <c r="B60" s="14"/>
+        <v>45352</v>
+      </c>
+      <c r="B60" s="14">
+        <v>1</v>
+      </c>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
-      <c r="F60" s="14">
-        <v>1</v>
-      </c>
+      <c r="F60" s="14"/>
       <c r="G60" s="14"/>
       <c r="H60" s="14" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="I60" s="33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="L60" s="37">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="M60" s="9">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N60" s="9">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O60" s="9">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P60" s="9">
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="Q60" s="9">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R60" s="36"/>
     </row>
-    <row r="61" ht="28.8" spans="1:18">
+    <row r="61" ht="29" spans="1:18">
       <c r="A61" s="13">
         <v>45352</v>
       </c>
@@ -4137,27 +4194,33 @@
         <v>2</v>
       </c>
       <c r="J61" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="K61" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="K61" s="14" t="s">
-        <v>109</v>
-      </c>
       <c r="L61" s="37">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M61" s="9">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N61" s="9">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O61" s="9">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P61" s="9">
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="Q61" s="9">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R61" s="36"/>
@@ -4175,84 +4238,96 @@
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I62" s="33">
         <v>4</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L62" s="37">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M62" s="9">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N62" s="9">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O62" s="9">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P62" s="9">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="Q62" s="9">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R62" s="36"/>
     </row>
-    <row r="63" ht="28.8" spans="1:18">
+    <row r="63" ht="43.5" spans="1:18">
       <c r="A63" s="13">
         <v>45352</v>
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14">
-        <v>1</v>
-      </c>
+      <c r="E63" s="14">
+        <v>1</v>
+      </c>
+      <c r="F63" s="14"/>
       <c r="G63" s="14"/>
       <c r="H63" s="14" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="I63" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J63" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K63" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="K63" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="L63" s="37">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M63" s="9">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N63" s="9">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O63" s="9">
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="P63" s="9">
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="Q63" s="9">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R63" s="36"/>
     </row>
-    <row r="64" ht="57.6" spans="1:18">
+    <row r="64" ht="29" spans="1:18">
       <c r="A64" s="13">
-        <v>45353</v>
+        <v>45352</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -4263,54 +4338,60 @@
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I64" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J64" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K64" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="K64" s="14" t="s">
-        <v>115</v>
-      </c>
       <c r="L64" s="37">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M64" s="9">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N64" s="9">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O64" s="9">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P64" s="9">
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="Q64" s="9">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R64" s="36"/>
     </row>
-    <row r="65" ht="28.8" spans="1:18">
+    <row r="65" ht="43.5" spans="1:18">
       <c r="A65" s="13">
         <v>45353</v>
       </c>
-      <c r="B65" s="14">
-        <v>1</v>
-      </c>
+      <c r="B65" s="14"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
+      <c r="E65" s="14">
+        <v>1</v>
+      </c>
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
       <c r="H65" s="14" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I65" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J65" s="14" t="s">
         <v>116</v>
@@ -4319,294 +4400,490 @@
         <v>117</v>
       </c>
       <c r="L65" s="37">
-        <f>B65*$I65</f>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="M65" s="9">
-        <f>C65*$I65</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N65" s="9">
-        <f>D65*$I65</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O65" s="9">
-        <f>E65*$I65</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="P65" s="9">
-        <f>F65*$I65</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q65" s="9">
-        <f>G65*$I65</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R65" s="36"/>
     </row>
-    <row r="66" ht="28.8" spans="1:18">
+    <row r="66" ht="43.5" spans="1:18">
       <c r="A66" s="13">
-        <v>45354</v>
-      </c>
-      <c r="B66" s="14">
-        <v>1</v>
-      </c>
+        <v>45353</v>
+      </c>
+      <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
+      <c r="G66" s="14">
+        <v>1</v>
+      </c>
       <c r="H66" s="14" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="I66" s="33">
-        <v>4</v>
-      </c>
-      <c r="J66" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="K66" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="38" t="s">
         <v>118</v>
       </c>
+      <c r="K66" s="39" t="s">
+        <v>119</v>
+      </c>
       <c r="L66" s="37">
-        <f>B66*$I66</f>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="M66" s="9">
-        <f>C66*$I66</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N66" s="9">
-        <f>D66*$I66</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O66" s="9">
-        <f>E66*$I66</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P66" s="9">
-        <f>F66*$I66</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q66" s="9">
-        <f>G66*$I66</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="R66" s="36"/>
     </row>
-    <row r="67" customFormat="1" spans="1:18">
+    <row r="67" ht="58" spans="1:18">
       <c r="A67" s="13">
-        <v>45354</v>
-      </c>
-      <c r="B67" s="14">
-        <v>1</v>
-      </c>
+        <v>45353</v>
+      </c>
+      <c r="B67" s="14"/>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
+      <c r="F67" s="14">
+        <v>1</v>
+      </c>
       <c r="G67" s="14"/>
       <c r="H67" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I67" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L67" s="37">
-        <f>B67*$I67</f>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="M67" s="9">
-        <f>C67*$I67</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N67" s="9">
-        <f>D67*$I67</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O67" s="9">
-        <f>E67*$I67</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P67" s="9">
-        <f>F67*$I67</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="Q67" s="9">
-        <f>G67*$I67</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R67" s="36"/>
     </row>
-    <row r="68" spans="1:18">
-      <c r="A68" s="13"/>
-      <c r="B68" s="14"/>
+    <row r="68" ht="29" spans="1:18">
+      <c r="A68" s="13">
+        <v>45353</v>
+      </c>
+      <c r="B68" s="14">
+        <v>1</v>
+      </c>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
+      <c r="H68" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I68" s="33">
+        <v>4</v>
+      </c>
+      <c r="J68" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K68" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="L68" s="37">
-        <f>B68*$I68</f>
-        <v>0</v>
-      </c>
-      <c r="M68" s="46">
-        <f>C68*$I68</f>
-        <v>0</v>
-      </c>
-      <c r="N68" s="46">
-        <f>D68*$I68</f>
-        <v>0</v>
-      </c>
-      <c r="O68" s="46">
-        <f>E68*$I68</f>
-        <v>0</v>
-      </c>
-      <c r="P68" s="47">
-        <f>F68*$I68</f>
-        <v>0</v>
-      </c>
-      <c r="Q68" s="47">
-        <f>G68*$I68</f>
-        <v>0</v>
-      </c>
-      <c r="R68" s="36">
-        <f>SUM(L75:Q75)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
-      <c r="A69" s="15"/>
-      <c r="H69" s="35"/>
-      <c r="K69" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="L69" s="36">
-        <f t="shared" ref="L69:Q69" si="20">SUM(L37:L68)</f>
-        <v>32.5</v>
-      </c>
-      <c r="M69" s="36">
-        <f t="shared" si="20"/>
-        <v>8</v>
-      </c>
-      <c r="N69" s="36">
-        <f t="shared" si="20"/>
-        <v>8</v>
-      </c>
-      <c r="O69" s="36">
-        <f t="shared" si="20"/>
-        <v>34.5</v>
-      </c>
-      <c r="P69" s="36">
-        <f t="shared" si="20"/>
-        <v>32.5</v>
-      </c>
-      <c r="Q69" s="36">
-        <f t="shared" si="20"/>
-        <v>14</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="M68" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="36"/>
+    </row>
+    <row r="69" ht="29" spans="1:18">
+      <c r="A69" s="13">
+        <v>45354</v>
+      </c>
+      <c r="B69" s="14">
+        <v>1</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I69" s="33">
+        <v>4</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L69" s="37">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="M69" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="R69" s="36"/>
     </row>
-    <row r="70" spans="1:18">
-      <c r="A70" s="15"/>
-      <c r="K70" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="P70" s="36"/>
-      <c r="Q70" s="36"/>
-      <c r="R70" s="36">
-        <f>SUM(L69:Q69)</f>
-        <v>129.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
-      <c r="A71" s="15"/>
-      <c r="P71" s="36"/>
-      <c r="Q71" s="41"/>
+    <row r="70" customFormat="1" ht="58" spans="1:18">
+      <c r="A70" s="13">
+        <v>45354</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14">
+        <v>1</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I70" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="J70" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K70" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L70" s="37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="9">
+        <f t="shared" si="15"/>
+        <v>4.5</v>
+      </c>
+      <c r="R70" s="36"/>
+    </row>
+    <row r="71" customFormat="1" spans="1:18">
+      <c r="A71" s="13">
+        <v>45354</v>
+      </c>
+      <c r="B71" s="14">
+        <v>1</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I71" s="33">
+        <v>3</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K71" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L71" s="37">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="M71" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="R71" s="36"/>
     </row>
-    <row r="72" spans="1:18">
-      <c r="A72" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="L72" s="31"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="32"/>
-      <c r="Q72" s="34"/>
+    <row r="72" ht="72.5" spans="1:18">
+      <c r="A72" s="13">
+        <v>45354</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14">
+        <v>1</v>
+      </c>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I72" s="33">
+        <v>4</v>
+      </c>
+      <c r="J72" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L72" s="37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="9">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P72" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="R72" s="36"/>
     </row>
-    <row r="73" spans="1:18">
-      <c r="A73" s="42"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="49"/>
+    <row r="73" customFormat="1" ht="43.5" spans="1:18">
+      <c r="A73" s="13">
+        <v>45354</v>
+      </c>
+      <c r="B73" s="14">
+        <v>1</v>
+      </c>
+      <c r="C73" s="14">
+        <v>1</v>
+      </c>
+      <c r="D73" s="14">
+        <v>1</v>
+      </c>
+      <c r="E73" s="14">
+        <v>1</v>
+      </c>
+      <c r="F73" s="14">
+        <v>1</v>
+      </c>
+      <c r="G73" s="14">
+        <v>1</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I73" s="33">
+        <v>3</v>
+      </c>
+      <c r="J73" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="L73" s="37">
-        <f t="shared" ref="L73" si="21">B73*$I73</f>
-        <v>0</v>
-      </c>
-      <c r="M73" s="46">
-        <f t="shared" ref="M73" si="22">C73*$I73</f>
-        <v>0</v>
-      </c>
-      <c r="N73" s="46">
-        <f t="shared" ref="N73" si="23">D73*$I73</f>
-        <v>0</v>
-      </c>
-      <c r="O73" s="46">
-        <f t="shared" ref="O73" si="24">E73*$I73</f>
-        <v>0</v>
-      </c>
-      <c r="P73" s="47">
-        <f t="shared" ref="P73:Q73" si="25">F73*$I73</f>
-        <v>0</v>
-      </c>
-      <c r="Q73" s="47">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="M73" s="9">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="N73" s="9">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="O73" s="9">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="P73" s="9">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="Q73" s="9">
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="R73" s="36"/>
     </row>
-    <row r="74" spans="1:18">
-      <c r="A74" s="42"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="48"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="34"/>
-      <c r="Q74" s="34"/>
-      <c r="R74" s="36">
-        <f>SUM(L81:P81)</f>
-        <v>0</v>
-      </c>
+    <row r="74" ht="29" spans="1:18">
+      <c r="A74" s="13">
+        <v>45355</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14">
+        <v>1</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I74" s="33">
+        <v>2</v>
+      </c>
+      <c r="J74" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K74" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L74" s="37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="9">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="R74" s="36"/>
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="15"/>
@@ -4614,29 +4891,29 @@
       <c r="K75" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="L75">
-        <f>SUM(L73:L74)</f>
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <f t="shared" ref="M75" si="26">SUM(M73:M74)</f>
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <f t="shared" ref="N75" si="27">SUM(N73:N74)</f>
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <f t="shared" ref="O75" si="28">SUM(O73:O74)</f>
-        <v>0</v>
-      </c>
-      <c r="P75" s="36">
-        <f t="shared" ref="P75:Q75" si="29">SUM(P73:P74)</f>
-        <v>0</v>
-      </c>
-      <c r="Q75" s="36">
-        <f t="shared" si="29"/>
-        <v>0</v>
+      <c r="L75" s="47">
+        <f t="shared" ref="L75:Q75" si="16">SUM(L37:L74)</f>
+        <v>32.5</v>
+      </c>
+      <c r="M75" s="47">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="N75" s="47">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="O75" s="47">
+        <f t="shared" si="16"/>
+        <v>34.5</v>
+      </c>
+      <c r="P75" s="47">
+        <f t="shared" si="16"/>
+        <v>34.5</v>
+      </c>
+      <c r="Q75" s="47">
+        <f t="shared" si="16"/>
+        <v>33</v>
       </c>
       <c r="R75" s="36"/>
     </row>
@@ -4647,18 +4924,20 @@
       </c>
       <c r="P76" s="36"/>
       <c r="Q76" s="36"/>
-      <c r="R76" s="36"/>
+      <c r="R76" s="36">
+        <f>SUM(L75:Q75)</f>
+        <v>150.5</v>
+      </c>
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="15"/>
-      <c r="K77" s="35"/>
       <c r="P77" s="36"/>
-      <c r="Q77" s="41"/>
+      <c r="Q77" s="43"/>
       <c r="R77" s="36"/>
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="15" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L78" s="31"/>
       <c r="M78" s="11"/>
@@ -4669,65 +4948,65 @@
       <c r="R78" s="36"/>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="42"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
+      <c r="A79" s="44"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
       <c r="I79" s="48"/>
-      <c r="J79" s="43"/>
-      <c r="K79" s="49"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="39"/>
       <c r="L79" s="37">
-        <f t="shared" ref="L79" si="30">B79*$I79</f>
-        <v>0</v>
-      </c>
-      <c r="M79" s="46">
-        <f t="shared" ref="M79" si="31">C79*$I79</f>
-        <v>0</v>
-      </c>
-      <c r="N79" s="46">
-        <f t="shared" ref="N79" si="32">D79*$I79</f>
-        <v>0</v>
-      </c>
-      <c r="O79" s="46">
-        <f t="shared" ref="O79" si="33">E79*$I79</f>
-        <v>0</v>
-      </c>
-      <c r="P79" s="47">
-        <f t="shared" ref="P79:Q79" si="34">F79*$I79</f>
-        <v>0</v>
-      </c>
-      <c r="Q79" s="47">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="R79" s="36">
-        <f>SUM(L86:P86)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" ref="L79" si="17">B79*$I79</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="49">
+        <f t="shared" ref="M79" si="18">C79*$I79</f>
+        <v>0</v>
+      </c>
+      <c r="N79" s="49">
+        <f t="shared" ref="N79" si="19">D79*$I79</f>
+        <v>0</v>
+      </c>
+      <c r="O79" s="49">
+        <f t="shared" ref="O79" si="20">E79*$I79</f>
+        <v>0</v>
+      </c>
+      <c r="P79" s="50">
+        <f t="shared" ref="P79:Q79" si="21">F79*$I79</f>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="50">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R79" s="36"/>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" s="42"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
+      <c r="A80" s="44"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
       <c r="I80" s="48"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="49"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="39"/>
       <c r="L80" s="35"/>
       <c r="M80" s="35"/>
       <c r="N80" s="35"/>
       <c r="O80" s="35"/>
       <c r="P80" s="34"/>
       <c r="Q80" s="34"/>
-      <c r="R80" s="36"/>
+      <c r="R80" s="36">
+        <f>SUM(L87:P87)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="15"/>
@@ -4740,200 +5019,321 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <f t="shared" ref="M81" si="35">SUM(M79:M80)</f>
+        <f t="shared" ref="M81" si="22">SUM(M79:M80)</f>
         <v>0</v>
       </c>
       <c r="N81">
-        <f t="shared" ref="N81" si="36">SUM(N79:N80)</f>
+        <f t="shared" ref="N81" si="23">SUM(N79:N80)</f>
         <v>0</v>
       </c>
       <c r="O81">
-        <f t="shared" ref="O81" si="37">SUM(O79:O80)</f>
+        <f t="shared" ref="O81" si="24">SUM(O79:O80)</f>
         <v>0</v>
       </c>
       <c r="P81" s="36">
-        <f t="shared" ref="P81:Q81" si="38">SUM(P79:P80)</f>
+        <f t="shared" ref="P81:Q81" si="25">SUM(P79:P80)</f>
         <v>0</v>
       </c>
       <c r="Q81" s="36">
-        <f t="shared" si="38"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R81" s="36"/>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="15"/>
-      <c r="K82" t="s">
-        <v>122</v>
+      <c r="K82" s="35" t="s">
+        <v>63</v>
       </c>
       <c r="P82" s="36"/>
-      <c r="Q82" s="41"/>
-      <c r="R82" s="41">
-        <f>SUM(L89:Q89)</f>
-        <v>222</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
-      <c r="A83" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="L83" s="31"/>
-      <c r="M83" s="11"/>
-      <c r="N83" s="11"/>
-      <c r="O83" s="11"/>
-      <c r="P83" s="32"/>
-      <c r="Q83" s="34"/>
-    </row>
-    <row r="84" spans="1:17">
-      <c r="A84" s="42"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="43"/>
-      <c r="K84" s="49"/>
-      <c r="L84" s="37">
-        <f t="shared" ref="L84" si="39">B84*$I84</f>
-        <v>0</v>
-      </c>
-      <c r="M84" s="46">
-        <f t="shared" ref="M84" si="40">C84*$I84</f>
-        <v>0</v>
-      </c>
-      <c r="N84" s="46">
-        <f t="shared" ref="N84" si="41">D84*$I84</f>
-        <v>0</v>
-      </c>
-      <c r="O84" s="46">
-        <f t="shared" ref="O84" si="42">E84*$I84</f>
-        <v>0</v>
-      </c>
-      <c r="P84" s="47">
-        <f t="shared" ref="P84:Q84" si="43">F84*$I84</f>
-        <v>0</v>
-      </c>
-      <c r="Q84" s="47">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
-      <c r="A85" s="42"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="36"/>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" s="15"/>
+      <c r="K83" s="35"/>
+      <c r="P83" s="36"/>
+      <c r="Q83" s="43"/>
+      <c r="R83" s="36"/>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L84" s="31"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="32"/>
+      <c r="Q84" s="34"/>
+      <c r="R84" s="36"/>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" s="44"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
       <c r="I85" s="48"/>
-      <c r="J85" s="43"/>
-      <c r="K85" s="49"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="35"/>
-      <c r="O85" s="35"/>
-      <c r="P85" s="34"/>
-      <c r="Q85" s="34"/>
-    </row>
-    <row r="86" spans="1:17">
-      <c r="A86" s="15"/>
-      <c r="H86" s="35"/>
-      <c r="K86" s="34" t="s">
+      <c r="J85" s="38"/>
+      <c r="K85" s="39"/>
+      <c r="L85" s="37">
+        <f t="shared" ref="L85" si="26">B85*$I85</f>
+        <v>0</v>
+      </c>
+      <c r="M85" s="49">
+        <f t="shared" ref="M85" si="27">C85*$I85</f>
+        <v>0</v>
+      </c>
+      <c r="N85" s="49">
+        <f t="shared" ref="N85" si="28">D85*$I85</f>
+        <v>0</v>
+      </c>
+      <c r="O85" s="49">
+        <f t="shared" ref="O85" si="29">E85*$I85</f>
+        <v>0</v>
+      </c>
+      <c r="P85" s="50">
+        <f t="shared" ref="P85:Q85" si="30">F85*$I85</f>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="50">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="R85" s="36">
+        <f>SUM(L92:P92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" s="44"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="34"/>
+      <c r="Q86" s="34"/>
+      <c r="R86" s="36"/>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" s="15"/>
+      <c r="H87" s="35"/>
+      <c r="K87" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="L86">
-        <f>SUM(L84:L85)</f>
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <f t="shared" ref="M86" si="44">SUM(M84:M85)</f>
-        <v>0</v>
-      </c>
-      <c r="N86">
-        <f t="shared" ref="N86" si="45">SUM(N84:N85)</f>
-        <v>0</v>
-      </c>
-      <c r="O86">
-        <f t="shared" ref="O86" si="46">SUM(O84:O85)</f>
-        <v>0</v>
-      </c>
-      <c r="P86" s="36">
-        <f t="shared" ref="P86:Q86" si="47">SUM(P84:P85)</f>
-        <v>0</v>
-      </c>
-      <c r="Q86" s="36">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
-      <c r="A87" s="15"/>
-      <c r="K87" t="s">
-        <v>124</v>
-      </c>
-      <c r="P87" s="36"/>
-      <c r="Q87" s="36"/>
-    </row>
-    <row r="88" spans="1:17">
+      <c r="L87">
+        <f>SUM(L85:L86)</f>
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <f t="shared" ref="M87" si="31">SUM(M85:M86)</f>
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <f t="shared" ref="N87" si="32">SUM(N85:N86)</f>
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <f t="shared" ref="O87" si="33">SUM(O85:O86)</f>
+        <v>0</v>
+      </c>
+      <c r="P87" s="36">
+        <f t="shared" ref="P87:Q87" si="34">SUM(P85:P86)</f>
+        <v>0</v>
+      </c>
+      <c r="Q87" s="36">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="R87" s="36"/>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="15"/>
+      <c r="K88" t="s">
+        <v>135</v>
+      </c>
       <c r="P88" s="36"/>
-      <c r="Q88" s="36"/>
+      <c r="Q88" s="43"/>
+      <c r="R88" s="43">
+        <f>SUM(L95:Q95)</f>
+        <v>243</v>
+      </c>
     </row>
     <row r="89" spans="1:17">
-      <c r="A89" s="15"/>
-      <c r="K89" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="L89">
-        <f>L34+L69+L75+L81+L86</f>
-        <v>46.5</v>
-      </c>
-      <c r="M89">
-        <f t="shared" ref="M89:Q89" si="48">M34+M69+M75+M81+M86</f>
-        <v>24.5</v>
-      </c>
-      <c r="N89">
-        <f t="shared" si="48"/>
-        <v>24.5</v>
-      </c>
-      <c r="O89">
-        <f t="shared" si="48"/>
-        <v>48.5</v>
-      </c>
-      <c r="P89" s="36">
-        <f t="shared" si="48"/>
-        <v>49</v>
-      </c>
-      <c r="Q89" s="36">
-        <f t="shared" si="48"/>
-        <v>29</v>
-      </c>
+      <c r="A89" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L89" s="31"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="32"/>
+      <c r="Q89" s="34"/>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="44"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="45"/>
-      <c r="H90" s="45"/>
-      <c r="I90" s="45"/>
-      <c r="J90" s="45"/>
-      <c r="K90" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="L90" s="45"/>
-      <c r="M90" s="45"/>
-      <c r="N90" s="45"/>
-      <c r="O90" s="45"/>
-      <c r="P90" s="41"/>
-      <c r="Q90" s="41"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="48"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="37">
+        <f t="shared" ref="L90" si="35">B90*$I90</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="49">
+        <f t="shared" ref="M90" si="36">C90*$I90</f>
+        <v>0</v>
+      </c>
+      <c r="N90" s="49">
+        <f t="shared" ref="N90" si="37">D90*$I90</f>
+        <v>0</v>
+      </c>
+      <c r="O90" s="49">
+        <f t="shared" ref="O90" si="38">E90*$I90</f>
+        <v>0</v>
+      </c>
+      <c r="P90" s="50">
+        <f t="shared" ref="P90:Q90" si="39">F90*$I90</f>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="50">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="44"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="48"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="34"/>
+      <c r="Q91" s="34"/>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="15"/>
+      <c r="H92" s="35"/>
+      <c r="K92" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="L92">
+        <f>SUM(L90:L91)</f>
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <f t="shared" ref="M92" si="40">SUM(M90:M91)</f>
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <f t="shared" ref="N92" si="41">SUM(N90:N91)</f>
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <f t="shared" ref="O92" si="42">SUM(O90:O91)</f>
+        <v>0</v>
+      </c>
+      <c r="P92" s="36">
+        <f t="shared" ref="P92:Q92" si="43">SUM(P90:P91)</f>
+        <v>0</v>
+      </c>
+      <c r="Q92" s="36">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="15"/>
+      <c r="K93" t="s">
+        <v>137</v>
+      </c>
+      <c r="P93" s="36"/>
+      <c r="Q93" s="36"/>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="15"/>
+      <c r="P94" s="36"/>
+      <c r="Q94" s="36"/>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="15"/>
+      <c r="K95" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="L95">
+        <f>L34+L75+L81+L87+L92</f>
+        <v>46.5</v>
+      </c>
+      <c r="M95">
+        <f t="shared" ref="M95:Q95" si="44">M34+M75+M81+M87+M92</f>
+        <v>24.5</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="44"/>
+        <v>24.5</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="44"/>
+        <v>48.5</v>
+      </c>
+      <c r="P95" s="36">
+        <f t="shared" si="44"/>
+        <v>51</v>
+      </c>
+      <c r="Q95" s="36">
+        <f t="shared" si="44"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="45"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="46"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="46"/>
+      <c r="K96" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="L96" s="46"/>
+      <c r="M96" s="46"/>
+      <c r="N96" s="46"/>
+      <c r="O96" s="46"/>
+      <c r="P96" s="43"/>
+      <c r="Q96" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/blog Milestone 2.xlsx
+++ b/blog Milestone 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Library-Management-System-COEN-6312\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\github\Library-Management-System-COEN-6312\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC47F498-6032-48FD-BE4B-826806A42005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2260AC4F-2989-48CF-9B67-F8C6C7A776E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="175">
   <si>
     <t>Team Members</t>
   </si>
@@ -458,9 +458,6 @@
     <t>Coding for classes</t>
   </si>
   <si>
-    <t>Coding for functionality</t>
-  </si>
-  <si>
     <t>View news functionality</t>
   </si>
   <si>
@@ -492,6 +489,75 @@
   </si>
   <si>
     <t>Reviewing peers code and updating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UML class diagram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on completing UML class diagram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designed the classes in papyrus for the project for all assets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designed the classes in papyrus for the project for all users classes </t>
+  </si>
+  <si>
+    <t>Beginning the skeleton code for Non academic users in git</t>
+  </si>
+  <si>
+    <t>completed the raw template for Non academic user</t>
+  </si>
+  <si>
+    <t>Adding the paid users options for all paid user functionalities</t>
+  </si>
+  <si>
+    <t>Completed and comitted it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding </t>
+  </si>
+  <si>
+    <t>added association class for non academic user</t>
+  </si>
+  <si>
+    <t>Coding for free users and adjusting class member function in userlogin.java`</t>
+  </si>
+  <si>
+    <t>Completed the code for the free users</t>
+  </si>
+  <si>
+    <t>Code and Debug</t>
+  </si>
+  <si>
+    <t>Code review and debug changes for the membershipmanager class</t>
+  </si>
+  <si>
+    <t>Completed the code for the purpose mentioned besides</t>
+  </si>
+  <si>
+    <t>worked on implementing buy,cancel and renew membership with Haspmaps and displaying the memerbship details</t>
+  </si>
+  <si>
+    <t>Worked on completing the code and committed the final version</t>
+  </si>
+  <si>
+    <t>working on Debugging for newsletter functionality with several testcases</t>
+  </si>
+  <si>
+    <t>Coding for newsletter functionality for users classes</t>
+  </si>
+  <si>
+    <t>coding for membership class, and repository for membership class</t>
+  </si>
+  <si>
+    <t>report work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">object diagram </t>
+  </si>
+  <si>
+    <t>submitted and committed object diagram for report work</t>
   </si>
 </sst>
 </file>
@@ -1262,29 +1328,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:S102"/>
+  <dimension ref="A3:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="74" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S40" sqref="S40"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="74" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N80" sqref="N80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="6" max="6" width="3.88671875" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" customWidth="1"/>
-    <col min="19" max="19" width="35.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" customWidth="1"/>
+    <col min="19" max="19" width="35.6640625" customWidth="1"/>
     <col min="23" max="23" width="11" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" customWidth="1"/>
-    <col min="25" max="25" width="9.85546875" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" customWidth="1"/>
+    <col min="25" max="25" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:19" ht="16.5" customHeight="1">
@@ -1305,7 +1371,7 @@
       <c r="K4" s="52"/>
       <c r="S4" s="43"/>
     </row>
-    <row r="5" spans="1:19" ht="30">
+    <row r="5" spans="1:19" ht="28.8">
       <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1440,7 +1506,7 @@
       <c r="Q15" s="32"/>
       <c r="R15" s="33"/>
     </row>
-    <row r="16" spans="1:19" ht="30">
+    <row r="16" spans="1:19" ht="28.8">
       <c r="A16" s="48"/>
       <c r="B16" s="6" t="str">
         <f>$J$6</f>
@@ -1866,7 +1932,7 @@
       </c>
       <c r="R24" s="28"/>
     </row>
-    <row r="25" spans="1:18" ht="60">
+    <row r="25" spans="1:18" ht="43.2">
       <c r="A25" s="10">
         <v>45326</v>
       </c>
@@ -1926,7 +1992,7 @@
       </c>
       <c r="R25" s="28"/>
     </row>
-    <row r="26" spans="1:18" ht="90">
+    <row r="26" spans="1:18" ht="86.4">
       <c r="A26" s="10">
         <v>45330</v>
       </c>
@@ -2022,7 +2088,7 @@
       </c>
       <c r="R27" s="28"/>
     </row>
-    <row r="28" spans="1:18" ht="30">
+    <row r="28" spans="1:18" ht="28.8">
       <c r="A28" s="10">
         <v>45333</v>
       </c>
@@ -2082,7 +2148,7 @@
       </c>
       <c r="R28" s="28"/>
     </row>
-    <row r="29" spans="1:18" ht="75">
+    <row r="29" spans="1:18" ht="57.6">
       <c r="A29" s="10">
         <v>45335</v>
       </c>
@@ -2142,7 +2208,7 @@
       </c>
       <c r="R29" s="28"/>
     </row>
-    <row r="30" spans="1:18" ht="45">
+    <row r="30" spans="1:18" ht="28.8">
       <c r="A30" s="10">
         <v>45338</v>
       </c>
@@ -2192,7 +2258,7 @@
       </c>
       <c r="R30" s="28"/>
     </row>
-    <row r="31" spans="1:18" ht="45">
+    <row r="31" spans="1:18" ht="43.2">
       <c r="A31" s="10">
         <v>45340</v>
       </c>
@@ -2242,7 +2308,7 @@
       </c>
       <c r="R31" s="28"/>
     </row>
-    <row r="32" spans="1:18" ht="45">
+    <row r="32" spans="1:18" ht="43.2">
       <c r="A32" s="10">
         <v>45340</v>
       </c>
@@ -2440,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="6">
-        <f t="shared" ref="M37:Q37" si="9">C37*$I37</f>
+        <f t="shared" ref="M37:Q38" si="9">C37*$I37</f>
         <v>0</v>
       </c>
       <c r="N37" s="6">
@@ -2467,53 +2533,51 @@
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="D38" s="11">
+        <v>1</v>
+      </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="11">
-        <v>1</v>
-      </c>
+      <c r="G38" s="11"/>
       <c r="H38" s="11" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="I38" s="25">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="L38" s="29">
-        <f t="shared" ref="L38:L80" si="10">B38*$I38</f>
+        <f t="shared" ref="L38" si="10">B38*$I38</f>
         <v>0</v>
       </c>
       <c r="M38" s="6">
-        <f t="shared" ref="M38:M80" si="11">C38*$I38</f>
+        <f t="shared" ref="M38" si="11">C38*$I38</f>
         <v>0</v>
       </c>
       <c r="N38" s="6">
-        <f t="shared" ref="N38:N80" si="12">D38*$I38</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="6">
-        <f t="shared" ref="O38:O80" si="13">E38*$I38</f>
+        <v>3</v>
+      </c>
+      <c r="O38" s="29">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P38" s="6">
-        <f t="shared" ref="P38:P80" si="14">F38*$I38</f>
+        <f t="shared" ref="P38" si="12">F38*$I38</f>
         <v>0</v>
       </c>
       <c r="Q38" s="6">
-        <f t="shared" ref="Q38:Q80" si="15">G38*$I38</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="R38" s="28"/>
     </row>
-    <row r="39" spans="1:18" ht="45">
+    <row r="39" spans="1:18" ht="51" customHeight="1">
       <c r="A39" s="10">
-        <v>45343</v>
+        <v>45342</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2527,137 +2591,137 @@
         <v>65</v>
       </c>
       <c r="I39" s="25">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L39" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="L39:L89" si="13">B39*$I39</f>
         <v>0</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="M39:M89" si="14">C39*$I39</f>
         <v>0</v>
       </c>
       <c r="N39" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="N39:N89" si="15">D39*$I39</f>
         <v>0</v>
       </c>
       <c r="O39" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="O39:O89" si="16">E39*$I39</f>
         <v>0</v>
       </c>
       <c r="P39" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="P39:P89" si="17">F39*$I39</f>
         <v>0</v>
       </c>
       <c r="Q39" s="6">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" ref="Q39:Q89" si="18">G39*$I39</f>
+        <v>3.5</v>
       </c>
       <c r="R39" s="28"/>
     </row>
-    <row r="40" spans="1:18" ht="30">
+    <row r="40" spans="1:18" ht="51" customHeight="1">
       <c r="A40" s="10">
         <v>45343</v>
       </c>
       <c r="B40" s="11"/>
-      <c r="C40" s="11">
-        <v>1</v>
-      </c>
-      <c r="D40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11">
+        <v>1</v>
+      </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I40" s="25">
         <v>3</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L40" s="29">
         <v>0</v>
       </c>
-      <c r="M40" s="6">
-        <v>3</v>
-      </c>
-      <c r="N40" s="6">
-        <v>0</v>
-      </c>
-      <c r="O40" s="6">
-        <v>0</v>
-      </c>
-      <c r="P40" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="6">
+      <c r="M40" s="29">
+        <v>0</v>
+      </c>
+      <c r="N40" s="29">
+        <v>3</v>
+      </c>
+      <c r="O40" s="29">
+        <v>0</v>
+      </c>
+      <c r="P40" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="29">
         <v>0</v>
       </c>
       <c r="R40" s="28"/>
     </row>
-    <row r="41" spans="1:18" ht="30">
+    <row r="41" spans="1:18" ht="28.8">
       <c r="A41" s="10">
-        <v>45344</v>
+        <v>45343</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
-      <c r="E41" s="11">
-        <v>1</v>
-      </c>
+      <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="G41" s="11">
+        <v>1</v>
+      </c>
       <c r="H41" s="11" t="s">
         <v>65</v>
       </c>
       <c r="I41" s="25">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L41" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M41" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N41" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O41" s="6">
-        <f t="shared" si="13"/>
-        <v>3.5</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="P41" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q41" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="R41" s="28"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" ht="28.8">
       <c r="A42" s="10">
-        <v>45344</v>
+        <v>45343</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11">
@@ -2668,49 +2732,47 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="I42" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L42" s="29">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M42" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N42" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="6">
+        <v>0</v>
+      </c>
       <c r="P42" s="6">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q42" s="6">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R42" s="28"/>
     </row>
-    <row r="43" spans="1:18" ht="45">
+    <row r="43" spans="1:18" ht="28.8">
       <c r="A43" s="10">
         <v>45344</v>
       </c>
-      <c r="B43" s="11">
-        <v>1</v>
-      </c>
+      <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
+      <c r="E43" s="11">
+        <v>1</v>
+      </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11" t="s">
@@ -2720,45 +2782,45 @@
         <v>3.5</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L43" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="6">
+        <f t="shared" si="16"/>
         <v>3.5</v>
       </c>
-      <c r="M43" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="P43" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q43" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R43" s="28"/>
     </row>
-    <row r="44" spans="1:18" ht="30">
+    <row r="44" spans="1:18">
       <c r="A44" s="10">
-        <v>45345</v>
-      </c>
-      <c r="B44" s="11">
-        <v>1</v>
-      </c>
-      <c r="C44" s="11"/>
+        <v>45344</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11">
+        <v>1</v>
+      </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
@@ -2767,451 +2829,447 @@
         <v>65</v>
       </c>
       <c r="I44" s="25">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="L44" s="29">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="M44" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N44" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="6"/>
       <c r="P44" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q44" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R44" s="28"/>
     </row>
-    <row r="45" spans="1:18" ht="30">
+    <row r="45" spans="1:18" ht="43.2">
       <c r="A45" s="10">
-        <v>45345</v>
-      </c>
-      <c r="B45" s="11"/>
+        <v>45344</v>
+      </c>
+      <c r="B45" s="11">
+        <v>1</v>
+      </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
-      <c r="E45" s="11">
-        <v>1</v>
-      </c>
+      <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11" t="s">
         <v>65</v>
       </c>
       <c r="I45" s="25">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L45" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>3.5</v>
       </c>
       <c r="M45" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N45" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O45" s="6">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="P45" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q45" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R45" s="28"/>
     </row>
-    <row r="46" spans="1:18" ht="30">
+    <row r="46" spans="1:18" ht="28.8">
       <c r="A46" s="10">
-        <v>45346</v>
-      </c>
-      <c r="B46" s="11"/>
+        <v>45345</v>
+      </c>
+      <c r="B46" s="11">
+        <v>1</v>
+      </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
-      <c r="E46" s="11">
-        <v>1</v>
-      </c>
+      <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11" t="s">
         <v>65</v>
       </c>
       <c r="I46" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L46" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="M46" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N46" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O46" s="6">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="P46" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q46" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R46" s="28"/>
     </row>
-    <row r="47" spans="1:18" ht="45">
+    <row r="47" spans="1:18" ht="28.8">
       <c r="A47" s="10">
-        <v>45346</v>
-      </c>
-      <c r="B47" s="11">
-        <v>1</v>
-      </c>
+        <v>45345</v>
+      </c>
+      <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
+      <c r="E47" s="11">
+        <v>1</v>
+      </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11" t="s">
         <v>65</v>
       </c>
       <c r="I47" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L47" s="29">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="M47" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N47" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O47" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="P47" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q47" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R47" s="28"/>
     </row>
-    <row r="48" spans="1:18" ht="105">
+    <row r="48" spans="1:18" ht="28.8">
       <c r="A48" s="10">
         <v>45346</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11">
-        <v>1</v>
-      </c>
+      <c r="E48" s="11">
+        <v>1</v>
+      </c>
+      <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="I48" s="25">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L48" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M48" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N48" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O48" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="P48" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="28"/>
+    </row>
+    <row r="49" spans="1:18" ht="43.2">
+      <c r="A49" s="10">
+        <v>45346</v>
+      </c>
+      <c r="B49" s="11">
+        <v>1</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I49" s="25">
+        <v>2</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L49" s="29">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="6">
+        <v>2</v>
+      </c>
+      <c r="M49" s="6">
         <f t="shared" si="14"/>
-        <v>3.5</v>
-      </c>
-      <c r="Q48" s="6">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R48" s="28"/>
-    </row>
-    <row r="49" spans="1:18" ht="45">
-      <c r="A49" s="10">
-        <v>45347</v>
-      </c>
-      <c r="B49" s="11">
-        <v>1</v>
-      </c>
-      <c r="C49" s="11">
-        <v>1</v>
-      </c>
-      <c r="D49" s="11">
-        <v>1</v>
-      </c>
-      <c r="E49" s="11">
-        <v>1</v>
-      </c>
-      <c r="F49" s="11">
-        <v>1</v>
-      </c>
-      <c r="G49" s="11">
-        <v>1</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I49" s="25">
-        <v>3</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="L49" s="29">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="M49" s="6">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="N49" s="6">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
       <c r="O49" s="6">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="P49" s="6">
-        <f t="shared" si="14"/>
-        <v>3</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="Q49" s="6">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="R49" s="28"/>
     </row>
-    <row r="50" spans="1:18" ht="45">
+    <row r="50" spans="1:18" ht="100.8">
       <c r="A50" s="10">
-        <v>45347</v>
+        <v>45346</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11">
-        <v>1</v>
-      </c>
+      <c r="F50" s="11">
+        <v>1</v>
+      </c>
+      <c r="G50" s="11"/>
       <c r="H50" s="11" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="I50" s="25">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L50" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M50" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N50" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O50" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>3.5</v>
       </c>
       <c r="Q50" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="R50" s="28"/>
     </row>
-    <row r="51" spans="1:18" ht="30">
+    <row r="51" spans="1:18" ht="28.8">
       <c r="A51" s="10">
         <v>45347</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
+      <c r="B51" s="11">
+        <v>1</v>
+      </c>
+      <c r="C51" s="11">
+        <v>1</v>
+      </c>
+      <c r="D51" s="11">
+        <v>1</v>
+      </c>
+      <c r="E51" s="11">
+        <v>1</v>
+      </c>
       <c r="F51" s="11">
         <v>1</v>
       </c>
-      <c r="G51" s="11"/>
+      <c r="G51" s="11">
+        <v>1</v>
+      </c>
       <c r="H51" s="11" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="I51" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L51" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="M51" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="N51" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="O51" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="P51" s="6">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f t="shared" si="17"/>
+        <v>3</v>
       </c>
       <c r="Q51" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="R51" s="28"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" ht="28.8">
       <c r="A52" s="10">
         <v>45347</v>
       </c>
-      <c r="B52" s="11">
-        <v>1</v>
-      </c>
+      <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+      <c r="G52" s="11">
+        <v>1</v>
+      </c>
       <c r="H52" s="11" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="I52" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L52" s="29">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="M52" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N52" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O52" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q52" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="R52" s="28"/>
     </row>
-    <row r="53" spans="1:18" ht="90">
+    <row r="53" spans="1:18" ht="28.8">
       <c r="A53" s="10">
         <v>45347</v>
       </c>
@@ -3227,543 +3285,531 @@
         <v>65</v>
       </c>
       <c r="I53" s="25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L53" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M53" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N53" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O53" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P53" s="6">
-        <f t="shared" si="14"/>
-        <v>3</v>
+        <f t="shared" si="17"/>
+        <v>4</v>
       </c>
       <c r="Q53" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R53" s="28"/>
     </row>
-    <row r="54" spans="1:18" ht="120">
+    <row r="54" spans="1:18">
       <c r="A54" s="10">
-        <v>45348</v>
-      </c>
-      <c r="B54" s="11"/>
+        <v>45347</v>
+      </c>
+      <c r="B54" s="11">
+        <v>1</v>
+      </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="11">
-        <v>1</v>
-      </c>
+      <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I54" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L54" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="6">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="Q54" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R54" s="28"/>
-    </row>
-    <row r="55" spans="1:18" ht="30">
-      <c r="A55" s="10">
-        <v>45349</v>
-      </c>
-      <c r="B55" s="11">
-        <v>1</v>
-      </c>
-      <c r="C55" s="11">
-        <v>1</v>
-      </c>
-      <c r="D55" s="11">
-        <v>1</v>
-      </c>
-      <c r="E55" s="11">
-        <v>1</v>
-      </c>
-      <c r="F55" s="11">
-        <v>1</v>
-      </c>
-      <c r="G55" s="11">
-        <v>1</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I55" s="25">
-        <v>2</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K55" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="L55" s="29">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="M55" s="6">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="N55" s="6">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="O55" s="6">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
+      <c r="M54" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="28"/>
+    </row>
+    <row r="55" spans="1:18" ht="86.4">
+      <c r="A55" s="10">
+        <v>45347</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11">
+        <v>1</v>
+      </c>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I55" s="25">
+        <v>3</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L55" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="P55" s="6">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="17"/>
+        <v>3</v>
       </c>
       <c r="Q55" s="6">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="R55" s="28"/>
     </row>
-    <row r="56" spans="1:18" ht="30">
+    <row r="56" spans="1:18" ht="43.2">
       <c r="A56" s="10">
-        <v>45349</v>
+        <v>45347</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="D56" s="11">
+        <v>1</v>
+      </c>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="11">
-        <v>1</v>
-      </c>
+      <c r="G56" s="11"/>
       <c r="H56" s="11" t="s">
         <v>65</v>
       </c>
       <c r="I56" s="25">
-        <v>3</v>
-      </c>
-      <c r="J56" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="K56" s="31" t="s">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="L56" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M56" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N56" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O56" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="6"/>
       <c r="Q56" s="6">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="R56" s="28"/>
     </row>
-    <row r="57" spans="1:18" ht="45">
+    <row r="57" spans="1:18" ht="100.8">
       <c r="A57" s="10">
-        <v>45350</v>
+        <v>45348</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="11">
-        <v>1</v>
-      </c>
-      <c r="F57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11">
+        <v>1</v>
+      </c>
       <c r="G57" s="11"/>
       <c r="H57" s="11" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="I57" s="25">
         <v>4</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L57" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M57" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N57" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O57" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="6">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="Q57" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="28"/>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="10">
+        <v>45349</v>
+      </c>
+      <c r="B58" s="11">
+        <v>1</v>
+      </c>
+      <c r="C58" s="11">
+        <v>1</v>
+      </c>
+      <c r="D58" s="11">
+        <v>1</v>
+      </c>
+      <c r="E58" s="11">
+        <v>1</v>
+      </c>
+      <c r="F58" s="11">
+        <v>1</v>
+      </c>
+      <c r="G58" s="11">
+        <v>1</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I58" s="25">
+        <v>2</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L58" s="29">
         <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="P57" s="6">
+        <v>2</v>
+      </c>
+      <c r="M58" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="6">
+        <v>2</v>
+      </c>
+      <c r="N58" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R57" s="28"/>
-    </row>
-    <row r="58" spans="1:18" ht="30">
-      <c r="A58" s="10">
-        <v>45350</v>
-      </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11">
-        <v>1</v>
-      </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I58" s="25">
-        <v>4</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="L58" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="6">
-        <v>4</v>
-      </c>
-      <c r="N58" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="O58" s="6">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
       <c r="P58" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="Q58" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="R58" s="28"/>
+    </row>
+    <row r="59" spans="1:18" ht="43.2">
       <c r="A59" s="10">
-        <v>45350</v>
-      </c>
-      <c r="B59" s="11">
-        <v>1</v>
-      </c>
+        <v>45349</v>
+      </c>
+      <c r="B59" s="11"/>
       <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
+      <c r="D59" s="11">
+        <v>1</v>
+      </c>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="I59" s="25">
-        <v>1</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K59" s="11" t="s">
-        <v>92</v>
+        <v>3.5</v>
+      </c>
+      <c r="J59" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="K59" s="31" t="s">
+        <v>159</v>
       </c>
       <c r="L59" s="29">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" s="6">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N59" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>3.5</v>
       </c>
       <c r="O59" s="6">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q59" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="60">
+        <v>0</v>
+      </c>
+      <c r="R59" s="28"/>
+    </row>
+    <row r="60" spans="1:18" ht="28.8">
       <c r="A60" s="10">
-        <v>45351</v>
+        <v>45349</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
-      <c r="E60" s="11">
-        <v>1</v>
-      </c>
+      <c r="E60" s="11"/>
       <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
+      <c r="G60" s="11">
+        <v>1</v>
+      </c>
       <c r="H60" s="11" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="I60" s="25">
-        <v>6</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>105</v>
+        <v>3</v>
+      </c>
+      <c r="J60" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="K60" s="31" t="s">
+        <v>100</v>
       </c>
       <c r="L60" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M60" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N60" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O60" s="6">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="P60" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q60" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="R60" s="28"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" ht="43.2">
       <c r="A61" s="10">
-        <v>45351</v>
+        <v>45350</v>
       </c>
       <c r="B61" s="11"/>
-      <c r="C61" s="11">
-        <v>1</v>
-      </c>
+      <c r="C61" s="11"/>
       <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
+      <c r="E61" s="11">
+        <v>1</v>
+      </c>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11" t="s">
         <v>65</v>
       </c>
       <c r="I61" s="25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="L61" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M61" s="6">
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="N61" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="6"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="6">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
       <c r="P61" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q61" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R61" s="28"/>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" ht="43.2">
       <c r="A62" s="10">
-        <v>45351</v>
-      </c>
-      <c r="B62" s="11">
-        <v>1</v>
-      </c>
-      <c r="C62" s="11"/>
+        <v>45350</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11">
+        <v>1</v>
+      </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="I62" s="25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="L62" s="29">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="M62" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N62" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O62" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="6"/>
       <c r="P62" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q62" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R62" s="28"/>
-    </row>
-    <row r="63" spans="1:18" ht="30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="43.2">
       <c r="A63" s="10">
-        <v>45351</v>
+        <v>45350</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="D63" s="11">
+        <v>1</v>
+      </c>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="11">
-        <v>1</v>
-      </c>
+      <c r="G63" s="11"/>
       <c r="H63" s="11" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="I63" s="25">
-        <v>3.5</v>
-      </c>
-      <c r="J63" s="30" t="s">
-        <v>99</v>
+        <v>3</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="L63" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M63" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="6"/>
       <c r="N63" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O63" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O63" s="6"/>
       <c r="P63" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q63" s="6">
-        <f t="shared" si="15"/>
-        <v>3.5</v>
-      </c>
-      <c r="R63" s="28"/>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="10">
-        <v>45352</v>
+        <v>45350</v>
       </c>
       <c r="B64" s="11">
         <v>1</v>
@@ -3786,134 +3832,128 @@
         <v>92</v>
       </c>
       <c r="L64" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M64" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N64" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O64" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q64" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R64" s="28"/>
-    </row>
-    <row r="65" spans="1:18" ht="30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="57.6">
       <c r="A65" s="10">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
+      <c r="D65" s="11">
+        <v>1</v>
+      </c>
       <c r="E65" s="11"/>
-      <c r="F65" s="11">
-        <v>1</v>
-      </c>
+      <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="I65" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="L65" s="29">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M65" s="6">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N65" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O65" s="6">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="Q65" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R65" s="28"/>
-    </row>
-    <row r="66" spans="1:18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="57.6">
       <c r="A66" s="10">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11">
-        <v>1</v>
-      </c>
+      <c r="E66" s="11">
+        <v>1</v>
+      </c>
+      <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I66" s="25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L66" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M66" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N66" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O66" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>6</v>
       </c>
       <c r="P66" s="6">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="Q66" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R66" s="28"/>
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="10">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11">
@@ -3924,288 +3964,290 @@
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="I67" s="25">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L67" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M67" s="6">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N67" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="6"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="Q67" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R67" s="28"/>
     </row>
-    <row r="68" spans="1:18" ht="60">
+    <row r="68" spans="1:18">
       <c r="A68" s="10">
-        <v>45352</v>
-      </c>
-      <c r="B68" s="11"/>
+        <v>45351</v>
+      </c>
+      <c r="B68" s="11">
+        <v>1</v>
+      </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
-      <c r="E68" s="11">
-        <v>1</v>
-      </c>
+      <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I68" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="L68" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="M68" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N68" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O68" s="6">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="P68" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q68" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R68" s="28"/>
     </row>
-    <row r="69" spans="1:18" ht="45">
+    <row r="69" spans="1:18" ht="28.8">
       <c r="A69" s="10">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
-      <c r="F69" s="11">
-        <v>1</v>
-      </c>
-      <c r="G69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11">
+        <v>1</v>
+      </c>
       <c r="H69" s="11" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="I69" s="25">
-        <v>2</v>
-      </c>
-      <c r="J69" s="11" t="s">
-        <v>113</v>
+        <v>3.5</v>
+      </c>
+      <c r="J69" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L69" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M69" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N69" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O69" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P69" s="6">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="Q69" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>3.5</v>
       </c>
       <c r="R69" s="28"/>
     </row>
-    <row r="70" spans="1:18" ht="45">
+    <row r="70" spans="1:18">
       <c r="A70" s="10">
-        <v>45353</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11">
-        <v>1</v>
-      </c>
+        <v>45352</v>
+      </c>
+      <c r="B70" s="11">
+        <v>1</v>
+      </c>
+      <c r="C70" s="11"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="I70" s="25">
         <v>1</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="L70" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="M70" s="6">
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="N70" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O70" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P70" s="6"/>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="Q70" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R70" s="28"/>
     </row>
-    <row r="71" spans="1:18" ht="45">
+    <row r="71" spans="1:18" ht="72">
       <c r="A71" s="10">
-        <v>45353</v>
+        <v>45352</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11">
-        <v>1</v>
-      </c>
+      <c r="D71" s="11">
+        <v>1</v>
+      </c>
+      <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="I71" s="25">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="L71" s="29">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M71" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N71" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O71" s="6">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="P71" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q71" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R71" s="28"/>
     </row>
-    <row r="72" spans="1:18" ht="45">
+    <row r="72" spans="1:18" ht="28.8">
       <c r="A72" s="10">
-        <v>45353</v>
+        <v>45352</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11">
-        <v>1</v>
-      </c>
+      <c r="F72" s="11">
+        <v>1</v>
+      </c>
+      <c r="G72" s="11"/>
       <c r="H72" s="11" t="s">
         <v>65</v>
       </c>
       <c r="I72" s="25">
-        <v>3</v>
-      </c>
-      <c r="J72" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="K72" s="31" t="s">
-        <v>119</v>
+        <v>2</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="L72" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M72" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N72" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O72" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P72" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="Q72" s="6">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="R72" s="28"/>
     </row>
-    <row r="73" spans="1:18" ht="60">
+    <row r="73" spans="1:18">
       <c r="A73" s="10">
-        <v>45353</v>
+        <v>45352</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -4222,350 +4264,328 @@
         <v>4</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="L73" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M73" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N73" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O73" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P73" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="Q73" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R73" s="28"/>
     </row>
-    <row r="74" spans="1:18" ht="30">
+    <row r="74" spans="1:18" ht="57.6">
       <c r="A74" s="10">
-        <v>45353</v>
-      </c>
-      <c r="B74" s="11">
-        <v>1</v>
-      </c>
-      <c r="C74" s="11"/>
+        <v>45352</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11">
+        <v>1</v>
+      </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I74" s="25">
         <v>4</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="L74" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="6">
         <v>4</v>
       </c>
-      <c r="M74" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="N74" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O74" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="6"/>
       <c r="Q74" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R74" s="28"/>
     </row>
-    <row r="75" spans="1:18" ht="30">
+    <row r="75" spans="1:18" ht="43.2">
       <c r="A75" s="10">
-        <v>45354</v>
-      </c>
-      <c r="B75" s="11">
-        <v>1</v>
-      </c>
+        <v>45352</v>
+      </c>
+      <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
+      <c r="E75" s="11">
+        <v>1</v>
+      </c>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="I75" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K75" s="11" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="L75" s="29">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="M75" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N75" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O75" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="P75" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q75" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R75" s="28"/>
     </row>
-    <row r="76" spans="1:18" ht="60">
+    <row r="76" spans="1:18" ht="28.8">
       <c r="A76" s="10">
-        <v>45354</v>
+        <v>45352</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11">
-        <v>1</v>
-      </c>
+      <c r="F76" s="11">
+        <v>1</v>
+      </c>
+      <c r="G76" s="11"/>
       <c r="H76" s="11" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="I76" s="25">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="L76" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M76" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N76" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O76" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P76" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="Q76" s="6">
-        <f t="shared" si="15"/>
-        <v>4.5</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="R76" s="28"/>
     </row>
-    <row r="77" spans="1:18" ht="30">
+    <row r="77" spans="1:18" ht="57.6">
       <c r="A77" s="10">
-        <v>45354</v>
-      </c>
-      <c r="B77" s="11">
-        <v>1</v>
-      </c>
+        <v>45353</v>
+      </c>
+      <c r="B77" s="11"/>
       <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
+      <c r="D77" s="11">
+        <v>1</v>
+      </c>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="I77" s="25">
         <v>3</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="K77" s="11" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="L77" s="29">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="M77" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N77" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O77" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P77" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="6"/>
       <c r="Q77" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R77" s="28"/>
     </row>
-    <row r="78" spans="1:18" ht="75">
+    <row r="78" spans="1:18" ht="43.2">
       <c r="A78" s="10">
-        <v>45354</v>
+        <v>45353</v>
       </c>
       <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
+      <c r="C78" s="11">
+        <v>1</v>
+      </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11">
-        <v>1</v>
-      </c>
+      <c r="E78" s="11"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="I78" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="L78" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M78" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N78" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O78" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R78" s="28"/>
+    </row>
+    <row r="79" spans="1:18" ht="43.2">
+      <c r="A79" s="10">
+        <v>45353</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11">
+        <v>1</v>
+      </c>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I79" s="25">
+        <v>2</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L79" s="29">
         <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="P78" s="6">
+        <v>0</v>
+      </c>
+      <c r="M79" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q78" s="6">
+      <c r="N79" s="6">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R78" s="28"/>
-    </row>
-    <row r="79" spans="1:18" ht="45">
-      <c r="A79" s="10">
-        <v>45354</v>
-      </c>
-      <c r="B79" s="11">
-        <v>1</v>
-      </c>
-      <c r="C79" s="11">
-        <v>1</v>
-      </c>
-      <c r="D79" s="11">
-        <v>1</v>
-      </c>
-      <c r="E79" s="11">
-        <v>1</v>
-      </c>
-      <c r="F79" s="11">
-        <v>1</v>
-      </c>
-      <c r="G79" s="11">
-        <v>1</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I79" s="25">
-        <v>3</v>
-      </c>
-      <c r="J79" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K79" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="L79" s="29">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="M79" s="6">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="N79" s="6">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
       <c r="O79" s="6">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="P79" s="6">
-        <f t="shared" si="14"/>
-        <v>3</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="Q79" s="6">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="R79" s="28"/>
     </row>
-    <row r="80" spans="1:18" ht="30">
+    <row r="80" spans="1:18" ht="43.2">
       <c r="A80" s="10">
-        <v>45355</v>
+        <v>45353</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -4579,489 +4599,943 @@
         <v>65</v>
       </c>
       <c r="I80" s="25">
+        <v>3</v>
+      </c>
+      <c r="J80" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="K80" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="L80" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O80" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P80" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="6">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="R80" s="28"/>
+    </row>
+    <row r="81" spans="1:18" ht="57.6">
+      <c r="A81" s="10">
+        <v>45353</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11">
+        <v>1</v>
+      </c>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I81" s="25">
+        <v>4</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L81" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N81" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O81" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P81" s="6">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="Q81" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R81" s="28"/>
+    </row>
+    <row r="82" spans="1:18" ht="28.8">
+      <c r="A82" s="10">
+        <v>45353</v>
+      </c>
+      <c r="B82" s="11">
+        <v>1</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I82" s="25">
+        <v>4</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L82" s="29">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="M82" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O82" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P82" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R82" s="28"/>
+    </row>
+    <row r="83" spans="1:18" ht="28.8">
+      <c r="A83" s="10">
+        <v>45354</v>
+      </c>
+      <c r="B83" s="11">
+        <v>1</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I83" s="25">
+        <v>4</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L83" s="29">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="M83" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O83" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P83" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R83" s="28"/>
+    </row>
+    <row r="84" spans="1:18" ht="57.6">
+      <c r="A84" s="10">
+        <v>45354</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11">
+        <v>1</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I84" s="25">
+        <v>4.5</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L84" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O84" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="6">
+        <f t="shared" si="18"/>
+        <v>4.5</v>
+      </c>
+      <c r="R84" s="28"/>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" s="10">
+        <v>45354</v>
+      </c>
+      <c r="B85" s="11">
+        <v>1</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I85" s="25">
+        <v>3</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L85" s="29">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="M85" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N85" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O85" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R85" s="28"/>
+    </row>
+    <row r="86" spans="1:18" ht="72">
+      <c r="A86" s="10">
+        <v>45354</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11">
+        <v>1</v>
+      </c>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I86" s="25">
+        <v>4</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L86" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O86" s="6">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="P86" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R86" s="28"/>
+    </row>
+    <row r="87" spans="1:18" ht="43.2">
+      <c r="A87" s="10">
+        <v>45354</v>
+      </c>
+      <c r="B87" s="11">
+        <v>1</v>
+      </c>
+      <c r="C87" s="11">
+        <v>1</v>
+      </c>
+      <c r="D87" s="11">
+        <v>1</v>
+      </c>
+      <c r="E87" s="11">
+        <v>1</v>
+      </c>
+      <c r="F87" s="11">
+        <v>1</v>
+      </c>
+      <c r="G87" s="11">
+        <v>1</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I87" s="25">
+        <v>3</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L87" s="29">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="M87" s="6">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="N87" s="6">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="O87" s="6">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="P87" s="6">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="Q87" s="6">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="R87" s="28"/>
+    </row>
+    <row r="88" spans="1:18" ht="43.2">
+      <c r="A88" s="10">
+        <v>45355</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11">
+        <v>1</v>
+      </c>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I88" s="25">
+        <v>1</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="L88" s="29">
+        <v>0</v>
+      </c>
+      <c r="M88" s="6">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="N88" s="6">
+        <v>0</v>
+      </c>
+      <c r="O88" s="6">
+        <v>0</v>
+      </c>
+      <c r="P88" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="6">
+        <v>0</v>
+      </c>
+      <c r="R88" s="28"/>
+    </row>
+    <row r="89" spans="1:18" ht="28.8">
+      <c r="A89" s="10">
+        <v>45355</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11">
+        <v>1</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I89" s="25">
         <v>2</v>
       </c>
-      <c r="J80" s="11" t="s">
+      <c r="J89" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="K80" s="11" t="s">
+      <c r="K89" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="L80" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M80" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N80" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O80" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P80" s="6">
+      <c r="L89" s="29">
+        <v>0</v>
+      </c>
+      <c r="M89" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q80" s="6">
+      <c r="N89" s="6">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O89" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P89" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="6">
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="R80" s="28"/>
-    </row>
-    <row r="81" spans="1:18">
-      <c r="A81" s="12"/>
-      <c r="H81" s="27"/>
-      <c r="K81" s="26" t="s">
+      <c r="R89" s="28"/>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" s="12"/>
+      <c r="H90" s="27"/>
+      <c r="K90" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="L81" s="28">
-        <f>SUM(L37:L80)</f>
+      <c r="L90" s="28">
+        <f t="shared" ref="L90:Q90" si="19">SUM(L37:L89)</f>
         <v>32.5</v>
       </c>
-      <c r="M81" s="28">
-        <f>SUM(M37:M80)</f>
-        <v>28</v>
-      </c>
-      <c r="N81" s="28">
-        <f>SUM(N37:N80)</f>
-        <v>8</v>
-      </c>
-      <c r="O81" s="28">
-        <f>SUM(O37:O80)</f>
+      <c r="M90" s="28">
+        <f t="shared" si="19"/>
+        <v>32</v>
+      </c>
+      <c r="N90" s="28">
+        <f t="shared" si="19"/>
+        <v>33.5</v>
+      </c>
+      <c r="O90" s="28">
+        <f t="shared" si="19"/>
         <v>34.5</v>
       </c>
-      <c r="P81" s="28">
-        <f>SUM(P37:P80)</f>
+      <c r="P90" s="28">
+        <f t="shared" si="19"/>
         <v>34.5</v>
       </c>
-      <c r="Q81" s="28">
-        <f>SUM(Q37:Q80)</f>
+      <c r="Q90" s="28">
+        <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="R81" s="28"/>
-    </row>
-    <row r="82" spans="1:18">
-      <c r="A82" s="12"/>
-      <c r="K82" s="27" t="s">
+      <c r="R90" s="28"/>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" s="12"/>
+      <c r="K91" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="P82" s="28"/>
-      <c r="Q82" s="28"/>
-      <c r="R82" s="28">
-        <f>SUM(L81:Q81)</f>
-        <v>170.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
-      <c r="A83" s="12"/>
-      <c r="P83" s="28"/>
-      <c r="Q83" s="34"/>
-      <c r="R83" s="28"/>
-    </row>
-    <row r="84" spans="1:18">
-      <c r="A84" s="12" t="s">
+      <c r="P91" s="28"/>
+      <c r="Q91" s="28"/>
+      <c r="R91" s="28">
+        <f>SUM(L90:Q90)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" s="12"/>
+      <c r="P92" s="28"/>
+      <c r="Q92" s="34"/>
+      <c r="R92" s="28"/>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="L84" s="23"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="26"/>
-      <c r="R84" s="28"/>
-    </row>
-    <row r="85" spans="1:18">
-      <c r="A85" s="35"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="29">
-        <f t="shared" ref="L85" si="16">B85*$I85</f>
-        <v>0</v>
-      </c>
-      <c r="M85" s="39">
-        <f t="shared" ref="M85" si="17">C85*$I85</f>
-        <v>0</v>
-      </c>
-      <c r="N85" s="39">
-        <f t="shared" ref="N85" si="18">D85*$I85</f>
-        <v>0</v>
-      </c>
-      <c r="O85" s="39">
-        <f t="shared" ref="O85" si="19">E85*$I85</f>
-        <v>0</v>
-      </c>
-      <c r="P85" s="40">
-        <f t="shared" ref="P85:Q85" si="20">F85*$I85</f>
-        <v>0</v>
-      </c>
-      <c r="Q85" s="40">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R85" s="28"/>
-    </row>
-    <row r="86" spans="1:18">
-      <c r="A86" s="35"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="30"/>
-      <c r="K86" s="31"/>
-      <c r="L86" s="27"/>
-      <c r="M86" s="27"/>
-      <c r="N86" s="27"/>
-      <c r="O86" s="27"/>
-      <c r="P86" s="26"/>
-      <c r="Q86" s="26"/>
-      <c r="R86" s="28">
-        <f>SUM(L93:P93)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
-      <c r="A87" s="12"/>
-      <c r="H87" s="27"/>
-      <c r="K87" s="26" t="s">
+      <c r="L93" s="23"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="24"/>
+      <c r="Q93" s="26"/>
+      <c r="R93" s="28"/>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" s="35"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="31"/>
+      <c r="L94" s="29">
+        <f t="shared" ref="L94" si="20">B94*$I94</f>
+        <v>0</v>
+      </c>
+      <c r="M94" s="39">
+        <f t="shared" ref="M94" si="21">C94*$I94</f>
+        <v>0</v>
+      </c>
+      <c r="N94" s="39">
+        <f t="shared" ref="N94" si="22">D94*$I94</f>
+        <v>0</v>
+      </c>
+      <c r="O94" s="39">
+        <f t="shared" ref="O94" si="23">E94*$I94</f>
+        <v>0</v>
+      </c>
+      <c r="P94" s="40">
+        <f t="shared" ref="P94:Q94" si="24">F94*$I94</f>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="40">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R94" s="28"/>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95" s="35"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="38"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="31"/>
+      <c r="L95" s="27"/>
+      <c r="M95" s="27"/>
+      <c r="N95" s="27"/>
+      <c r="O95" s="27"/>
+      <c r="P95" s="26"/>
+      <c r="Q95" s="26"/>
+      <c r="R95" s="28">
+        <f>SUM(L102:P102)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96" s="12"/>
+      <c r="H96" s="27"/>
+      <c r="K96" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="L87">
-        <f>SUM(L85:L86)</f>
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <f t="shared" ref="M87" si="21">SUM(M85:M86)</f>
-        <v>0</v>
-      </c>
-      <c r="N87">
-        <f t="shared" ref="N87" si="22">SUM(N85:N86)</f>
-        <v>0</v>
-      </c>
-      <c r="O87">
-        <f t="shared" ref="O87" si="23">SUM(O85:O86)</f>
-        <v>0</v>
-      </c>
-      <c r="P87" s="28">
-        <f t="shared" ref="P87:Q87" si="24">SUM(P85:P86)</f>
-        <v>0</v>
-      </c>
-      <c r="Q87" s="28">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R87" s="28"/>
-    </row>
-    <row r="88" spans="1:18">
-      <c r="A88" s="12"/>
-      <c r="K88" s="27" t="s">
+      <c r="L96">
+        <f>SUM(L94:L95)</f>
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <f t="shared" ref="M96" si="25">SUM(M94:M95)</f>
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <f t="shared" ref="N96" si="26">SUM(N94:N95)</f>
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <f t="shared" ref="O96" si="27">SUM(O94:O95)</f>
+        <v>0</v>
+      </c>
+      <c r="P96" s="28">
+        <f t="shared" ref="P96:Q96" si="28">SUM(P94:P95)</f>
+        <v>0</v>
+      </c>
+      <c r="Q96" s="28">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R96" s="28"/>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" s="12"/>
+      <c r="K97" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="P88" s="28"/>
-      <c r="Q88" s="28"/>
-      <c r="R88" s="28"/>
-    </row>
-    <row r="89" spans="1:18">
-      <c r="A89" s="12"/>
-      <c r="K89" s="27"/>
-      <c r="P89" s="28"/>
-      <c r="Q89" s="34"/>
-      <c r="R89" s="28"/>
-    </row>
-    <row r="90" spans="1:18">
-      <c r="A90" s="12" t="s">
+      <c r="P97" s="28"/>
+      <c r="Q97" s="28"/>
+      <c r="R97" s="28"/>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" s="12"/>
+      <c r="K98" s="27"/>
+      <c r="P98" s="28"/>
+      <c r="Q98" s="34"/>
+      <c r="R98" s="28"/>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="L90" s="23"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="24"/>
-      <c r="Q90" s="26"/>
-      <c r="R90" s="28"/>
-    </row>
-    <row r="91" spans="1:18">
-      <c r="A91" s="35"/>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="30"/>
-      <c r="K91" s="31"/>
-      <c r="L91" s="29">
-        <f t="shared" ref="L91" si="25">B91*$I91</f>
-        <v>0</v>
-      </c>
-      <c r="M91" s="39">
-        <f t="shared" ref="M91" si="26">C91*$I91</f>
-        <v>0</v>
-      </c>
-      <c r="N91" s="39">
-        <f t="shared" ref="N91" si="27">D91*$I91</f>
-        <v>0</v>
-      </c>
-      <c r="O91" s="39">
-        <f t="shared" ref="O91" si="28">E91*$I91</f>
-        <v>0</v>
-      </c>
-      <c r="P91" s="40">
-        <f t="shared" ref="P91:Q91" si="29">F91*$I91</f>
-        <v>0</v>
-      </c>
-      <c r="Q91" s="40">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="R91" s="28">
-        <f>SUM(L98:P98)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18">
-      <c r="A92" s="35"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="30"/>
-      <c r="K92" s="31"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="27"/>
-      <c r="N92" s="27"/>
-      <c r="O92" s="27"/>
-      <c r="P92" s="26"/>
-      <c r="Q92" s="26"/>
-      <c r="R92" s="28"/>
-    </row>
-    <row r="93" spans="1:18">
-      <c r="A93" s="12"/>
-      <c r="H93" s="27"/>
-      <c r="K93" s="26" t="s">
+      <c r="L99" s="23"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="24"/>
+      <c r="Q99" s="26"/>
+      <c r="R99" s="28"/>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100" s="35"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="38"/>
+      <c r="J100" s="30"/>
+      <c r="K100" s="31"/>
+      <c r="L100" s="29">
+        <f t="shared" ref="L100" si="29">B100*$I100</f>
+        <v>0</v>
+      </c>
+      <c r="M100" s="39">
+        <f t="shared" ref="M100" si="30">C100*$I100</f>
+        <v>0</v>
+      </c>
+      <c r="N100" s="39">
+        <f t="shared" ref="N100" si="31">D100*$I100</f>
+        <v>0</v>
+      </c>
+      <c r="O100" s="39">
+        <f t="shared" ref="O100" si="32">E100*$I100</f>
+        <v>0</v>
+      </c>
+      <c r="P100" s="40">
+        <f t="shared" ref="P100:Q100" si="33">F100*$I100</f>
+        <v>0</v>
+      </c>
+      <c r="Q100" s="40">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R100" s="28">
+        <f>SUM(L107:P107)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101" s="35"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="38"/>
+      <c r="J101" s="30"/>
+      <c r="K101" s="31"/>
+      <c r="L101" s="27"/>
+      <c r="M101" s="27"/>
+      <c r="N101" s="27"/>
+      <c r="O101" s="27"/>
+      <c r="P101" s="26"/>
+      <c r="Q101" s="26"/>
+      <c r="R101" s="28"/>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" s="12"/>
+      <c r="H102" s="27"/>
+      <c r="K102" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="L93">
-        <f>SUM(L91:L92)</f>
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <f t="shared" ref="M93" si="30">SUM(M91:M92)</f>
-        <v>0</v>
-      </c>
-      <c r="N93">
-        <f t="shared" ref="N93" si="31">SUM(N91:N92)</f>
-        <v>0</v>
-      </c>
-      <c r="O93">
-        <f t="shared" ref="O93" si="32">SUM(O91:O92)</f>
-        <v>0</v>
-      </c>
-      <c r="P93" s="28">
-        <f t="shared" ref="P93:Q93" si="33">SUM(P91:P92)</f>
-        <v>0</v>
-      </c>
-      <c r="Q93" s="28">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="R93" s="28"/>
-    </row>
-    <row r="94" spans="1:18">
-      <c r="A94" s="12"/>
-      <c r="K94" t="s">
+      <c r="L102">
+        <f>SUM(L100:L101)</f>
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <f t="shared" ref="M102" si="34">SUM(M100:M101)</f>
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <f t="shared" ref="N102" si="35">SUM(N100:N101)</f>
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <f t="shared" ref="O102" si="36">SUM(O100:O101)</f>
+        <v>0</v>
+      </c>
+      <c r="P102" s="28">
+        <f t="shared" ref="P102:Q102" si="37">SUM(P100:P101)</f>
+        <v>0</v>
+      </c>
+      <c r="Q102" s="28">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="R102" s="28"/>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" s="12"/>
+      <c r="K103" t="s">
         <v>135</v>
       </c>
-      <c r="P94" s="28"/>
-      <c r="Q94" s="34"/>
-      <c r="R94" s="34">
-        <f>SUM(L101:Q101)</f>
-        <v>263</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18">
-      <c r="A95" s="12" t="s">
+      <c r="P103" s="28"/>
+      <c r="Q103" s="34"/>
+      <c r="R103" s="34">
+        <f>SUM(L110:Q110)</f>
+        <v>292.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="L95" s="23"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="24"/>
-      <c r="Q95" s="26"/>
-    </row>
-    <row r="96" spans="1:18">
-      <c r="A96" s="35"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="38"/>
-      <c r="J96" s="30"/>
-      <c r="K96" s="31"/>
-      <c r="L96" s="29">
-        <f t="shared" ref="L96" si="34">B96*$I96</f>
-        <v>0</v>
-      </c>
-      <c r="M96" s="39">
-        <f t="shared" ref="M96" si="35">C96*$I96</f>
-        <v>0</v>
-      </c>
-      <c r="N96" s="39">
-        <f t="shared" ref="N96" si="36">D96*$I96</f>
-        <v>0</v>
-      </c>
-      <c r="O96" s="39">
-        <f t="shared" ref="O96" si="37">E96*$I96</f>
-        <v>0</v>
-      </c>
-      <c r="P96" s="40">
-        <f t="shared" ref="P96:Q96" si="38">F96*$I96</f>
-        <v>0</v>
-      </c>
-      <c r="Q96" s="40">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
-      <c r="A97" s="35"/>
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="30"/>
-      <c r="I97" s="38"/>
-      <c r="J97" s="30"/>
-      <c r="K97" s="31"/>
-      <c r="L97" s="27"/>
-      <c r="M97" s="27"/>
-      <c r="N97" s="27"/>
-      <c r="O97" s="27"/>
-      <c r="P97" s="26"/>
-      <c r="Q97" s="26"/>
-    </row>
-    <row r="98" spans="1:17">
-      <c r="A98" s="12"/>
-      <c r="H98" s="27"/>
-      <c r="K98" s="26" t="s">
+      <c r="L104" s="23"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="24"/>
+      <c r="Q104" s="26"/>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105" s="35"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="38"/>
+      <c r="J105" s="30"/>
+      <c r="K105" s="31"/>
+      <c r="L105" s="29">
+        <f t="shared" ref="L105" si="38">B105*$I105</f>
+        <v>0</v>
+      </c>
+      <c r="M105" s="39">
+        <f t="shared" ref="M105" si="39">C105*$I105</f>
+        <v>0</v>
+      </c>
+      <c r="N105" s="39">
+        <f t="shared" ref="N105" si="40">D105*$I105</f>
+        <v>0</v>
+      </c>
+      <c r="O105" s="39">
+        <f t="shared" ref="O105" si="41">E105*$I105</f>
+        <v>0</v>
+      </c>
+      <c r="P105" s="40">
+        <f t="shared" ref="P105:Q105" si="42">F105*$I105</f>
+        <v>0</v>
+      </c>
+      <c r="Q105" s="40">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="35"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="38"/>
+      <c r="J106" s="30"/>
+      <c r="K106" s="31"/>
+      <c r="L106" s="27"/>
+      <c r="M106" s="27"/>
+      <c r="N106" s="27"/>
+      <c r="O106" s="27"/>
+      <c r="P106" s="26"/>
+      <c r="Q106" s="26"/>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107" s="12"/>
+      <c r="H107" s="27"/>
+      <c r="K107" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="L98">
-        <f>SUM(L96:L97)</f>
-        <v>0</v>
-      </c>
-      <c r="M98">
-        <f t="shared" ref="M98" si="39">SUM(M96:M97)</f>
-        <v>0</v>
-      </c>
-      <c r="N98">
-        <f t="shared" ref="N98" si="40">SUM(N96:N97)</f>
-        <v>0</v>
-      </c>
-      <c r="O98">
-        <f t="shared" ref="O98" si="41">SUM(O96:O97)</f>
-        <v>0</v>
-      </c>
-      <c r="P98" s="28">
-        <f t="shared" ref="P98:Q98" si="42">SUM(P96:P97)</f>
-        <v>0</v>
-      </c>
-      <c r="Q98" s="28">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17">
-      <c r="A99" s="12"/>
-      <c r="K99" t="s">
+      <c r="L107">
+        <f>SUM(L105:L106)</f>
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <f t="shared" ref="M107" si="43">SUM(M105:M106)</f>
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <f t="shared" ref="N107" si="44">SUM(N105:N106)</f>
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <f t="shared" ref="O107" si="45">SUM(O105:O106)</f>
+        <v>0</v>
+      </c>
+      <c r="P107" s="28">
+        <f t="shared" ref="P107:Q107" si="46">SUM(P105:P106)</f>
+        <v>0</v>
+      </c>
+      <c r="Q107" s="28">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="12"/>
+      <c r="K108" t="s">
         <v>137</v>
       </c>
-      <c r="P99" s="28"/>
-      <c r="Q99" s="28"/>
-    </row>
-    <row r="100" spans="1:17">
-      <c r="A100" s="12"/>
-      <c r="P100" s="28"/>
-      <c r="Q100" s="28"/>
-    </row>
-    <row r="101" spans="1:17">
-      <c r="A101" s="12"/>
-      <c r="K101" s="41" t="s">
+      <c r="P108" s="28"/>
+      <c r="Q108" s="28"/>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109" s="12"/>
+      <c r="P109" s="28"/>
+      <c r="Q109" s="28"/>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110" s="12"/>
+      <c r="K110" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="L101">
-        <f>L34+L81+L87+L93+L98</f>
+      <c r="L110">
+        <f>L34+L90+L96+L102+L107</f>
         <v>46.5</v>
       </c>
-      <c r="M101">
-        <f>M34+M81+M87+M93+M98</f>
-        <v>44.5</v>
-      </c>
-      <c r="N101">
-        <f>N34+N81+N87+N93+N98</f>
-        <v>24.5</v>
-      </c>
-      <c r="O101">
-        <f>O34+O81+O87+O93+O98</f>
+      <c r="M110">
+        <f>M34+M90+M96+M102+M107</f>
         <v>48.5</v>
       </c>
-      <c r="P101" s="28">
-        <f>P34+P81+P87+P93+P98</f>
+      <c r="N110">
+        <f>N34+N90+N96+N102+N107</f>
+        <v>50</v>
+      </c>
+      <c r="O110">
+        <f>O34+O90+O96+O102+O107</f>
+        <v>48.5</v>
+      </c>
+      <c r="P110" s="28">
+        <f>P34+P90+P96+P102+P107</f>
         <v>51</v>
       </c>
-      <c r="Q101" s="28">
-        <f>Q34+Q81+Q87+Q93+Q98</f>
+      <c r="Q110" s="28">
+        <f>Q34+Q90+Q96+Q102+Q107</f>
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="30">
-      <c r="A102" s="36"/>
-      <c r="B102" s="37"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="37"/>
-      <c r="I102" s="37"/>
-      <c r="J102" s="37"/>
-      <c r="K102" s="42" t="s">
+    <row r="111" spans="1:18" ht="28.8">
+      <c r="A111" s="36"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="37"/>
+      <c r="I111" s="37"/>
+      <c r="J111" s="37"/>
+      <c r="K111" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="L102" s="37"/>
-      <c r="M102" s="37"/>
-      <c r="N102" s="37"/>
-      <c r="O102" s="37"/>
-      <c r="P102" s="34"/>
-      <c r="Q102" s="34"/>
+      <c r="L111" s="37"/>
+      <c r="M111" s="37"/>
+      <c r="N111" s="37"/>
+      <c r="O111" s="37"/>
+      <c r="P111" s="34"/>
+      <c r="Q111" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
